--- a/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
+++ b/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B890A6F-92A6-4023-9C4E-7A0A5CD13710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratheesh\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1557EFF6-AB3D-4DAB-A524-FC5EEB89B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic Data" sheetId="1" r:id="rId1"/>
@@ -2937,9 +2942,6 @@
     <t>https://terminology.hl7.org/6.0.2/CodeSystem-data-absent-reason</t>
   </si>
   <si>
-    <t>This sheet explains all the diffeence between trhe business logic and schema described in the original excel docuemt at url and SHIN-NY IG version v1.0.0. Needs to be updated.</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -2949,9 +2951,6 @@
     <t>Original CSV</t>
   </si>
   <si>
-    <t>SHIN-NY IG version v1.0.0</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
@@ -3094,6 +3093,12 @@
   </si>
   <si>
     <t>Screening Resources</t>
+  </si>
+  <si>
+    <t>SHIN-NY IG version v1.1.0</t>
+  </si>
+  <si>
+    <t>This sheet explains all the diffeence between the business logic and schema described in the original excel docuemt at 'https://nyehealth-my.sharepoint.com/:x:/g/personal/reager_nyehealth_org/EVxWvXAi9VdNs3vxAPAxXqkBZOv_1vaWAA141bEJodQENQ?rtime=8cSzAvcO3Ug' and SHIN-NY IG version v1.1.0. Needs to be updated.</t>
   </si>
 </sst>
 </file>
@@ -3260,22 +3265,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4183,76 +4192,76 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="43.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="43.375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="56.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="55.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="56.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="67.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.25" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="49" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="43.28515625" customWidth="1"/>
-    <col min="42" max="42" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="43.28515625" customWidth="1"/>
+    <col min="35" max="35" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="43.25" customWidth="1"/>
+    <col min="42" max="42" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="43.25" customWidth="1"/>
     <col min="44" max="44" width="39" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="53.42578125" customWidth="1"/>
-    <col min="51" max="51" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="53.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="53.375" customWidth="1"/>
+    <col min="51" max="51" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="57.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="58.25" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="31" customWidth="1"/>
-    <col min="55" max="55" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="39.5703125" customWidth="1"/>
-    <col min="65" max="65" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="78.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="39.625" customWidth="1"/>
+    <col min="65" max="65" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="42.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="2" customFormat="1">
+    <row r="1" spans="1:74" s="2" customFormat="1" ht="15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4731,34 +4740,34 @@
       <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" ht="29.25">
+    <row r="1" spans="1:25" s="7" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4835,7 +4844,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" ht="29.25">
+    <row r="2" spans="1:25" s="5" customFormat="1" ht="28.5">
       <c r="A2" s="5">
         <v>11223344</v>
       </c>
@@ -4912,29 +4921,29 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="127.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="196" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.75" customWidth="1"/>
+    <col min="11" max="11" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.875" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6094,27 +6103,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.75" customWidth="1"/>
+    <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="56" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6229,25 +6238,25 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6352,26 +6361,26 @@
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6418,7 +6427,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.5">
+    <row r="2" spans="1:15">
       <c r="A2" s="5">
         <v>11223344</v>
       </c>
@@ -6484,28 +6493,28 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="83" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="59.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6631,123 +6640,123 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D60A84-5E08-43D0-B361-C2827226B37C}">
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124:G129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="14" max="14" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" ht="15.75">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" s="26" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A2" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" ht="15.75">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="G2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:14" s="21" customFormat="1">
+      <c r="A3" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="B3" s="21" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="26" customFormat="1">
-      <c r="A3" s="26" t="s">
+      <c r="C3" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="26" t="s">
+    </row>
+    <row r="4" spans="1:14" s="21" customFormat="1">
+      <c r="A4" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="B4" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26" t="s">
+    </row>
+    <row r="5" spans="1:14" s="21" customFormat="1">
+      <c r="A5" s="21" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="26" customFormat="1">
-      <c r="A4" s="27" t="s">
+      <c r="B5" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="21" customFormat="1">
+      <c r="A6" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B6" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="26" customFormat="1">
-      <c r="A5" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="26" customFormat="1">
-      <c r="A6" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>434</v>
+      <c r="E6" s="21" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1">
@@ -6755,22 +6764,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1">
@@ -6778,19 +6787,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F8" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="11" customFormat="1">
@@ -6798,19 +6807,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F9" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="11" customFormat="1">
@@ -6818,19 +6827,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F10" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
@@ -6838,25 +6847,25 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F11" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>444</v>
+        <v>437</v>
+      </c>
+      <c r="F11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6864,88 +6873,88 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>441</v>
-      </c>
-      <c r="F12" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
-      </c>
-      <c r="F13" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H13" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F14" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H14" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>439</v>
-      </c>
-      <c r="F15" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>444</v>
+        <v>437</v>
+      </c>
+      <c r="F15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -6953,85 +6962,85 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>441</v>
-      </c>
-      <c r="F16" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H16" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>441</v>
-      </c>
-      <c r="F17" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H17" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>441</v>
-      </c>
-      <c r="F18" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H18" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:14" s="11" customFormat="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -7039,19 +7048,19 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>441</v>
-      </c>
-      <c r="F20" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -7059,19 +7068,19 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>441</v>
-      </c>
-      <c r="F21" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1">
@@ -7079,22 +7088,22 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F22" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -7102,19 +7111,19 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>441</v>
-      </c>
-      <c r="F23" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -7122,19 +7131,19 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>441</v>
-      </c>
-      <c r="F24" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="11" customFormat="1">
@@ -7142,22 +7151,22 @@
         <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F25" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="11" customFormat="1">
@@ -7165,20 +7174,20 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C26"/>
       <c r="D26" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>441</v>
-      </c>
-      <c r="F26" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>441</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -7193,20 +7202,20 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>441</v>
-      </c>
-      <c r="F27" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>441</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -7221,22 +7230,22 @@
         <v>21</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F28" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -7244,7 +7253,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -7253,13 +7262,13 @@
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>450</v>
-      </c>
-      <c r="F29" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>443</v>
+        <v>448</v>
+      </c>
+      <c r="F29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -7267,7 +7276,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -7276,13 +7285,13 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>450</v>
-      </c>
-      <c r="F30" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>443</v>
+        <v>448</v>
+      </c>
+      <c r="F30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -7290,7 +7299,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -7299,13 +7308,13 @@
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>450</v>
-      </c>
-      <c r="F31" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>443</v>
+        <v>448</v>
+      </c>
+      <c r="F31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -7313,19 +7322,19 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>441</v>
-      </c>
-      <c r="F32" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7333,7 +7342,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -7342,13 +7351,13 @@
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>450</v>
-      </c>
-      <c r="F33" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>443</v>
+        <v>448</v>
+      </c>
+      <c r="F33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7356,7 +7365,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -7365,13 +7374,13 @@
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>450</v>
-      </c>
-      <c r="F34" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>443</v>
+        <v>448</v>
+      </c>
+      <c r="F34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="11" customFormat="1">
@@ -7379,19 +7388,19 @@
         <v>28</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F35" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -7399,19 +7408,19 @@
         <v>29</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F36" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7419,19 +7428,19 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>441</v>
-      </c>
-      <c r="F37" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F37" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7439,19 +7448,19 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>441</v>
-      </c>
-      <c r="F38" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F38" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7459,19 +7468,19 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>441</v>
-      </c>
-      <c r="F39" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F39" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7479,19 +7488,19 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>441</v>
-      </c>
-      <c r="F40" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F40" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7499,19 +7508,19 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>441</v>
-      </c>
-      <c r="F41" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F41" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7519,19 +7528,19 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>441</v>
-      </c>
-      <c r="F42" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F42" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7539,19 +7548,19 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>441</v>
-      </c>
-      <c r="F43" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F43" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7559,19 +7568,19 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D44" t="s">
         <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>441</v>
-      </c>
-      <c r="F44" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F44" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7579,19 +7588,19 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>441</v>
-      </c>
-      <c r="F45" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F45" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="11" customFormat="1">
@@ -7599,22 +7608,22 @@
         <v>40</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F46" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="11" customFormat="1">
@@ -7622,7 +7631,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>39</v>
@@ -7631,13 +7640,13 @@
         <v>39</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F47" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7645,22 +7654,22 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D48" t="s">
         <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>441</v>
-      </c>
-      <c r="F48" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>452</v>
+        <v>439</v>
+      </c>
+      <c r="F48" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7668,157 +7677,157 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>441</v>
-      </c>
-      <c r="F49" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H49" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F49" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H49" s="24"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C50" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>439</v>
-      </c>
-      <c r="F50" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H50" s="25"/>
+        <v>437</v>
+      </c>
+      <c r="F50" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C51" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>439</v>
-      </c>
-      <c r="F51" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H51" s="25"/>
+        <v>437</v>
+      </c>
+      <c r="F51" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C52" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
-      </c>
-      <c r="F52" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H52" s="25"/>
+        <v>437</v>
+      </c>
+      <c r="F52" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H52" s="24"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D53" t="s">
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>441</v>
-      </c>
-      <c r="F53" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H53" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F53" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H53" s="24"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D54" t="s">
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>441</v>
-      </c>
-      <c r="F54" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H54" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F54" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>441</v>
-      </c>
-      <c r="F55" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>452</v>
+        <v>439</v>
+      </c>
+      <c r="F55" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7826,154 +7835,154 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D56" t="s">
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>441</v>
-      </c>
-      <c r="F56" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H56" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F56" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H56" s="24"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C57" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D57" t="s">
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>439</v>
-      </c>
-      <c r="F57" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H57" s="25"/>
+        <v>437</v>
+      </c>
+      <c r="F57" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H57" s="24"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C58" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>439</v>
-      </c>
-      <c r="F58" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H58" s="25"/>
+        <v>437</v>
+      </c>
+      <c r="F58" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H58" s="24"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D59" t="s">
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>439</v>
-      </c>
-      <c r="F59" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H59" s="25"/>
+        <v>437</v>
+      </c>
+      <c r="F59" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H59" s="24"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D60" t="s">
         <v>53</v>
       </c>
       <c r="E60" t="s">
-        <v>441</v>
-      </c>
-      <c r="F60" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H60" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F60" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H60" s="24"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>441</v>
-      </c>
-      <c r="F61" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H61" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="F61" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H61" s="24"/>
     </row>
     <row r="62" spans="1:8" s="11" customFormat="1">
       <c r="A62" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F62" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7981,19 +7990,19 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>441</v>
-      </c>
-      <c r="F63" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F63" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -8001,19 +8010,19 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D64" t="s">
         <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>441</v>
-      </c>
-      <c r="F64" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F64" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -8021,19 +8030,19 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D65" t="s">
         <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>441</v>
-      </c>
-      <c r="F65" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F65" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -8041,19 +8050,19 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>441</v>
-      </c>
-      <c r="F66" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F66" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -8061,19 +8070,19 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D67" t="s">
         <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>441</v>
-      </c>
-      <c r="F67" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F67" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -8081,19 +8090,19 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D68" t="s">
         <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>441</v>
-      </c>
-      <c r="F68" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F68" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -8101,19 +8110,19 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D69" t="s">
         <v>62</v>
       </c>
       <c r="E69" t="s">
-        <v>441</v>
-      </c>
-      <c r="F69" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F69" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -8121,19 +8130,19 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>441</v>
-      </c>
-      <c r="F70" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F70" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="11" customFormat="1">
@@ -8141,22 +8150,22 @@
         <v>71</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>71</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F71" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -8164,22 +8173,22 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C72" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D72" t="s">
         <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>439</v>
-      </c>
-      <c r="F72" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>443</v>
+        <v>437</v>
+      </c>
+      <c r="F72" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="11" customFormat="1">
@@ -8187,7 +8196,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>73</v>
@@ -8196,13 +8205,13 @@
         <v>73</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F73" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -8210,19 +8219,19 @@
         <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D74" t="s">
         <v>64</v>
       </c>
       <c r="E74" t="s">
-        <v>441</v>
-      </c>
-      <c r="F74" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F74" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -8230,19 +8239,19 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D75" t="s">
         <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>441</v>
-      </c>
-      <c r="F75" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F75" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -8250,19 +8259,19 @@
         <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D76" t="s">
         <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>441</v>
-      </c>
-      <c r="F76" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F76" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="11" customFormat="1">
@@ -8270,19 +8279,19 @@
         <v>67</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>67</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F77" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="11" customFormat="1">
@@ -8290,19 +8299,19 @@
         <v>68</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F78" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="11" customFormat="1">
@@ -8310,19 +8319,19 @@
         <v>69</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>69</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F79" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -8330,61 +8339,61 @@
         <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D80" t="s">
         <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>441</v>
-      </c>
-      <c r="F80" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="24" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="26" customFormat="1">
-      <c r="A81" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F80" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="21" customFormat="1">
+      <c r="A81" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="21" customFormat="1">
+      <c r="A82" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B82" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="21" customFormat="1">
+      <c r="A83" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C81" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="26" customFormat="1">
-      <c r="A82" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="B82" s="26" t="s">
+      <c r="B83" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C82" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="26" customFormat="1">
-      <c r="A83" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>434</v>
+      <c r="E83" s="21" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="11" customFormat="1">
@@ -8392,22 +8401,22 @@
         <v>0</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F84" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="11" customFormat="1">
@@ -8415,7 +8424,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>133</v>
@@ -8424,13 +8433,13 @@
         <v>133</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F85" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="11" customFormat="1">
@@ -8438,19 +8447,19 @@
         <v>144</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>144</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F86" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="11" customFormat="1">
@@ -8458,19 +8467,19 @@
         <v>132</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>132</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F87" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="11" customFormat="1">
@@ -8478,22 +8487,22 @@
         <v>134</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F88" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -8501,22 +8510,22 @@
         <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D89" t="s">
         <v>135</v>
       </c>
       <c r="E89" t="s">
-        <v>439</v>
-      </c>
-      <c r="F89" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>468</v>
+        <v>437</v>
+      </c>
+      <c r="F89" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -8524,19 +8533,19 @@
         <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D90" t="s">
         <v>136</v>
       </c>
       <c r="E90" t="s">
-        <v>441</v>
-      </c>
-      <c r="F90" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" s="24" t="s">
-        <v>468</v>
+        <v>439</v>
+      </c>
+      <c r="F90" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -8544,19 +8553,19 @@
         <v>137</v>
       </c>
       <c r="B91" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D91" t="s">
         <v>137</v>
       </c>
       <c r="E91" t="s">
-        <v>441</v>
-      </c>
-      <c r="F91" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>468</v>
+        <v>439</v>
+      </c>
+      <c r="F91" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -8564,7 +8573,7 @@
         <v>138</v>
       </c>
       <c r="B92" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C92" t="s">
         <v>138</v>
@@ -8573,13 +8582,13 @@
         <v>138</v>
       </c>
       <c r="E92" t="s">
-        <v>461</v>
-      </c>
-      <c r="F92" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" s="24" t="s">
-        <v>443</v>
+        <v>459</v>
+      </c>
+      <c r="F92" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -8587,7 +8596,7 @@
         <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C93" t="s">
         <v>139</v>
@@ -8596,13 +8605,13 @@
         <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>461</v>
-      </c>
-      <c r="F93" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>443</v>
+        <v>459</v>
+      </c>
+      <c r="F93" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -8610,7 +8619,7 @@
         <v>140</v>
       </c>
       <c r="B94" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C94" t="s">
         <v>140</v>
@@ -8619,13 +8628,13 @@
         <v>140</v>
       </c>
       <c r="E94" t="s">
-        <v>461</v>
-      </c>
-      <c r="F94" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" s="24" t="s">
-        <v>443</v>
+        <v>459</v>
+      </c>
+      <c r="F94" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -8633,7 +8642,7 @@
         <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C95" t="s">
         <v>141</v>
@@ -8642,13 +8651,13 @@
         <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>461</v>
-      </c>
-      <c r="F95" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>443</v>
+        <v>459</v>
+      </c>
+      <c r="F95" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -8656,19 +8665,19 @@
         <v>142</v>
       </c>
       <c r="B96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D96" t="s">
         <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>441</v>
-      </c>
-      <c r="F96" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F96" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -8676,7 +8685,7 @@
         <v>143</v>
       </c>
       <c r="B97" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C97" t="s">
         <v>143</v>
@@ -8685,13 +8694,13 @@
         <v>143</v>
       </c>
       <c r="E97" t="s">
-        <v>461</v>
-      </c>
-      <c r="F97" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" s="24" t="s">
-        <v>443</v>
+        <v>459</v>
+      </c>
+      <c r="F97" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -8699,19 +8708,19 @@
         <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D98" t="s">
         <v>145</v>
       </c>
       <c r="E98" t="s">
-        <v>441</v>
-      </c>
-      <c r="F98" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F98" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -8719,39 +8728,39 @@
         <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D99" t="s">
         <v>155</v>
       </c>
       <c r="E99" t="s">
-        <v>441</v>
-      </c>
-      <c r="F99" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F99" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B100" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D100" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E100" t="s">
-        <v>441</v>
-      </c>
-      <c r="F100" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F100" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -8759,19 +8768,19 @@
         <v>147</v>
       </c>
       <c r="B101" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D101" t="s">
         <v>147</v>
       </c>
       <c r="E101" t="s">
-        <v>441</v>
-      </c>
-      <c r="F101" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -8779,19 +8788,19 @@
         <v>148</v>
       </c>
       <c r="B102" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D102" t="s">
         <v>148</v>
       </c>
       <c r="E102" t="s">
-        <v>441</v>
-      </c>
-      <c r="F102" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -8799,19 +8808,19 @@
         <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D103" t="s">
         <v>149</v>
       </c>
       <c r="E103" t="s">
-        <v>441</v>
-      </c>
-      <c r="F103" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -8819,19 +8828,19 @@
         <v>150</v>
       </c>
       <c r="B104" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D104" t="s">
         <v>150</v>
       </c>
       <c r="E104" t="s">
-        <v>441</v>
-      </c>
-      <c r="F104" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -8839,19 +8848,19 @@
         <v>151</v>
       </c>
       <c r="B105" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D105" t="s">
         <v>151</v>
       </c>
       <c r="E105" t="s">
-        <v>441</v>
-      </c>
-      <c r="F105" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F105" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -8859,19 +8868,19 @@
         <v>152</v>
       </c>
       <c r="B106" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D106" t="s">
         <v>152</v>
       </c>
       <c r="E106" t="s">
-        <v>441</v>
-      </c>
-      <c r="F106" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -8879,19 +8888,19 @@
         <v>153</v>
       </c>
       <c r="B107" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D107" t="s">
         <v>153</v>
       </c>
       <c r="E107" t="s">
-        <v>441</v>
-      </c>
-      <c r="F107" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8899,62 +8908,62 @@
         <v>154</v>
       </c>
       <c r="B108" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D108" t="s">
         <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>441</v>
-      </c>
-      <c r="F108" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F108" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="11" customFormat="1">
-      <c r="A109" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-    </row>
-    <row r="110" spans="1:7" s="17" customFormat="1">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-    </row>
-    <row r="111" spans="1:7" s="17" customFormat="1">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
+      <c r="A109" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+    </row>
+    <row r="110" spans="1:7" s="17" customFormat="1" ht="15">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+    </row>
+    <row r="111" spans="1:7" s="17" customFormat="1" ht="15">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
     </row>
     <row r="112" spans="1:7" s="11" customFormat="1">
       <c r="A112" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F112" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="11" customFormat="1">
@@ -8962,19 +8971,19 @@
         <v>168</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F113" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="11" customFormat="1">
@@ -8982,19 +8991,19 @@
         <v>169</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>169</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F114" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="11" customFormat="1">
@@ -9002,19 +9011,19 @@
         <v>170</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>170</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F115" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="11" customFormat="1">
@@ -9022,19 +9031,19 @@
         <v>171</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F116" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="11" customFormat="1">
@@ -9042,19 +9051,19 @@
         <v>172</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>172</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F117" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="11" customFormat="1">
@@ -9062,19 +9071,19 @@
         <v>173</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D118" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F118" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -9082,19 +9091,19 @@
         <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D119" t="s">
         <v>174</v>
       </c>
       <c r="E119" t="s">
-        <v>441</v>
-      </c>
-      <c r="F119" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G119" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F119" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -9102,19 +9111,19 @@
         <v>175</v>
       </c>
       <c r="B120" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D120" t="s">
         <v>175</v>
       </c>
       <c r="E120" t="s">
-        <v>441</v>
-      </c>
-      <c r="F120" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G120" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F120" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -9122,19 +9131,19 @@
         <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D121" t="s">
         <v>176</v>
       </c>
       <c r="E121" t="s">
-        <v>441</v>
-      </c>
-      <c r="F121" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G121" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F121" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -9142,19 +9151,19 @@
         <v>177</v>
       </c>
       <c r="B122" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D122" t="s">
         <v>177</v>
       </c>
       <c r="E122" t="s">
-        <v>441</v>
-      </c>
-      <c r="F122" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G122" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F122" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -9162,19 +9171,19 @@
         <v>178</v>
       </c>
       <c r="B123" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D123" t="s">
         <v>178</v>
       </c>
       <c r="E123" t="s">
-        <v>441</v>
-      </c>
-      <c r="F123" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F123" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -9182,19 +9191,19 @@
         <v>179</v>
       </c>
       <c r="B124" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D124" t="s">
         <v>179</v>
       </c>
       <c r="E124" t="s">
-        <v>441</v>
-      </c>
-      <c r="F124" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F124" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -9202,19 +9211,19 @@
         <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D125" t="s">
         <v>180</v>
       </c>
       <c r="E125" t="s">
-        <v>441</v>
-      </c>
-      <c r="F125" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G125" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F125" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -9222,19 +9231,19 @@
         <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D126" t="s">
         <v>181</v>
       </c>
       <c r="E126" t="s">
-        <v>441</v>
-      </c>
-      <c r="F126" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F126" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -9242,19 +9251,19 @@
         <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D127" t="s">
         <v>182</v>
       </c>
       <c r="E127" t="s">
-        <v>441</v>
-      </c>
-      <c r="F127" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F127" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -9262,19 +9271,19 @@
         <v>183</v>
       </c>
       <c r="B128" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D128" t="s">
         <v>183</v>
       </c>
       <c r="E128" t="s">
-        <v>441</v>
-      </c>
-      <c r="F128" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G128" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F128" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -9282,19 +9291,19 @@
         <v>184</v>
       </c>
       <c r="B129" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D129" t="s">
         <v>184</v>
       </c>
       <c r="E129" t="s">
-        <v>441</v>
-      </c>
-      <c r="F129" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F129" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="11" customFormat="1">
@@ -9302,19 +9311,19 @@
         <v>0</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F130" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="11" customFormat="1">
@@ -9322,19 +9331,19 @@
         <v>358</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>358</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F131" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="11" customFormat="1">
@@ -9342,19 +9351,19 @@
         <v>359</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>359</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F132" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="11" customFormat="1">
@@ -9362,19 +9371,19 @@
         <v>360</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>360</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F133" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="11" customFormat="1">
@@ -9382,19 +9391,19 @@
         <v>361</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>361</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F134" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="11" customFormat="1">
@@ -9402,19 +9411,19 @@
         <v>362</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F135" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -9422,19 +9431,19 @@
         <v>363</v>
       </c>
       <c r="B136" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D136" t="s">
         <v>363</v>
       </c>
       <c r="E136" t="s">
-        <v>441</v>
-      </c>
-      <c r="F136" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G136" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F136" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -9442,19 +9451,19 @@
         <v>364</v>
       </c>
       <c r="B137" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D137" t="s">
         <v>364</v>
       </c>
       <c r="E137" t="s">
-        <v>441</v>
-      </c>
-      <c r="F137" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G137" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F137" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="11" customFormat="1">
@@ -9462,19 +9471,19 @@
         <v>366</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D138" s="11" t="s">
         <v>366</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F138" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="11" customFormat="1">
@@ -9482,19 +9491,19 @@
         <v>367</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>367</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F139" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="11" customFormat="1">
@@ -9502,19 +9511,19 @@
         <v>368</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>368</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F140" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="11" customFormat="1">
@@ -9522,19 +9531,19 @@
         <v>369</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>369</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F141" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="11" customFormat="1">
@@ -9542,19 +9551,19 @@
         <v>0</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F142" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -9562,19 +9571,19 @@
         <v>335</v>
       </c>
       <c r="B143" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D143" t="s">
         <v>335</v>
       </c>
       <c r="E143" t="s">
-        <v>441</v>
-      </c>
-      <c r="F143" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G143" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F143" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -9582,19 +9591,19 @@
         <v>336</v>
       </c>
       <c r="B144" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D144" t="s">
         <v>336</v>
       </c>
       <c r="E144" t="s">
-        <v>441</v>
-      </c>
-      <c r="F144" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G144" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F144" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -9602,19 +9611,19 @@
         <v>337</v>
       </c>
       <c r="B145" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D145" t="s">
         <v>337</v>
       </c>
       <c r="E145" t="s">
-        <v>441</v>
-      </c>
-      <c r="F145" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F145" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -9622,19 +9631,19 @@
         <v>338</v>
       </c>
       <c r="B146" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D146" t="s">
         <v>338</v>
       </c>
       <c r="E146" t="s">
-        <v>441</v>
-      </c>
-      <c r="F146" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G146" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F146" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -9642,19 +9651,19 @@
         <v>340</v>
       </c>
       <c r="B147" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D147" t="s">
         <v>340</v>
       </c>
       <c r="E147" t="s">
-        <v>441</v>
-      </c>
-      <c r="F147" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G147" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F147" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -9662,19 +9671,19 @@
         <v>341</v>
       </c>
       <c r="B148" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D148" t="s">
         <v>341</v>
       </c>
       <c r="E148" t="s">
-        <v>441</v>
-      </c>
-      <c r="F148" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G148" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F148" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -9682,19 +9691,19 @@
         <v>342</v>
       </c>
       <c r="B149" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D149" t="s">
         <v>342</v>
       </c>
       <c r="E149" t="s">
-        <v>441</v>
-      </c>
-      <c r="F149" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G149" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F149" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -9702,19 +9711,19 @@
         <v>343</v>
       </c>
       <c r="B150" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D150" t="s">
         <v>343</v>
       </c>
       <c r="E150" t="s">
-        <v>441</v>
-      </c>
-      <c r="F150" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G150" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F150" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -9722,19 +9731,19 @@
         <v>344</v>
       </c>
       <c r="B151" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D151" t="s">
         <v>344</v>
       </c>
       <c r="E151" t="s">
-        <v>441</v>
-      </c>
-      <c r="F151" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F151" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -9742,19 +9751,19 @@
         <v>345</v>
       </c>
       <c r="B152" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D152" t="s">
         <v>345</v>
       </c>
       <c r="E152" t="s">
-        <v>441</v>
-      </c>
-      <c r="F152" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G152" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F152" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -9762,19 +9771,19 @@
         <v>346</v>
       </c>
       <c r="B153" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D153" t="s">
         <v>346</v>
       </c>
       <c r="E153" t="s">
-        <v>441</v>
-      </c>
-      <c r="F153" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G153" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F153" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -9782,19 +9791,19 @@
         <v>347</v>
       </c>
       <c r="B154" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D154" t="s">
         <v>347</v>
       </c>
       <c r="E154" t="s">
-        <v>441</v>
-      </c>
-      <c r="F154" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G154" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F154" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -9802,19 +9811,19 @@
         <v>349</v>
       </c>
       <c r="B155" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D155" t="s">
         <v>349</v>
       </c>
       <c r="E155" t="s">
-        <v>441</v>
-      </c>
-      <c r="F155" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G155" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F155" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9822,19 +9831,19 @@
         <v>348</v>
       </c>
       <c r="B156" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D156" t="s">
         <v>348</v>
       </c>
       <c r="E156" t="s">
-        <v>441</v>
-      </c>
-      <c r="F156" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G156" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F156" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="11" customFormat="1">
@@ -9842,19 +9851,19 @@
         <v>0</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F157" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="11" customFormat="1">
@@ -9862,19 +9871,19 @@
         <v>378</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>378</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F158" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="11" customFormat="1">
@@ -9882,19 +9891,19 @@
         <v>379</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>379</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F159" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9902,19 +9911,19 @@
         <v>380</v>
       </c>
       <c r="B160" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D160" t="s">
         <v>380</v>
       </c>
       <c r="E160" t="s">
-        <v>441</v>
-      </c>
-      <c r="F160" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G160" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F160" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="11" customFormat="1">
@@ -9922,19 +9931,19 @@
         <v>381</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>381</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F161" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="11" customFormat="1">
@@ -9942,19 +9951,19 @@
         <v>382</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>382</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F162" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="11" customFormat="1">
@@ -9962,19 +9971,19 @@
         <v>383</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>383</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F163" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="11" customFormat="1">
@@ -9982,19 +9991,19 @@
         <v>384</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>384</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F164" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="11" customFormat="1">
@@ -10002,19 +10011,19 @@
         <v>385</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>385</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F165" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -10022,19 +10031,19 @@
         <v>386</v>
       </c>
       <c r="B166" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D166" t="s">
         <v>386</v>
       </c>
       <c r="E166" t="s">
-        <v>441</v>
-      </c>
-      <c r="F166" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G166" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F166" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -10042,19 +10051,19 @@
         <v>387</v>
       </c>
       <c r="B167" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D167" t="s">
         <v>387</v>
       </c>
       <c r="E167" t="s">
-        <v>441</v>
-      </c>
-      <c r="F167" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G167" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F167" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -10062,19 +10071,19 @@
         <v>388</v>
       </c>
       <c r="B168" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D168" t="s">
         <v>388</v>
       </c>
       <c r="E168" t="s">
-        <v>441</v>
-      </c>
-      <c r="F168" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G168" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F168" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="11" customFormat="1">
@@ -10082,19 +10091,19 @@
         <v>389</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>389</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F169" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -10102,19 +10111,19 @@
         <v>390</v>
       </c>
       <c r="B170" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D170" t="s">
         <v>390</v>
       </c>
       <c r="E170" t="s">
-        <v>441</v>
-      </c>
-      <c r="F170" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G170" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F170" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -10122,19 +10131,19 @@
         <v>391</v>
       </c>
       <c r="B171" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D171" t="s">
         <v>391</v>
       </c>
       <c r="E171" t="s">
-        <v>441</v>
-      </c>
-      <c r="F171" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F171" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="11" customFormat="1">
@@ -10142,19 +10151,19 @@
         <v>0</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F172" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="11" customFormat="1">
@@ -10162,19 +10171,19 @@
         <v>399</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>399</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F173" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="11" customFormat="1">
@@ -10182,19 +10191,19 @@
         <v>400</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>400</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F174" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="11" customFormat="1">
@@ -10202,19 +10211,19 @@
         <v>401</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D175" s="11" t="s">
         <v>401</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F175" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -10222,19 +10231,19 @@
         <v>402</v>
       </c>
       <c r="B176" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D176" t="s">
         <v>402</v>
       </c>
       <c r="E176" t="s">
-        <v>441</v>
-      </c>
-      <c r="F176" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G176" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F176" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -10242,19 +10251,19 @@
         <v>403</v>
       </c>
       <c r="B177" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D177" t="s">
         <v>403</v>
       </c>
       <c r="E177" t="s">
-        <v>441</v>
-      </c>
-      <c r="F177" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G177" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F177" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="11" customFormat="1">
@@ -10262,19 +10271,19 @@
         <v>404</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>404</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F178" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="11" customFormat="1">
@@ -10282,19 +10291,19 @@
         <v>405</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>405</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F179" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -10302,19 +10311,19 @@
         <v>406</v>
       </c>
       <c r="B180" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D180" t="s">
         <v>406</v>
       </c>
       <c r="E180" t="s">
-        <v>441</v>
-      </c>
-      <c r="F180" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G180" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F180" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="11" customFormat="1">
@@ -10322,19 +10331,19 @@
         <v>407</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D181" s="11" t="s">
         <v>407</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F181" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="11" customFormat="1">
@@ -10342,19 +10351,19 @@
         <v>408</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>408</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F182" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="11" customFormat="1">
@@ -10362,19 +10371,19 @@
         <v>409</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>409</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F183" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="11" customFormat="1">
@@ -10382,19 +10391,19 @@
         <v>410</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>410</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F184" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -10402,19 +10411,19 @@
         <v>411</v>
       </c>
       <c r="B185" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D185" t="s">
         <v>411</v>
       </c>
       <c r="E185" t="s">
-        <v>441</v>
-      </c>
-      <c r="F185" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G185" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="F185" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -10422,71 +10431,71 @@
         <v>412</v>
       </c>
       <c r="B186" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D186" t="s">
         <v>412</v>
       </c>
       <c r="E186" t="s">
-        <v>441</v>
-      </c>
-      <c r="F186" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G186" s="24" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" s="23" customFormat="1">
-      <c r="A187" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F186" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
         <v>413</v>
       </c>
       <c r="B187" t="s">
-        <v>475</v>
-      </c>
-      <c r="D187" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="D187" t="s">
         <v>413</v>
       </c>
       <c r="E187" t="s">
-        <v>441</v>
-      </c>
-      <c r="F187" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G187" s="24" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" s="23" customFormat="1">
-      <c r="A188" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F187" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
         <v>414</v>
       </c>
       <c r="B188" t="s">
-        <v>475</v>
-      </c>
-      <c r="D188" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="D188" t="s">
         <v>414</v>
       </c>
       <c r="E188" t="s">
-        <v>441</v>
-      </c>
-      <c r="F188" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G188" s="24" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" s="23" customFormat="1"/>
+        <v>439</v>
+      </c>
+      <c r="F188" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A109:E111"/>
-    <mergeCell ref="A1:N1"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="H15:H18"/>
     <mergeCell ref="H48:H54"/>
     <mergeCell ref="H55:H61"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
+++ b/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratheesh\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1557EFF6-AB3D-4DAB-A524-FC5EEB89B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D74F46-99B5-4878-ADBD-0BD91BBAE854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic Data" sheetId="1" r:id="rId1"/>
@@ -95,6 +90,8 @@
     <author>tc={9BB958F2-B2AD-4825-905E-D767DEE72519}</author>
     <author>tc={99FD39EB-6B35-4C9E-82DA-0934B3AB086A}</author>
     <author>tc={3DF09B38-D32E-488D-B53D-74A741361F6C}</author>
+    <author>tc={08CD0F6C-11D1-4A05-B84F-6B5DA6A15FE3}</author>
+    <author>tc={9A4CA70D-DCF0-4EE7-8EC0-4FF62BC54B8F}</author>
     <author>tc={494CCAD8-4483-44EA-A1B4-30AADB69BFB0}</author>
     <author>tc={559C7B90-5BA4-4C79-9164-E44CAD954D15}</author>
     <author>tc={F8100550-47CF-428E-BCF3-6947BEE56E6E}</author>
@@ -516,7 +513,23 @@
     This time will be found in the FHIR Patient resource -&gt;meta -&gt; lastUpdated</t>
       </text>
     </comment>
-    <comment ref="BE1" authorId="50" shapeId="0" xr:uid="{494CCAD8-4483-44EA-A1B4-30AADB69BFB0}">
+    <comment ref="BE1" authorId="50" shapeId="0" xr:uid="{08CD0F6C-11D1-4A05-B84F-6B5DA6A15FE3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Patient resource -&gt;meta -&gt; profile</t>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="51" shapeId="0" xr:uid="{9A4CA70D-DCF0-4EE7-8EC0-4FF62BC54B8F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Patient resource -&gt;language</t>
+      </text>
+    </comment>
+    <comment ref="BG1" authorId="52" shapeId="0" xr:uid="{494CCAD8-4483-44EA-A1B4-30AADB69BFB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -524,7 +537,7 @@
     This code will be found in the FHIR Patient resource -&gt;contact -&gt; relationship -&gt; coding -&gt; code</t>
       </text>
     </comment>
-    <comment ref="BF1" authorId="51" shapeId="0" xr:uid="{559C7B90-5BA4-4C79-9164-E44CAD954D15}">
+    <comment ref="BH1" authorId="53" shapeId="0" xr:uid="{559C7B90-5BA4-4C79-9164-E44CAD954D15}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -532,7 +545,7 @@
     This value will be found in the FHIR Patient resource -&gt;contact -&gt; relationship -&gt; coding -&gt; display</t>
       </text>
     </comment>
-    <comment ref="BG1" authorId="52" shapeId="0" xr:uid="{F8100550-47CF-428E-BCF3-6947BEE56E6E}">
+    <comment ref="BI1" authorId="54" shapeId="0" xr:uid="{F8100550-47CF-428E-BCF3-6947BEE56E6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -540,7 +553,7 @@
     This system will be found in the FHIR Patient resource -&gt;contact -&gt; relationship -&gt; coding -&gt; system</t>
       </text>
     </comment>
-    <comment ref="BH1" authorId="53" shapeId="0" xr:uid="{1E5B57D5-FE18-4085-B23E-5F953C6F7B96}">
+    <comment ref="BJ1" authorId="55" shapeId="0" xr:uid="{1E5B57D5-FE18-4085-B23E-5F953C6F7B96}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -548,7 +561,7 @@
     This name will be found in the FHIR Patient resource -&gt;contact -&gt; name -&gt; family</t>
       </text>
     </comment>
-    <comment ref="BI1" authorId="54" shapeId="0" xr:uid="{6BA3BFF3-42CE-4590-A506-7E57F88A03BC}">
+    <comment ref="BK1" authorId="56" shapeId="0" xr:uid="{6BA3BFF3-42CE-4590-A506-7E57F88A03BC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -556,7 +569,7 @@
     This name will be found in the FHIR Patient resource -&gt;contact -&gt; name -&gt; given</t>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="55" shapeId="0" xr:uid="{8E54902E-0ABB-4D84-A355-089219734C36}">
+    <comment ref="BL1" authorId="57" shapeId="0" xr:uid="{8E54902E-0ABB-4D84-A355-089219734C36}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -564,7 +577,7 @@
     This code will be found in the FHIR Patient resource -&gt;contact -&gt; telecom -&gt; system </t>
       </text>
     </comment>
-    <comment ref="BK1" authorId="56" shapeId="0" xr:uid="{5097BDF2-1AD1-472D-B94C-EEA5CEC4F8B9}">
+    <comment ref="BM1" authorId="58" shapeId="0" xr:uid="{5097BDF2-1AD1-472D-B94C-EEA5CEC4F8B9}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -572,7 +585,7 @@
     This value will be found in the FHIR Patient resource -&gt;contact -&gt; telecom -&gt; value </t>
       </text>
     </comment>
-    <comment ref="BL1" authorId="57" shapeId="0" xr:uid="{241B0B32-6223-4FBB-AC9D-EC854F6546EF}">
+    <comment ref="BN1" authorId="59" shapeId="0" xr:uid="{241B0B32-6223-4FBB-AC9D-EC854F6546EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -580,7 +593,7 @@
     This value will be found in the FHIR Patient resource -&gt;text-&gt; status</t>
       </text>
     </comment>
-    <comment ref="BM1" authorId="58" shapeId="0" xr:uid="{40B1FFEB-04CB-441D-89B9-8A7B80F67DB3}">
+    <comment ref="BO1" authorId="60" shapeId="0" xr:uid="{40B1FFEB-04CB-441D-89B9-8A7B80F67DB3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -588,7 +601,7 @@
     This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; code</t>
       </text>
     </comment>
-    <comment ref="BN1" authorId="59" shapeId="0" xr:uid="{B875C385-BBA3-4D36-BAE0-47752FAB9A15}">
+    <comment ref="BP1" authorId="61" shapeId="0" xr:uid="{B875C385-BBA3-4D36-BAE0-47752FAB9A15}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -596,7 +609,7 @@
     This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; display</t>
       </text>
     </comment>
-    <comment ref="BO1" authorId="60" shapeId="0" xr:uid="{3451A09A-2AAB-4171-92C4-3F1728C7412C}">
+    <comment ref="BQ1" authorId="62" shapeId="0" xr:uid="{3451A09A-2AAB-4171-92C4-3F1728C7412C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -604,7 +617,7 @@
     This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; system</t>
       </text>
     </comment>
-    <comment ref="BP1" authorId="61" shapeId="0" xr:uid="{0701A3EB-7F22-46B7-BAEE-014AF0113EE2}">
+    <comment ref="BR1" authorId="63" shapeId="0" xr:uid="{0701A3EB-7F22-46B7-BAEE-014AF0113EE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -612,7 +625,7 @@
     This value will be found in the FHIR Observation for sexual orientation resource -&gt; meta -&gt;lastUpdated</t>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="62" shapeId="0" xr:uid="{55667248-5874-45F6-89BB-DA1F8531878F}">
+    <comment ref="BS1" authorId="64" shapeId="0" xr:uid="{55667248-5874-45F6-89BB-DA1F8531878F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -620,7 +633,7 @@
     This value will be found in the FHIR Observation for sexual orientation resource -&gt; meta -&gt;profile</t>
       </text>
     </comment>
-    <comment ref="BR1" authorId="63" shapeId="0" xr:uid="{54E18D50-3BAE-477A-8179-A2F5FEB95A8E}">
+    <comment ref="BT1" authorId="65" shapeId="0" xr:uid="{54E18D50-3BAE-477A-8179-A2F5FEB95A8E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -628,7 +641,7 @@
     This data will be found in the FHIR Observation for sexual orientation resource -&gt; status</t>
       </text>
     </comment>
-    <comment ref="BS1" authorId="64" shapeId="0" xr:uid="{49DFACB1-3F34-4214-B03A-CE77F08494E0}">
+    <comment ref="BU1" authorId="66" shapeId="0" xr:uid="{49DFACB1-3F34-4214-B03A-CE77F08494E0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -636,7 +649,7 @@
     This data will be found in the FHIR Observation for sexual orientation resource -&gt; text-&gt; status</t>
       </text>
     </comment>
-    <comment ref="BT1" authorId="65" shapeId="0" xr:uid="{90296295-40CE-4DB9-B903-97DE8E55A25F}">
+    <comment ref="BV1" authorId="67" shapeId="0" xr:uid="{90296295-40CE-4DB9-B903-97DE8E55A25F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -644,7 +657,7 @@
     This data will be found in the FHIR Observation for sexual orientation resource -&gt; code -&gt; coding -&gt; code</t>
       </text>
     </comment>
-    <comment ref="BU1" authorId="66" shapeId="0" xr:uid="{D072D15A-AF90-42AA-B047-DCFA0715DCB2}">
+    <comment ref="BW1" authorId="68" shapeId="0" xr:uid="{D072D15A-AF90-42AA-B047-DCFA0715DCB2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -652,7 +665,7 @@
     This data will be found in the FHIR Observation for sexual orientation resource -&gt; code -&gt; coding -&gt; display</t>
       </text>
     </comment>
-    <comment ref="BV1" authorId="67" shapeId="0" xr:uid="{74258EA1-8242-4809-B732-224E154C9186}">
+    <comment ref="BX1" authorId="69" shapeId="0" xr:uid="{74258EA1-8242-4809-B732-224E154C9186}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1671,7 +1684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="479">
   <si>
     <t>PATIENT_MR_ID_VALUE</t>
   </si>
@@ -1841,6 +1854,12 @@
     <t>PATIENT_LAST_UPDATED</t>
   </si>
   <si>
+    <t>PATIENT_PROFILE</t>
+  </si>
+  <si>
+    <t>RESOURCE_CONTENT_LANGUAGE</t>
+  </si>
+  <si>
     <t>RELATIONSHIP_PERSON_CODE</t>
   </si>
   <si>
@@ -2027,6 +2046,9 @@
     <t>2024-02-23T00:00:00.00Z</t>
   </si>
   <si>
+    <t>http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-patient</t>
+  </si>
+  <si>
     <t>MTH</t>
   </si>
   <si>
@@ -2942,6 +2964,9 @@
     <t>https://terminology.hl7.org/6.0.2/CodeSystem-data-absent-reason</t>
   </si>
   <si>
+    <t>This sheet explains all the diffeence between trhe business logic and schema described in the original excel docuemt at url and SHIN-NY IG version v1.0.0. Needs to be updated.</t>
+  </si>
+  <si>
     <t>Field</t>
   </si>
   <si>
@@ -2951,6 +2976,9 @@
     <t>Original CSV</t>
   </si>
   <si>
+    <t>SHIN-NY IG version v1.0.0</t>
+  </si>
+  <si>
     <t>Change</t>
   </si>
   <si>
@@ -3093,12 +3121,6 @@
   </si>
   <si>
     <t>Screening Resources</t>
-  </si>
-  <si>
-    <t>SHIN-NY IG version v1.1.0</t>
-  </si>
-  <si>
-    <t>This sheet explains all the diffeence between the business logic and schema described in the original excel docuemt at 'https://nyehealth-my.sharepoint.com/:x:/g/personal/reager_nyehealth_org/EVxWvXAi9VdNs3vxAPAxXqkBZOv_1vaWAA141bEJodQENQ?rtime=8cSzAvcO3Ug' and SHIN-NY IG version v1.1.0. Needs to be updated.</t>
   </si>
 </sst>
 </file>
@@ -3238,7 +3260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3265,6 +3287,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3273,17 +3296,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3777,58 +3794,64 @@
   <threadedComment ref="BD1" dT="2024-11-12T13:53:17.66" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{3DF09B38-D32E-488D-B53D-74A741361F6C}">
     <text>This time will be found in the FHIR Patient resource -&gt;meta -&gt; lastUpdated</text>
   </threadedComment>
-  <threadedComment ref="BE1" dT="2024-11-12T13:55:25.94" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{494CCAD8-4483-44EA-A1B4-30AADB69BFB0}">
+  <threadedComment ref="BE1" dT="2024-11-12T13:53:17.66" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{08CD0F6C-11D1-4A05-B84F-6B5DA6A15FE3}">
+    <text>This data will be found in the FHIR Patient resource -&gt;meta -&gt; profile</text>
+  </threadedComment>
+  <threadedComment ref="BF1" dT="2024-11-28T06:17:16.22" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{9A4CA70D-DCF0-4EE7-8EC0-4FF62BC54B8F}">
+    <text>This data will be found in the FHIR Patient resource -&gt;language</text>
+  </threadedComment>
+  <threadedComment ref="BG1" dT="2024-11-12T13:55:25.94" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{494CCAD8-4483-44EA-A1B4-30AADB69BFB0}">
     <text>This code will be found in the FHIR Patient resource -&gt;contact -&gt; relationship -&gt; coding -&gt; code</text>
   </threadedComment>
-  <threadedComment ref="BF1" dT="2024-11-12T13:59:39.50" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{559C7B90-5BA4-4C79-9164-E44CAD954D15}">
+  <threadedComment ref="BH1" dT="2024-11-12T13:59:39.50" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{559C7B90-5BA4-4C79-9164-E44CAD954D15}">
     <text>This value will be found in the FHIR Patient resource -&gt;contact -&gt; relationship -&gt; coding -&gt; display</text>
   </threadedComment>
-  <threadedComment ref="BG1" dT="2024-11-12T13:59:56.54" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{F8100550-47CF-428E-BCF3-6947BEE56E6E}">
+  <threadedComment ref="BI1" dT="2024-11-12T13:59:56.54" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{F8100550-47CF-428E-BCF3-6947BEE56E6E}">
     <text>This system will be found in the FHIR Patient resource -&gt;contact -&gt; relationship -&gt; coding -&gt; system</text>
   </threadedComment>
-  <threadedComment ref="BH1" dT="2024-11-12T14:00:34.70" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1E5B57D5-FE18-4085-B23E-5F953C6F7B96}">
+  <threadedComment ref="BJ1" dT="2024-11-12T14:00:34.70" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{1E5B57D5-FE18-4085-B23E-5F953C6F7B96}">
     <text>This name will be found in the FHIR Patient resource -&gt;contact -&gt; name -&gt; family</text>
   </threadedComment>
-  <threadedComment ref="BI1" dT="2024-11-12T14:00:49.37" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{6BA3BFF3-42CE-4590-A506-7E57F88A03BC}">
+  <threadedComment ref="BK1" dT="2024-11-12T14:00:49.37" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{6BA3BFF3-42CE-4590-A506-7E57F88A03BC}">
     <text>This name will be found in the FHIR Patient resource -&gt;contact -&gt; name -&gt; given</text>
   </threadedComment>
-  <threadedComment ref="BJ1" dT="2024-11-12T14:02:19.77" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{8E54902E-0ABB-4D84-A355-089219734C36}">
+  <threadedComment ref="BL1" dT="2024-11-12T14:02:19.77" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{8E54902E-0ABB-4D84-A355-089219734C36}">
     <text xml:space="preserve">This code will be found in the FHIR Patient resource -&gt;contact -&gt; telecom -&gt; system </text>
   </threadedComment>
-  <threadedComment ref="BK1" dT="2024-11-12T14:02:53.07" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{5097BDF2-1AD1-472D-B94C-EEA5CEC4F8B9}">
+  <threadedComment ref="BM1" dT="2024-11-12T14:02:53.07" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{5097BDF2-1AD1-472D-B94C-EEA5CEC4F8B9}">
     <text xml:space="preserve">This value will be found in the FHIR Patient resource -&gt;contact -&gt; telecom -&gt; value </text>
   </threadedComment>
-  <threadedComment ref="BL1" dT="2024-11-26T09:08:56.80" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{241B0B32-6223-4FBB-AC9D-EC854F6546EF}">
+  <threadedComment ref="BN1" dT="2024-11-26T09:08:56.80" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{241B0B32-6223-4FBB-AC9D-EC854F6546EF}">
     <text>This value will be found in the FHIR Patient resource -&gt;text-&gt; status</text>
   </threadedComment>
-  <threadedComment ref="BM1" dT="2024-11-26T09:10:56.63" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{40B1FFEB-04CB-441D-89B9-8A7B80F67DB3}">
+  <threadedComment ref="BO1" dT="2024-11-26T09:10:56.63" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{40B1FFEB-04CB-441D-89B9-8A7B80F67DB3}">
     <text>This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; code</text>
   </threadedComment>
-  <threadedComment ref="BN1" dT="2024-11-26T09:11:14.71" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{B875C385-BBA3-4D36-BAE0-47752FAB9A15}">
+  <threadedComment ref="BP1" dT="2024-11-26T09:11:14.71" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{B875C385-BBA3-4D36-BAE0-47752FAB9A15}">
     <text>This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; display</text>
   </threadedComment>
-  <threadedComment ref="BO1" dT="2024-11-26T09:11:53.64" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{3451A09A-2AAB-4171-92C4-3F1728C7412C}">
+  <threadedComment ref="BQ1" dT="2024-11-26T09:11:53.64" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{3451A09A-2AAB-4171-92C4-3F1728C7412C}">
     <text>This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; system</text>
   </threadedComment>
-  <threadedComment ref="BP1" dT="2024-11-26T09:12:18.14" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{0701A3EB-7F22-46B7-BAEE-014AF0113EE2}">
+  <threadedComment ref="BR1" dT="2024-11-26T09:12:18.14" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{0701A3EB-7F22-46B7-BAEE-014AF0113EE2}">
     <text>This value will be found in the FHIR Observation for sexual orientation resource -&gt; meta -&gt;lastUpdated</text>
   </threadedComment>
-  <threadedComment ref="BQ1" dT="2024-11-26T09:12:27.75" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{55667248-5874-45F6-89BB-DA1F8531878F}">
+  <threadedComment ref="BS1" dT="2024-11-26T09:12:27.75" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{55667248-5874-45F6-89BB-DA1F8531878F}">
     <text>This value will be found in the FHIR Observation for sexual orientation resource -&gt; meta -&gt;profile</text>
   </threadedComment>
-  <threadedComment ref="BR1" dT="2024-11-26T09:12:59.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{54E18D50-3BAE-477A-8179-A2F5FEB95A8E}">
+  <threadedComment ref="BT1" dT="2024-11-26T09:12:59.32" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{54E18D50-3BAE-477A-8179-A2F5FEB95A8E}">
     <text>This data will be found in the FHIR Observation for sexual orientation resource -&gt; status</text>
   </threadedComment>
-  <threadedComment ref="BS1" dT="2024-11-26T09:13:17.17" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{49DFACB1-3F34-4214-B03A-CE77F08494E0}">
+  <threadedComment ref="BU1" dT="2024-11-26T09:13:17.17" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{49DFACB1-3F34-4214-B03A-CE77F08494E0}">
     <text>This data will be found in the FHIR Observation for sexual orientation resource -&gt; text-&gt; status</text>
   </threadedComment>
-  <threadedComment ref="BT1" dT="2024-11-26T09:13:47.06" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{90296295-40CE-4DB9-B903-97DE8E55A25F}">
+  <threadedComment ref="BV1" dT="2024-11-26T09:13:47.06" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{90296295-40CE-4DB9-B903-97DE8E55A25F}">
     <text>This data will be found in the FHIR Observation for sexual orientation resource -&gt; code -&gt; coding -&gt; code</text>
   </threadedComment>
-  <threadedComment ref="BU1" dT="2024-11-26T09:13:54.98" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{D072D15A-AF90-42AA-B047-DCFA0715DCB2}">
+  <threadedComment ref="BW1" dT="2024-11-26T09:13:54.98" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{D072D15A-AF90-42AA-B047-DCFA0715DCB2}">
     <text>This data will be found in the FHIR Observation for sexual orientation resource -&gt; code -&gt; coding -&gt; display</text>
   </threadedComment>
-  <threadedComment ref="BV1" dT="2024-11-26T09:14:04.08" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{74258EA1-8242-4809-B732-224E154C9186}">
+  <threadedComment ref="BX1" dT="2024-11-26T09:14:04.08" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{74258EA1-8242-4809-B732-224E154C9186}">
     <text>This data will be found in the FHIR Observation for sexual orientation resource -&gt; code -&gt; coding -&gt; system</text>
   </threadedComment>
 </ThreadedComments>
@@ -4188,80 +4211,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV2"/>
+  <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BF6" sqref="BF6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="43.375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="56.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="43.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="55.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" customWidth="1"/>
-    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="56.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="67.25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="49" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="43.25" customWidth="1"/>
-    <col min="42" max="42" width="53.125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="43.25" customWidth="1"/>
+    <col min="35" max="35" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="43.28515625" customWidth="1"/>
+    <col min="42" max="42" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="43.28515625" customWidth="1"/>
     <col min="44" max="44" width="39" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="52.625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="53.375" customWidth="1"/>
-    <col min="51" max="51" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="57.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="53.42578125" customWidth="1"/>
+    <col min="51" max="51" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="31" customWidth="1"/>
-    <col min="55" max="55" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="39.625" customWidth="1"/>
-    <col min="65" max="65" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="49.125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="78.125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="56.5703125" customWidth="1"/>
+    <col min="59" max="59" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="39.5703125" customWidth="1"/>
+    <col min="67" max="67" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:76" s="2" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +4490,7 @@
       <c r="BO1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="12" t="s">
+      <c r="BP1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BQ1" s="2" t="s">
@@ -4472,97 +4499,103 @@
       <c r="BR1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="12" t="s">
+      <c r="BS1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="12" t="s">
         <v>72</v>
       </c>
       <c r="BV1" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:74">
+      <c r="BW1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76">
       <c r="A2" s="13">
         <v>11223344</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="I2" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V2" s="4">
         <v>29783</v>
       </c>
       <c r="W2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB2">
         <v>10032</v>
@@ -4571,148 +4604,154 @@
         <v>1234567890</v>
       </c>
       <c r="AD2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AH2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM2">
+        <v>1234567890</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX2" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BK2">
-        <v>1234567890</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U2" r:id="rId1" xr:uid="{155BBB0D-5F5E-4359-BD17-0B49170BC19D}"/>
     <hyperlink ref="AM2" r:id="rId2" xr:uid="{8C4F975A-6659-41B0-A0A4-86D78C4F94EF}"/>
-    <hyperlink ref="BO2" r:id="rId3" xr:uid="{86715185-1BF1-41D3-8E3B-699CB7EF65C6}"/>
+    <hyperlink ref="BQ2" r:id="rId3" xr:uid="{86715185-1BF1-41D3-8E3B-699CB7EF65C6}"/>
     <hyperlink ref="AI2" r:id="rId4" xr:uid="{8EBCE9CB-B89F-4120-91E3-5B348A2B9241}"/>
-    <hyperlink ref="BG2" r:id="rId5" xr:uid="{6B55CF1F-191B-4ACC-A140-7B599FB5F378}"/>
+    <hyperlink ref="BI2" r:id="rId5" xr:uid="{6B55CF1F-191B-4ACC-A140-7B599FB5F378}"/>
     <hyperlink ref="AP2" r:id="rId6" xr:uid="{3CEB9411-0402-4B3D-94F7-6BEACA02BA19}"/>
     <hyperlink ref="AW2" r:id="rId7" xr:uid="{16700AE5-4C94-4E89-9ACF-CB545B0541DC}"/>
     <hyperlink ref="AF2" r:id="rId8" xr:uid="{C8FC4854-0549-43C4-AED2-60F61431DB78}"/>
@@ -4724,11 +4763,12 @@
     <hyperlink ref="J2" r:id="rId14" xr:uid="{0F4BE372-0F06-4CA7-B8A0-BDE8E9FCD98C}"/>
     <hyperlink ref="L2" r:id="rId15" xr:uid="{BF353FC4-38D5-4906-9CD0-35E8E8F0505C}"/>
     <hyperlink ref="O2" r:id="rId16" xr:uid="{1E0370E1-D98A-492D-99B5-067201BD0185}"/>
-    <hyperlink ref="BQ2" r:id="rId17" xr:uid="{6F214ECE-87A1-49D1-8E32-F00BA7AAD473}"/>
-    <hyperlink ref="BV2" r:id="rId18" xr:uid="{692CD03F-EFB1-49F5-A0E7-24AF980BA26A}"/>
+    <hyperlink ref="BS2" r:id="rId17" xr:uid="{6F214ECE-87A1-49D1-8E32-F00BA7AAD473}"/>
+    <hyperlink ref="BX2" r:id="rId18" xr:uid="{692CD03F-EFB1-49F5-A0E7-24AF980BA26A}"/>
+    <hyperlink ref="BE2" r:id="rId19" xr:uid="{7F95E04B-4F1C-4B56-A7B2-096631CFE595}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -4740,111 +4780,111 @@
       <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.875" customWidth="1"/>
-    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" ht="30">
+    <row r="1" spans="1:25" s="7" customFormat="1" ht="29.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" ht="28.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="5" customFormat="1" ht="29.25">
       <c r="A2" s="5">
         <v>11223344</v>
       </c>
@@ -4852,54 +4892,54 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M2" s="5">
         <v>11803</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4921,82 +4961,82 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="127.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="127.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="196" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.75" customWidth="1"/>
-    <col min="11" max="11" width="46.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.875" customWidth="1"/>
-    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -5004,34 +5044,34 @@
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -5039,40 +5079,40 @@
         <v>11223344</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -5080,40 +5120,40 @@
         <v>11223344</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" t="s">
+        <v>211</v>
+      </c>
+      <c r="M4" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" t="s">
+        <v>213</v>
+      </c>
+      <c r="O4" t="s">
         <v>205</v>
       </c>
-      <c r="G4" t="s">
+      <c r="P4" t="s">
         <v>206</v>
-      </c>
-      <c r="I4" t="s">
-        <v>207</v>
-      </c>
-      <c r="J4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M4" t="s">
-        <v>209</v>
-      </c>
-      <c r="N4" t="s">
-        <v>210</v>
-      </c>
-      <c r="O4" t="s">
-        <v>202</v>
-      </c>
-      <c r="P4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -5121,40 +5161,40 @@
         <v>11223344</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" t="s">
         <v>211</v>
       </c>
-      <c r="F5" t="s">
+      <c r="M5" t="s">
         <v>212</v>
       </c>
-      <c r="G5" t="s">
+      <c r="N5" t="s">
         <v>213</v>
       </c>
-      <c r="I5" t="s">
-        <v>207</v>
-      </c>
-      <c r="J5" t="s">
-        <v>208</v>
-      </c>
-      <c r="M5" t="s">
-        <v>209</v>
-      </c>
-      <c r="N5" t="s">
-        <v>210</v>
-      </c>
       <c r="O5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -5162,34 +5202,34 @@
         <v>11223344</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -5197,34 +5237,34 @@
         <v>11223344</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" t="s">
+      <c r="N7" t="s">
         <v>223</v>
-      </c>
-      <c r="I7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M7" t="s">
-        <v>219</v>
-      </c>
-      <c r="N7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -5232,37 +5272,37 @@
         <v>11223344</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -5270,37 +5310,37 @@
         <v>11223344</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" t="s">
         <v>234</v>
       </c>
-      <c r="F9" t="s">
+      <c r="M9" t="s">
         <v>235</v>
       </c>
-      <c r="G9" t="s">
+      <c r="N9" t="s">
         <v>236</v>
-      </c>
-      <c r="H9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J9" t="s">
-        <v>231</v>
-      </c>
-      <c r="M9" t="s">
-        <v>232</v>
-      </c>
-      <c r="N9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -5308,37 +5348,37 @@
         <v>11223344</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -5346,37 +5386,37 @@
         <v>11223344</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -5384,31 +5424,31 @@
         <v>11223344</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N12" s="13">
         <v>4</v>
@@ -5419,40 +5459,40 @@
         <v>11223344</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I13" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J13" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N13" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -5460,40 +5500,40 @@
         <v>11223344</v>
       </c>
       <c r="B14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5501,34 +5541,34 @@
         <v>11223344</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J15" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M15" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5536,34 +5576,34 @@
         <v>11223344</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" t="s">
+        <v>274</v>
+      </c>
+      <c r="I16" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" t="s">
         <v>269</v>
       </c>
-      <c r="F16" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I16" t="s">
-        <v>265</v>
-      </c>
-      <c r="J16" t="s">
-        <v>266</v>
-      </c>
       <c r="M16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5571,40 +5611,40 @@
         <v>11223344</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F17" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G17" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K17">
         <v>106133000</v>
       </c>
       <c r="L17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M17" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O17" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5612,34 +5652,34 @@
         <v>11223344</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K18">
         <v>365458002</v>
       </c>
       <c r="L18" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M18" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5647,31 +5687,31 @@
         <v>11223344</v>
       </c>
       <c r="B19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G19" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K19">
         <v>129861002</v>
       </c>
       <c r="L19" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M19" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N19" s="13">
         <v>3</v>
@@ -5682,31 +5722,31 @@
         <v>11223344</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K20">
         <v>129861002</v>
       </c>
       <c r="L20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M20" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N20" s="13">
         <v>40</v>
@@ -5717,22 +5757,22 @@
         <v>11223344</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G21" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -5740,34 +5780,34 @@
         <v>11223344</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G22" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K22">
         <v>228273003</v>
       </c>
       <c r="L22" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M22" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N22" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -5775,34 +5815,34 @@
         <v>11223344</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E23" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F23" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G23" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K23">
         <v>365980008</v>
       </c>
       <c r="L23" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M23" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N23" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -5810,34 +5850,34 @@
         <v>11223344</v>
       </c>
       <c r="B24" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F24" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K24">
         <v>409069009</v>
       </c>
       <c r="L24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M24" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N24" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -5845,34 +5885,34 @@
         <v>11223344</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F25" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G25" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K25">
         <v>228366006</v>
       </c>
       <c r="L25" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M25" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N25" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -5880,34 +5920,34 @@
         <v>11223344</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F26" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G26" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K26">
         <v>36456004</v>
       </c>
       <c r="L26" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M26" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N26" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -5915,34 +5955,34 @@
         <v>11223344</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E27" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F27" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G27" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K27">
         <v>36456004</v>
       </c>
       <c r="L27" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M27" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N27" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -5950,34 +5990,34 @@
         <v>11223344</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F28" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G28" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K28">
         <v>36456004</v>
       </c>
       <c r="L28" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M28" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N28" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -5985,34 +6025,34 @@
         <v>11223344</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G29" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I29" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M29" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N29" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -6020,37 +6060,37 @@
         <v>11223344</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F30" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G30" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="R30" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -6058,37 +6098,37 @@
         <v>11223344</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
+        <v>336</v>
+      </c>
+      <c r="F31" t="s">
+        <v>337</v>
+      </c>
+      <c r="G31" t="s">
+        <v>337</v>
+      </c>
+      <c r="H31" t="s">
         <v>333</v>
       </c>
-      <c r="F31" t="s">
-        <v>334</v>
-      </c>
-      <c r="G31" t="s">
-        <v>334</v>
-      </c>
-      <c r="H31" t="s">
-        <v>330</v>
-      </c>
       <c r="I31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6103,74 +6143,74 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.75" customWidth="1"/>
-    <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="56" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -6178,46 +6218,46 @@
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L2">
         <v>10006</v>
       </c>
       <c r="M2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="O2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6238,66 +6278,66 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6305,43 +6345,43 @@
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G2">
         <v>405672008</v>
       </c>
       <c r="H2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6361,117 +6401,117 @@
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="43.5">
       <c r="A2" s="5">
         <v>11223344</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -6493,78 +6533,78 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="83" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -6572,52 +6612,52 @@
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="J2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="L2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="J2" t="s">
-        <v>418</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="L2" t="s">
-        <v>420</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -6642,25 +6682,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D60A84-5E08-43D0-B361-C2827226B37C}">
   <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124:G129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" customWidth="1"/>
-    <col min="14" max="14" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="26" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:14" s="18" customFormat="1" ht="15.75">
       <c r="A1" s="25" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6669,94 +6709,94 @@
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A2" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="15.75">
+      <c r="A2" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="21" customFormat="1">
-      <c r="A3" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="21" customFormat="1">
-      <c r="A4" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="21" customFormat="1">
-      <c r="A5" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="21" customFormat="1">
-      <c r="A6" s="21" t="s">
+    </row>
+    <row r="3" spans="1:14" s="22" customFormat="1">
+      <c r="A3" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B3" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>432</v>
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="22" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="22" customFormat="1">
+      <c r="A5" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="22" customFormat="1">
+      <c r="A6" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1">
@@ -6764,22 +6804,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1">
@@ -6787,19 +6827,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F8" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="11" customFormat="1">
@@ -6807,19 +6847,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F9" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="11" customFormat="1">
@@ -6827,19 +6867,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F10" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
@@ -6847,25 +6887,25 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>437</v>
-      </c>
-      <c r="F11" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H11" s="24" t="s">
         <v>442</v>
+      </c>
+      <c r="F11" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6873,88 +6913,88 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>439</v>
-      </c>
-      <c r="F12" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H12" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F12" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>439</v>
-      </c>
-      <c r="F13" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H13" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F13" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>439</v>
-      </c>
-      <c r="F14" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H14" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F14" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C15" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F15" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H15" s="24" t="s">
         <v>442</v>
+      </c>
+      <c r="F15" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -6962,85 +7002,85 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F16" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H16" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F16" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>439</v>
-      </c>
-      <c r="F17" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H17" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F17" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>439</v>
-      </c>
-      <c r="F18" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H18" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F18" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:14" s="11" customFormat="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -7048,19 +7088,19 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>439</v>
-      </c>
-      <c r="F20" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F20" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -7068,19 +7108,19 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>439</v>
-      </c>
-      <c r="F21" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F21" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1">
@@ -7088,22 +7128,22 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F22" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -7111,19 +7151,19 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F23" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F23" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -7131,19 +7171,19 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>439</v>
-      </c>
-      <c r="F24" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F24" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="11" customFormat="1">
@@ -7151,22 +7191,22 @@
         <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F25" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="11" customFormat="1">
@@ -7174,20 +7214,20 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C26"/>
       <c r="D26" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>439</v>
-      </c>
-      <c r="F26" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F26" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>446</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -7202,20 +7242,20 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>439</v>
-      </c>
-      <c r="F27" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F27" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>446</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -7230,22 +7270,22 @@
         <v>21</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F28" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -7253,7 +7293,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -7262,13 +7302,13 @@
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>448</v>
-      </c>
-      <c r="F29" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>441</v>
+        <v>453</v>
+      </c>
+      <c r="F29" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -7276,7 +7316,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -7285,13 +7325,13 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>448</v>
-      </c>
-      <c r="F30" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>441</v>
+        <v>453</v>
+      </c>
+      <c r="F30" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -7299,7 +7339,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -7308,13 +7348,13 @@
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>448</v>
-      </c>
-      <c r="F31" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>441</v>
+        <v>453</v>
+      </c>
+      <c r="F31" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -7322,19 +7362,19 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>439</v>
-      </c>
-      <c r="F32" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F32" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7342,7 +7382,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -7351,13 +7391,13 @@
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>448</v>
-      </c>
-      <c r="F33" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>441</v>
+        <v>453</v>
+      </c>
+      <c r="F33" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7365,7 +7405,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -7374,13 +7414,13 @@
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>448</v>
-      </c>
-      <c r="F34" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>441</v>
+        <v>453</v>
+      </c>
+      <c r="F34" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="11" customFormat="1">
@@ -7388,19 +7428,19 @@
         <v>28</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F35" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -7408,19 +7448,19 @@
         <v>29</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F36" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7428,19 +7468,19 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>439</v>
-      </c>
-      <c r="F37" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F37" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7448,19 +7488,19 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>439</v>
-      </c>
-      <c r="F38" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F38" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7468,19 +7508,19 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>439</v>
-      </c>
-      <c r="F39" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F39" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7488,19 +7528,19 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>439</v>
-      </c>
-      <c r="F40" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F40" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7508,19 +7548,19 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>439</v>
-      </c>
-      <c r="F41" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F41" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7528,19 +7568,19 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>439</v>
-      </c>
-      <c r="F42" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F42" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7548,19 +7588,19 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>439</v>
-      </c>
-      <c r="F43" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F43" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7568,19 +7608,19 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D44" t="s">
         <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>439</v>
-      </c>
-      <c r="F44" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F44" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7588,19 +7628,19 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>439</v>
-      </c>
-      <c r="F45" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F45" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="11" customFormat="1">
@@ -7608,22 +7648,22 @@
         <v>40</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F46" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="11" customFormat="1">
@@ -7631,7 +7671,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>39</v>
@@ -7640,13 +7680,13 @@
         <v>39</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F47" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7654,22 +7694,22 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D48" t="s">
         <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>439</v>
-      </c>
-      <c r="F48" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>450</v>
+        <v>444</v>
+      </c>
+      <c r="F48" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7677,157 +7717,157 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>439</v>
-      </c>
-      <c r="F49" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H49" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F49" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C50" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>437</v>
-      </c>
-      <c r="F50" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H50" s="24"/>
+        <v>442</v>
+      </c>
+      <c r="F50" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C51" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>437</v>
-      </c>
-      <c r="F51" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H51" s="24"/>
+        <v>442</v>
+      </c>
+      <c r="F51" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C52" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>437</v>
-      </c>
-      <c r="F52" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H52" s="24"/>
+        <v>442</v>
+      </c>
+      <c r="F52" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D53" t="s">
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>439</v>
-      </c>
-      <c r="F53" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H53" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F53" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D54" t="s">
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>439</v>
-      </c>
-      <c r="F54" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H54" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F54" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>439</v>
-      </c>
-      <c r="F55" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>450</v>
+        <v>444</v>
+      </c>
+      <c r="F55" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7835,565 +7875,565 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D56" t="s">
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>439</v>
-      </c>
-      <c r="F56" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H56" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F56" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C57" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D57" t="s">
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>437</v>
-      </c>
-      <c r="F57" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H57" s="24"/>
+        <v>442</v>
+      </c>
+      <c r="F57" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C58" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>437</v>
-      </c>
-      <c r="F58" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H58" s="24"/>
+        <v>442</v>
+      </c>
+      <c r="F58" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C59" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D59" t="s">
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>437</v>
-      </c>
-      <c r="F59" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H59" s="24"/>
+        <v>442</v>
+      </c>
+      <c r="F59" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D60" t="s">
         <v>53</v>
       </c>
       <c r="E60" t="s">
-        <v>439</v>
-      </c>
-      <c r="F60" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H60" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F60" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>439</v>
-      </c>
-      <c r="F61" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H61" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="F61" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8" s="11" customFormat="1">
       <c r="A62" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F62" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>439</v>
-      </c>
-      <c r="F63" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F63" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>439</v>
-      </c>
-      <c r="F64" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F64" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>439</v>
-      </c>
-      <c r="F65" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F65" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E66" t="s">
-        <v>439</v>
-      </c>
-      <c r="F66" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F66" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>439</v>
-      </c>
-      <c r="F67" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F67" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>439</v>
-      </c>
-      <c r="F68" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F68" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E69" t="s">
-        <v>439</v>
-      </c>
-      <c r="F69" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F69" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>439</v>
-      </c>
-      <c r="F70" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F70" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="11" customFormat="1">
       <c r="A71" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F71" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C72" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>437</v>
-      </c>
-      <c r="F72" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="F72" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="11" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F73" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>439</v>
-      </c>
-      <c r="F74" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F74" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>439</v>
-      </c>
-      <c r="F75" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F75" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>439</v>
-      </c>
-      <c r="F76" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F76" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="11" customFormat="1">
       <c r="A77" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F77" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="11" customFormat="1">
       <c r="A78" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F78" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="11" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F79" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
-        <v>439</v>
-      </c>
-      <c r="F80" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="21" customFormat="1">
-      <c r="A81" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="21" customFormat="1">
-      <c r="A82" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="21" customFormat="1">
-      <c r="A83" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>432</v>
+        <v>444</v>
+      </c>
+      <c r="F80" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="22" customFormat="1">
+      <c r="A81" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="22" customFormat="1">
+      <c r="A82" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="22" customFormat="1">
+      <c r="A83" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="11" customFormat="1">
@@ -8401,909 +8441,909 @@
         <v>0</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F84" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="11" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F85" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="11" customFormat="1">
       <c r="A86" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F86" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="11" customFormat="1">
       <c r="A87" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F87" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="11" customFormat="1">
       <c r="A88" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F88" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C89" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D89" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>437</v>
-      </c>
-      <c r="F89" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>466</v>
+        <v>442</v>
+      </c>
+      <c r="F89" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>439</v>
-      </c>
-      <c r="F90" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" s="20" t="s">
-        <v>466</v>
+        <v>444</v>
+      </c>
+      <c r="F90" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D91" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>439</v>
-      </c>
-      <c r="F91" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="20" t="s">
-        <v>466</v>
+        <v>444</v>
+      </c>
+      <c r="F91" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>459</v>
-      </c>
-      <c r="F92" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" s="20" t="s">
-        <v>441</v>
+        <v>464</v>
+      </c>
+      <c r="F92" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B93" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>459</v>
-      </c>
-      <c r="F93" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>441</v>
+        <v>464</v>
+      </c>
+      <c r="F93" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E94" t="s">
-        <v>459</v>
-      </c>
-      <c r="F94" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>441</v>
+        <v>464</v>
+      </c>
+      <c r="F94" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B95" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E95" t="s">
-        <v>459</v>
-      </c>
-      <c r="F95" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>441</v>
+        <v>464</v>
+      </c>
+      <c r="F95" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E96" t="s">
-        <v>439</v>
-      </c>
-      <c r="F96" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F96" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B97" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>459</v>
-      </c>
-      <c r="F97" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>441</v>
+        <v>464</v>
+      </c>
+      <c r="F97" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B98" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E98" t="s">
-        <v>439</v>
-      </c>
-      <c r="F98" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F98" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D99" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E99" t="s">
-        <v>439</v>
-      </c>
-      <c r="F99" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F99" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B100" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D100" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E100" t="s">
-        <v>439</v>
-      </c>
-      <c r="F100" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F100" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D101" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>439</v>
-      </c>
-      <c r="F101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F101" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D102" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>439</v>
-      </c>
-      <c r="F102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F102" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E103" t="s">
-        <v>439</v>
-      </c>
-      <c r="F103" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F103" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D104" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>439</v>
-      </c>
-      <c r="F104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F104" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>439</v>
-      </c>
-      <c r="F105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B106" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D106" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>439</v>
-      </c>
-      <c r="F106" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G106" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F106" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B107" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D107" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>439</v>
-      </c>
-      <c r="F107" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F107" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B108" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D108" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>439</v>
-      </c>
-      <c r="F108" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F108" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="11" customFormat="1">
-      <c r="A109" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-    </row>
-    <row r="110" spans="1:7" s="17" customFormat="1" ht="15">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-    </row>
-    <row r="111" spans="1:7" s="17" customFormat="1" ht="15">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
+      <c r="A109" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+    </row>
+    <row r="110" spans="1:7" s="17" customFormat="1">
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+    </row>
+    <row r="111" spans="1:7" s="17" customFormat="1">
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
     </row>
     <row r="112" spans="1:7" s="11" customFormat="1">
       <c r="A112" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F112" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="11" customFormat="1">
       <c r="A113" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F113" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="11" customFormat="1">
       <c r="A114" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F114" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="11" customFormat="1">
       <c r="A115" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F115" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="11" customFormat="1">
       <c r="A116" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F116" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="11" customFormat="1">
       <c r="A117" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F117" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="11" customFormat="1">
       <c r="A118" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F118" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D119" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E119" t="s">
-        <v>439</v>
-      </c>
-      <c r="F119" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G119" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F119" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E120" t="s">
-        <v>439</v>
-      </c>
-      <c r="F120" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G120" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F120" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D121" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E121" t="s">
-        <v>439</v>
-      </c>
-      <c r="F121" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G121" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F121" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D122" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E122" t="s">
-        <v>439</v>
-      </c>
-      <c r="F122" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G122" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F122" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D123" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E123" t="s">
-        <v>439</v>
-      </c>
-      <c r="F123" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G123" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F123" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D124" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E124" t="s">
-        <v>439</v>
-      </c>
-      <c r="F124" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F124" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B125" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D125" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E125" t="s">
-        <v>439</v>
-      </c>
-      <c r="F125" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G125" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F125" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B126" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D126" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E126" t="s">
-        <v>439</v>
-      </c>
-      <c r="F126" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F126" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D127" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E127" t="s">
-        <v>439</v>
-      </c>
-      <c r="F127" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F127" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E128" t="s">
-        <v>439</v>
-      </c>
-      <c r="F128" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G128" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F128" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B129" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D129" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E129" t="s">
-        <v>439</v>
-      </c>
-      <c r="F129" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F129" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="11" customFormat="1">
@@ -9311,239 +9351,239 @@
         <v>0</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F130" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="11" customFormat="1">
       <c r="A131" s="11" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F131" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="11" customFormat="1">
       <c r="A132" s="11" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F132" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="11" customFormat="1">
       <c r="A133" s="11" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F133" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="11" customFormat="1">
       <c r="A134" s="11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F134" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="11" customFormat="1">
       <c r="A135" s="11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F135" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B136" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D136" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E136" t="s">
-        <v>439</v>
-      </c>
-      <c r="F136" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G136" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F136" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B137" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D137" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E137" t="s">
-        <v>439</v>
-      </c>
-      <c r="F137" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G137" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F137" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="11" customFormat="1">
       <c r="A138" s="11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F138" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="11" customFormat="1">
       <c r="A139" s="11" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F139" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="11" customFormat="1">
       <c r="A140" s="11" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F140" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="11" customFormat="1">
       <c r="A141" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F141" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="11" customFormat="1">
@@ -9551,299 +9591,299 @@
         <v>0</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F142" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B143" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D143" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E143" t="s">
-        <v>439</v>
-      </c>
-      <c r="F143" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G143" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F143" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B144" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D144" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E144" t="s">
-        <v>439</v>
-      </c>
-      <c r="F144" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G144" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F144" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B145" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D145" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E145" t="s">
-        <v>439</v>
-      </c>
-      <c r="F145" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G145" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F145" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B146" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D146" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E146" t="s">
-        <v>439</v>
-      </c>
-      <c r="F146" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G146" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F146" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B147" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D147" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E147" t="s">
-        <v>439</v>
-      </c>
-      <c r="F147" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G147" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F147" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B148" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D148" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E148" t="s">
-        <v>439</v>
-      </c>
-      <c r="F148" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G148" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F148" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B149" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D149" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E149" t="s">
-        <v>439</v>
-      </c>
-      <c r="F149" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G149" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F149" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B150" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D150" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E150" t="s">
-        <v>439</v>
-      </c>
-      <c r="F150" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G150" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F150" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B151" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D151" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E151" t="s">
-        <v>439</v>
-      </c>
-      <c r="F151" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G151" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F151" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B152" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D152" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E152" t="s">
-        <v>439</v>
-      </c>
-      <c r="F152" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G152" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F152" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B153" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D153" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E153" t="s">
-        <v>439</v>
-      </c>
-      <c r="F153" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G153" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F153" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B154" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D154" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E154" t="s">
-        <v>439</v>
-      </c>
-      <c r="F154" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G154" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F154" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B155" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D155" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E155" t="s">
-        <v>439</v>
-      </c>
-      <c r="F155" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G155" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F155" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B156" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D156" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E156" t="s">
-        <v>439</v>
-      </c>
-      <c r="F156" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G156" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F156" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="11" customFormat="1">
@@ -9851,299 +9891,299 @@
         <v>0</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F157" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="11" customFormat="1">
       <c r="A158" s="11" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F158" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="11" customFormat="1">
       <c r="A159" s="11" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F159" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B160" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D160" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E160" t="s">
-        <v>439</v>
-      </c>
-      <c r="F160" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G160" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F160" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="11" customFormat="1">
       <c r="A161" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F161" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="11" customFormat="1">
       <c r="A162" s="11" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F162" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="11" customFormat="1">
       <c r="A163" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F163" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="11" customFormat="1">
       <c r="A164" s="11" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F164" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="11" customFormat="1">
       <c r="A165" s="11" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F165" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B166" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D166" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E166" t="s">
-        <v>439</v>
-      </c>
-      <c r="F166" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G166" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F166" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B167" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D167" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E167" t="s">
-        <v>439</v>
-      </c>
-      <c r="F167" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G167" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F167" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B168" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D168" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E168" t="s">
-        <v>439</v>
-      </c>
-      <c r="F168" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G168" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F168" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="11" customFormat="1">
       <c r="A169" s="11" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F169" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B170" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D170" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E170" t="s">
-        <v>439</v>
-      </c>
-      <c r="F170" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G170" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F170" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B171" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D171" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E171" t="s">
-        <v>439</v>
-      </c>
-      <c r="F171" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G171" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F171" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="11" customFormat="1">
@@ -10151,351 +10191,350 @@
         <v>0</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F172" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="11" customFormat="1">
       <c r="A173" s="11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F173" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="11" customFormat="1">
       <c r="A174" s="11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F174" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="11" customFormat="1">
       <c r="A175" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F175" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B176" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D176" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E176" t="s">
-        <v>439</v>
-      </c>
-      <c r="F176" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G176" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F176" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B177" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D177" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E177" t="s">
-        <v>439</v>
-      </c>
-      <c r="F177" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G177" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F177" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="11" customFormat="1">
       <c r="A178" s="11" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F178" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="11" customFormat="1">
       <c r="A179" s="11" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F179" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B180" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D180" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E180" t="s">
-        <v>439</v>
-      </c>
-      <c r="F180" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G180" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F180" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="11" customFormat="1">
       <c r="A181" s="11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F181" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="11" customFormat="1">
       <c r="A182" s="11" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F182" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="11" customFormat="1">
       <c r="A183" s="11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F183" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="11" customFormat="1">
       <c r="A184" s="11" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F184" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B185" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D185" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E185" t="s">
-        <v>439</v>
-      </c>
-      <c r="F185" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G185" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F185" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B186" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D186" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E186" t="s">
-        <v>439</v>
-      </c>
-      <c r="F186" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G186" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F186" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B187" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D187" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E187" t="s">
-        <v>439</v>
-      </c>
-      <c r="F187" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G187" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F187" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B188" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D188" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E188" t="s">
-        <v>439</v>
-      </c>
-      <c r="F188" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G188" s="20" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="F188" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A109:E111"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="H15:H18"/>
     <mergeCell ref="H48:H54"/>
     <mergeCell ref="H55:H61"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
+++ b/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D74F46-99B5-4878-ADBD-0BD91BBAE854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{417244B7-A3A9-4D9F-92E0-EDDF0FA32FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic Data" sheetId="1" r:id="rId1"/>
@@ -934,6 +934,7 @@
     <author>tc={0E68E80F-55AA-488C-AF26-AAB174AC884E}</author>
     <author>tc={6CA91F97-61DA-4680-8A35-029D10FD956E}</author>
     <author>tc={47214620-2989-43D4-8755-5B653BA0351D}</author>
+    <author>tc={43671D0C-A6DE-4288-830A-962F5698A778}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AA13E25F-FE68-4156-9DEB-4BCE28A9048C}">
@@ -1079,6 +1080,14 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; display. </t>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="18" shapeId="0" xr:uid="{43671D0C-A6DE-4288-830A-962F5698A778}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; text </t>
       </text>
     </comment>
   </commentList>
@@ -1684,7 +1693,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="483">
   <si>
     <t>PATIENT_MR_ID_VALUE</t>
   </si>
@@ -2142,967 +2151,979 @@
     <t>FACILITY_SCN_IDENTIFIER_TYPE_SYSTEM</t>
   </si>
   <si>
+    <t>FACILITY_NPI_IDENTIFIER_TYPE_DISPLAY</t>
+  </si>
+  <si>
+    <t>FACILITY_NPI_IDENTIFIER_TYPE_VALUE</t>
+  </si>
+  <si>
+    <t>FACILITY_NPI_IDENTIFIER_TYPE_SYSTEM</t>
+  </si>
+  <si>
+    <t>FACILITY_CMS_IDENTIFIER_TYPE_DISPLAY</t>
+  </si>
+  <si>
+    <t>FACILITY_CMS_IDENTIFIER_TYPE_VALUE</t>
+  </si>
+  <si>
+    <t>FACILITY_CMS_IDENTIFIER_TYPE_SYSTEM</t>
+  </si>
+  <si>
+    <t>FACILITY_TEXT_STATUS</t>
+  </si>
+  <si>
+    <t>CUMC</t>
+  </si>
+  <si>
+    <t>Care Ridge SCN</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/organization-type</t>
+  </si>
+  <si>
+    <t>111 Care Ridge St</t>
+  </si>
+  <si>
+    <t>Plainview</t>
+  </si>
+  <si>
+    <t>Nassau County</t>
+  </si>
+  <si>
+    <t>http://shinny.org/us/ny/hrsn/StructureDefinition/shin-ny-organization</t>
+  </si>
+  <si>
+    <t>Care Ridge</t>
+  </si>
+  <si>
+    <t>SCNExample</t>
+  </si>
+  <si>
+    <t>http://www.scn.gov/scn_1</t>
+  </si>
+  <si>
+    <t>SCREENING_CODE</t>
+  </si>
+  <si>
+    <t>SCREENING_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE_DISPLAY</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE_TEXT</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SDOH_TEXT</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SDOH_CODE</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SDOH_DISPLAY</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SNOMED_CODE</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SNOMED_DISPLAY</t>
+  </si>
+  <si>
+    <t>ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>ANSWER_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>INTERPRETATION_CODE</t>
+  </si>
+  <si>
+    <t>INTERPRETATION_DISPLAY</t>
+  </si>
+  <si>
+    <t>DATA_ABSENT_REASON_CODE</t>
+  </si>
+  <si>
+    <t>DATA_ABSENT_REASON_DISPLAY</t>
+  </si>
+  <si>
+    <t>DATA_ABSENT_REASON_TEXT</t>
+  </si>
+  <si>
+    <t>96777-8</t>
+  </si>
+  <si>
+    <t>Accountable health communities (AHC) health-related social needs screening (HRSN) tool</t>
+  </si>
+  <si>
+    <t>2023-07-12T16:08:00.000Z</t>
+  </si>
+  <si>
+    <t>71802-3</t>
+  </si>
+  <si>
+    <t>Housing status</t>
+  </si>
+  <si>
+    <t>What is your living situation today?</t>
+  </si>
+  <si>
+    <t>housing-instability</t>
+  </si>
+  <si>
+    <t>Housing Instability</t>
+  </si>
+  <si>
+    <t>LA31993-1</t>
+  </si>
+  <si>
+    <t>I have a steady place to live</t>
+  </si>
+  <si>
+    <t>96778-6</t>
+  </si>
+  <si>
+    <t>Problems with place where you live</t>
+  </si>
+  <si>
+    <t>Think about the place you live. Do you have problems with any of the following?</t>
+  </si>
+  <si>
+    <t>inadequate-housing</t>
+  </si>
+  <si>
+    <t>Inadequate Housing</t>
+  </si>
+  <si>
+    <t>LA28580-1</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>88122-7</t>
+  </si>
+  <si>
+    <t>Within the past 12 months we worried whether our food would run out before we got money to buy more [U.S. FSS]</t>
+  </si>
+  <si>
+    <t>Within the past 12 months, you worried that your food would run out before you got money to buy more.</t>
+  </si>
+  <si>
+    <t>food-insecurity</t>
+  </si>
+  <si>
+    <t>Food Insecurity</t>
+  </si>
+  <si>
+    <t>LA28397-0</t>
+  </si>
+  <si>
+    <t>Often true</t>
+  </si>
+  <si>
+    <t>88123-5</t>
+  </si>
+  <si>
+    <t>Within the past 12 months the food we bought just didn't last and we didn't have money to get more [U.S. FSS]</t>
+  </si>
+  <si>
+    <t>Within the past 12 months, the food you bought just didn't last and you didn't have money to get more.</t>
+  </si>
+  <si>
+    <t>93030-5</t>
+  </si>
+  <si>
+    <t>Has lack of transportation kept you from medical appointments, meetings, work, or from getting things needed for daily living</t>
+  </si>
+  <si>
+    <t>In the past 12 months, has lack of reliable transportation kept you from medical appointments, meetings, work or from getting things needed for daily living?</t>
+  </si>
+  <si>
+    <t>transportation-insecurity</t>
+  </si>
+  <si>
+    <t>Transportation Insecurity</t>
+  </si>
+  <si>
+    <t>LA32-8</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96779-4</t>
+  </si>
+  <si>
+    <t>Has the electric, gas, oil, or water company threatened to shut off services in your home in past 12 months</t>
+  </si>
+  <si>
+    <t>In the past 12 months has the electric, gas, oil, or water company threatened to shut off services in your home?</t>
+  </si>
+  <si>
+    <t>utility-insecurity</t>
+  </si>
+  <si>
+    <t>Utility Insecurity</t>
+  </si>
+  <si>
+    <t>95618-5</t>
+  </si>
+  <si>
+    <t>Physically hurt you [HITS]</t>
+  </si>
+  <si>
+    <t>How often does anyone, including family and friends, physically hurt you?</t>
+  </si>
+  <si>
+    <t>Interpersonal Safety</t>
+  </si>
+  <si>
+    <t>sdoh-category-unspecified</t>
+  </si>
+  <si>
+    <t>SDOH Category Unspecified</t>
+  </si>
+  <si>
+    <t>LA6270-8</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>95617-7</t>
+  </si>
+  <si>
+    <t>Insult you or talk down to you [HITS]</t>
+  </si>
+  <si>
+    <t>How often does anyone, including family and friends, insult or talk down to you?</t>
+  </si>
+  <si>
+    <t>95616-9</t>
+  </si>
+  <si>
+    <t>Threaten you with physical harm [HITS]</t>
+  </si>
+  <si>
+    <t>How often does anyone, including family and friends, threaten you with harm?</t>
+  </si>
+  <si>
+    <t>95615-1</t>
+  </si>
+  <si>
+    <t>Scream or curse at you [HITS]</t>
+  </si>
+  <si>
+    <t>How often does anyone, including family and friends, scream or curse at you?</t>
+  </si>
+  <si>
+    <t>95614-4</t>
+  </si>
+  <si>
+    <t>Total score [HITS]</t>
+  </si>
+  <si>
+    <t>Total Safety Score</t>
+  </si>
+  <si>
+    <t>97023-6</t>
+  </si>
+  <si>
+    <t>Accountable health communities (AHC) health-related social needs (HRSN) supplemental questions</t>
+  </si>
+  <si>
+    <t>76513-1</t>
+  </si>
+  <si>
+    <t>How hard is it for you to pay for the very basics like food, housing, medical care, and heating</t>
+  </si>
+  <si>
+    <t>How hard is it for you to pay for the very basics like food, housing, medical care, and heating? Would you say it is</t>
+  </si>
+  <si>
+    <t>financial-insecurity</t>
+  </si>
+  <si>
+    <t>Financial Insecurity</t>
+  </si>
+  <si>
+    <t>LA22683-9</t>
+  </si>
+  <si>
+    <t>Somewhat Hard</t>
+  </si>
+  <si>
+    <t>96780-2</t>
+  </si>
+  <si>
+    <t>Wants help finding or keeping work or a job</t>
+  </si>
+  <si>
+    <t>Do you want help finding or keeping work or a job?</t>
+  </si>
+  <si>
+    <t>employment-status</t>
+  </si>
+  <si>
+    <t>Employment Status</t>
+  </si>
+  <si>
+    <t>LA31981-6</t>
+  </si>
+  <si>
+    <t>Yes, help finding work</t>
+  </si>
+  <si>
+    <t>96781-0</t>
+  </si>
+  <si>
+    <t>Able to get help with daily activities when needed</t>
+  </si>
+  <si>
+    <t>If for any reason you need help with day-to-day activities such as bathing, preparing meals, shopping, managing finances, etc., do you get the help you need?</t>
+  </si>
+  <si>
+    <t>social-connection</t>
+  </si>
+  <si>
+    <t>Social Connection</t>
+  </si>
+  <si>
+    <t>LA31976-6</t>
+  </si>
+  <si>
+    <t>I don't need any help</t>
+  </si>
+  <si>
+    <t>93159-2</t>
+  </si>
+  <si>
+    <t>How often do you feel lonely or isolated from those around you during assessment period [CMS Assessment]</t>
+  </si>
+  <si>
+    <t>How often do you feel lonely or isolated from those around you?</t>
+  </si>
+  <si>
+    <t>97027-7</t>
+  </si>
+  <si>
+    <t>Speaks a language other than English at home</t>
+  </si>
+  <si>
+    <t>Do you speak a language other than English at home?</t>
+  </si>
+  <si>
+    <t>Language finding (finding)</t>
+  </si>
+  <si>
+    <t>LA33-6</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>96782-8</t>
+  </si>
+  <si>
+    <t>Wants help with school or training</t>
+  </si>
+  <si>
+    <t>Do you want help with school or training? For example, starting or completing job training or getting a high school diploma, GED or equivalent.</t>
+  </si>
+  <si>
+    <t>Education and/or schooling finding</t>
+  </si>
+  <si>
+    <t>89555-7</t>
+  </si>
+  <si>
+    <t>How many days per week did you engage in moderate to strenuous physical activity in the last 30 days</t>
+  </si>
+  <si>
+    <t>In the last 30 days, other than the activities you did for work, on average, how many days per week did you engage in moderate exercise (like walking fast, running, jogging, dancing, swimming, biking, or other similar activities)</t>
+  </si>
+  <si>
+    <t>Physical activity finding (finding)</t>
+  </si>
+  <si>
+    <t>LA6114-8</t>
+  </si>
+  <si>
+    <t>68516-4</t>
+  </si>
+  <si>
+    <t>On those days that you engage in moderate to strenuous exercise, how many minutes, on average, do you exercise</t>
+  </si>
+  <si>
+    <t>On average, how many minutes did you usually spend exercising at this level on one of those days?</t>
+  </si>
+  <si>
+    <t>LA28858-1</t>
+  </si>
+  <si>
+    <t>77594-0</t>
+  </si>
+  <si>
+    <t>Total physical activity [IPAQ]</t>
+  </si>
+  <si>
+    <t>Calculated weekly physical activity</t>
+  </si>
+  <si>
+    <t>68517-2</t>
+  </si>
+  <si>
+    <t>How many times in the past year have you have X or more drinks in a day</t>
+  </si>
+  <si>
+    <t>How many times in the past 12 months have you had 5 or more drinks in a day (males) or 4 or more drinks in a day (females)?</t>
+  </si>
+  <si>
+    <t>Finding relating to alcohol drinking behavior (finding)</t>
+  </si>
+  <si>
+    <t>LA26460-8</t>
+  </si>
+  <si>
+    <t>Once or twice</t>
+  </si>
+  <si>
+    <t>96842-0</t>
+  </si>
+  <si>
+    <t>How often have you used any tobacco product in past 12 months</t>
+  </si>
+  <si>
+    <t>How often have you used any tobacco product in past 12 months?</t>
+  </si>
+  <si>
+    <t>Finding of tobacco use and exposure (finding)</t>
+  </si>
+  <si>
+    <t>95530-2</t>
+  </si>
+  <si>
+    <t>Prescription drug use for non-medical reasons in the past year</t>
+  </si>
+  <si>
+    <t>How many times in the past year have you used prescription drugs for non-medical reasons?</t>
+  </si>
+  <si>
+    <t>Finding related to substance use (finding)</t>
+  </si>
+  <si>
+    <t>68524-8</t>
+  </si>
+  <si>
+    <t>How many times in the past year have you used an illegal drug or used a prescription medication for non-medical reasons</t>
+  </si>
+  <si>
+    <t>How many times in the past year have you used illegal drugs?</t>
+  </si>
+  <si>
+    <t>Finding relating to drug misuse behavior (finding)</t>
+  </si>
+  <si>
+    <t>44250-9</t>
+  </si>
+  <si>
+    <t>Little interest or pleasure in doing things in last 2 weeks</t>
+  </si>
+  <si>
+    <t>Little interest or pleasure in doing things?</t>
+  </si>
+  <si>
+    <t>Mental state finding (finding)</t>
+  </si>
+  <si>
+    <t>LA6568-5</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>44255-8</t>
+  </si>
+  <si>
+    <t>Feeling down, depressed, or hopeless?</t>
+  </si>
+  <si>
+    <t>71969-0</t>
+  </si>
+  <si>
+    <t>PROMIS-10 Global Mental Health (GMH) score T-score</t>
+  </si>
+  <si>
+    <t>93038-8</t>
+  </si>
+  <si>
+    <t>Stress level</t>
+  </si>
+  <si>
+    <t>Stress means a situation in which a person feels tense, restless, nervous, or anxious, or is unable to sleep at night because his or her mind is troubled all the time. Do you feel this kind of stress these days?</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>69858-9</t>
+  </si>
+  <si>
+    <t>Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions</t>
+  </si>
+  <si>
+    <t>Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions?</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>asked-declined</t>
+  </si>
+  <si>
+    <t>Asked But Declined</t>
+  </si>
+  <si>
+    <t>The source was asked but declined to answer.</t>
+  </si>
+  <si>
+    <t>69861-3</t>
+  </si>
+  <si>
+    <t>Because of a physical, mental, or emotional condition, do you have difficulty doing errands alone such as visiting a physician's office or shopping</t>
+  </si>
+  <si>
+    <t>LOCATION_NAME</t>
+  </si>
+  <si>
+    <t>LOCATION_STATUS</t>
+  </si>
+  <si>
+    <t>LOCATION_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>LOCATION_TYPE_SYSTEM</t>
+  </si>
+  <si>
+    <t>LOCATION_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>LOCATION_ADDRESS1</t>
+  </si>
+  <si>
+    <t>LOCATION_ADDRESS2</t>
+  </si>
+  <si>
+    <t>LOCATION_CITY</t>
+  </si>
+  <si>
+    <t>LOCATION_DISTRICT</t>
+  </si>
+  <si>
+    <t>LOCATION_STATE</t>
+  </si>
+  <si>
+    <t>LOCATION_ZIP</t>
+  </si>
+  <si>
+    <t>LOCATION_PHYSICAL_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>LOCATION_PHYSICAL_TYPE_SYSTEM</t>
+  </si>
+  <si>
+    <t>LOCATION_TEXT_STATUS</t>
+  </si>
+  <si>
+    <t>LOCATION_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>downtown location</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>CSC</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-RoleCode</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>115 Broadway Suite #1601</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/location-physical-type</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_ID</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_CLASS_CODE_SYSTEM</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE_SYSTEM</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_START_TIME</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_END_TIME</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_PROFILE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TEXT_STATUS</t>
+  </si>
+  <si>
+    <t>EncounterExample</t>
+  </si>
+  <si>
+    <t>FLD</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-ActCode</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>Direct questioning (procedure)</t>
+  </si>
+  <si>
+    <t>http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-encounter</t>
+  </si>
+  <si>
+    <t>CONSENT_PROFILE</t>
+  </si>
+  <si>
+    <t>CONSENT_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>CONSENT_TEXT_STATUS</t>
+  </si>
+  <si>
+    <t>CONSENT_STATUS</t>
+  </si>
+  <si>
+    <t>CONSENT_SCOPE_CODE</t>
+  </si>
+  <si>
+    <t>CONSENT_SCOPE_TEXT</t>
+  </si>
+  <si>
+    <t>CONSENT_CATEGORY_IDSCL_CODE</t>
+  </si>
+  <si>
+    <t>CONSENT_CATEGORY_IDSCL_SYSTEM</t>
+  </si>
+  <si>
+    <t>CONSENT_CATEGORY_LOINC_CODE</t>
+  </si>
+  <si>
+    <t>CONSENT_CATEGORY_LOINC_SYSTEM</t>
+  </si>
+  <si>
+    <t>CONSENT_CATEGORY_LOINC_DISPLAY</t>
+  </si>
+  <si>
+    <t>CONSENT_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONSENT_POLICY_AUTHORITY</t>
+  </si>
+  <si>
+    <t>CONSENT_PROVISION_TYPE</t>
+  </si>
+  <si>
+    <t>http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-Consent</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>IDSCL</t>
+  </si>
+  <si>
+    <t>59284-0</t>
+  </si>
+  <si>
+    <t>Patient Consent</t>
+  </si>
+  <si>
+    <t>urn:uuid:d1eaac1a-22b7-4bb6-9c62-cc95d6fdf1a5</t>
+  </si>
+  <si>
+    <t>permit</t>
+  </si>
+  <si>
+    <t>SCREENING_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>SCREENING_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>SCREENING_PROFILE</t>
+  </si>
+  <si>
+    <t>SCREENING_LANGUAGE</t>
+  </si>
+  <si>
+    <t>SCREENING_TEXT_STATUS</t>
+  </si>
+  <si>
+    <t>SCREENING_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SDOH_SYSTEM</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SOCIAL_HISTORY_CODE</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SOCIAL_HISTORY_SYSTEM</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SURVEY_CODE</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SURVEY_SYSTEM</t>
+  </si>
+  <si>
+    <t>OBSERVATION_CATEGORY_SNOMED_SYSTEM</t>
+  </si>
+  <si>
+    <t>ANSWER_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>INTERPRETATION_SYSTEM</t>
+  </si>
+  <si>
+    <t>DATA_ABSENT_REASON_SYSTEM</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-observation-screening-response</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/sdoh-clinicalcare/CodeSystem/SDOHCC-CodeSystemTemporaryCodes</t>
+  </si>
+  <si>
+    <t>social-history</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation</t>
+  </si>
+  <si>
+    <t>https://terminology.hl7.org/6.0.2/CodeSystem-data-absent-reason</t>
+  </si>
+  <si>
+    <t>This sheet explains all the diffeence between trhe business logic and schema described in the original excel docuemt at url and SHIN-NY IG version v1.0.0. Needs to be updated.</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Original CSV</t>
+  </si>
+  <si>
+    <t>SHIN-NY IG version v1.0.0</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Cardinality</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>MPI_ID</t>
+  </si>
+  <si>
+    <t>Demographic Data</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>CONSENT</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVE_SEX_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVE_SEX_CODE_SYSTEM</t>
+  </si>
+  <si>
+    <t>PAT_MRN_ID</t>
+  </si>
+  <si>
+    <t>Renamed</t>
+  </si>
+  <si>
+    <t>1..1</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>MEDICAID_CIN</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>This identifier system as a whole is not mandatory. If this needs to be given then the fields related to this identifier system will be mandatory.</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVE_SEX_CODE</t>
+  </si>
+  <si>
+    <t>PAT_BIRTH_DATE</t>
+  </si>
+  <si>
+    <t>No change</t>
+  </si>
+  <si>
+    <t>PREFERRED_LANGUAGE_CODE</t>
+  </si>
+  <si>
+    <t>This extension system as a whole is not mandatory. If this needs to be given then the fields related to this extension system will be mandatory.</t>
+  </si>
+  <si>
+    <t>RACE_CODE</t>
+  </si>
+  <si>
+    <t>RACE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>RACE_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>ETHNICITY_CODE</t>
+  </si>
+  <si>
+    <t>ETHNICITY_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ETHNICITY_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>SEXUAL_ORIENTATION_CODE</t>
+  </si>
+  <si>
+    <t>SEXUAL_ORIENTATION_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>No Change</t>
+  </si>
+  <si>
+    <t>VISIT_PART_2_FLAG</t>
+  </si>
+  <si>
+    <t>QE Admin Data</t>
+  </si>
+  <si>
+    <t>VISIT_OMH_FLAG</t>
+  </si>
+  <si>
+    <t>VISIT_OPWDD_FLAG</t>
+  </si>
+  <si>
+    <t>FACILITY_LONG_NAME</t>
+  </si>
+  <si>
+    <t>ORGANIZATION_TYPE</t>
+  </si>
+  <si>
+    <t>0..*</t>
+  </si>
+  <si>
+    <t>FACILITY_SCN_IDENTIFIER_TYPE_CODE</t>
+  </si>
+  <si>
     <t>FACILITY_NPI_IDENTIFIER_TYPE_CODE</t>
   </si>
   <si>
-    <t>FACILITY_NPI_IDENTIFIER_TYPE_VALUE</t>
-  </si>
-  <si>
-    <t>FACILITY_NPI_IDENTIFIER_TYPE_SYSTEM</t>
-  </si>
-  <si>
     <t>FACILITY_CMS_IDENTIFIER_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>FACILITY_CMS_IDENTIFIER_TYPE_VALUE</t>
-  </si>
-  <si>
-    <t>FACILITY_CMS_IDENTIFIER_TYPE_SYSTEM</t>
-  </si>
-  <si>
-    <t>FACILITY_TEXT_STATUS</t>
-  </si>
-  <si>
-    <t>CUMC</t>
-  </si>
-  <si>
-    <t>Care Ridge SCN</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/organization-type</t>
-  </si>
-  <si>
-    <t>111 Care Ridge St</t>
-  </si>
-  <si>
-    <t>Plainview</t>
-  </si>
-  <si>
-    <t>Nassau County</t>
-  </si>
-  <si>
-    <t>http://shinny.org/us/ny/hrsn/StructureDefinition/shin-ny-organization</t>
-  </si>
-  <si>
-    <t>Care Ridge</t>
-  </si>
-  <si>
-    <t>SCNExample</t>
-  </si>
-  <si>
-    <t>http://www.scn.gov/scn_1</t>
-  </si>
-  <si>
-    <t>SCREENING_CODE</t>
-  </si>
-  <si>
-    <t>SCREENING_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE_DISPLAY</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE_TEXT</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SDOH_TEXT</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SDOH_CODE</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SDOH_DISPLAY</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SNOMED_CODE</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SNOMED_DISPLAY</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>INTERPRETATION_CODE</t>
-  </si>
-  <si>
-    <t>INTERPRETATION_DISPLAY</t>
-  </si>
-  <si>
-    <t>DATA_ABSENT_REASON_CODE</t>
-  </si>
-  <si>
-    <t>DATA_ABSENT_REASON_DISPLAY</t>
-  </si>
-  <si>
-    <t>96777-8</t>
-  </si>
-  <si>
-    <t>Accountable health communities (AHC) health-related social needs screening (HRSN) tool</t>
-  </si>
-  <si>
-    <t>2023-07-12T16:08:00.000Z</t>
-  </si>
-  <si>
-    <t>71802-3</t>
-  </si>
-  <si>
-    <t>Housing status</t>
-  </si>
-  <si>
-    <t>What is your living situation today?</t>
-  </si>
-  <si>
-    <t>housing-instability</t>
-  </si>
-  <si>
-    <t>Housing Instability</t>
-  </si>
-  <si>
-    <t>LA31993-1</t>
-  </si>
-  <si>
-    <t>I have a steady place to live</t>
-  </si>
-  <si>
-    <t>96778-6</t>
-  </si>
-  <si>
-    <t>Problems with place where you live</t>
-  </si>
-  <si>
-    <t>Think about the place you live. Do you have problems with any of the following?</t>
-  </si>
-  <si>
-    <t>inadequate-housing</t>
-  </si>
-  <si>
-    <t>Inadequate Housing</t>
-  </si>
-  <si>
-    <t>LA28580-1</t>
-  </si>
-  <si>
-    <t>Mold</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>88122-7</t>
-  </si>
-  <si>
-    <t>Within the past 12 months we worried whether our food would run out before we got money to buy more [U.S. FSS]</t>
-  </si>
-  <si>
-    <t>Within the past 12 months, you worried that your food would run out before you got money to buy more.</t>
-  </si>
-  <si>
-    <t>food-insecurity</t>
-  </si>
-  <si>
-    <t>Food Insecurity</t>
-  </si>
-  <si>
-    <t>LA28397-0</t>
-  </si>
-  <si>
-    <t>Often true</t>
-  </si>
-  <si>
-    <t>88123-5</t>
-  </si>
-  <si>
-    <t>Within the past 12 months the food we bought just didn't last and we didn't have money to get more [U.S. FSS]</t>
-  </si>
-  <si>
-    <t>Within the past 12 months, the food you bought just didn't last and you didn't have money to get more.</t>
-  </si>
-  <si>
-    <t>93030-5</t>
-  </si>
-  <si>
-    <t>Has lack of transportation kept you from medical appointments, meetings, work, or from getting things needed for daily living</t>
-  </si>
-  <si>
-    <t>In the past 12 months, has lack of reliable transportation kept you from medical appointments, meetings, work or from getting things needed for daily living?</t>
-  </si>
-  <si>
-    <t>transportation-insecurity</t>
-  </si>
-  <si>
-    <t>Transportation Insecurity</t>
-  </si>
-  <si>
-    <t>LA32-8</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96779-4</t>
-  </si>
-  <si>
-    <t>Has the electric, gas, oil, or water company threatened to shut off services in your home in past 12 months</t>
-  </si>
-  <si>
-    <t>In the past 12 months has the electric, gas, oil, or water company threatened to shut off services in your home?</t>
-  </si>
-  <si>
-    <t>utility-insecurity</t>
-  </si>
-  <si>
-    <t>Utility Insecurity</t>
-  </si>
-  <si>
-    <t>95618-5</t>
-  </si>
-  <si>
-    <t>Physically hurt you [HITS]</t>
-  </si>
-  <si>
-    <t>How often does anyone, including family and friends, physically hurt you?</t>
-  </si>
-  <si>
-    <t>Interpersonal Safety</t>
-  </si>
-  <si>
-    <t>sdoh-category-unspecified</t>
-  </si>
-  <si>
-    <t>SDOH Category Unspecified</t>
-  </si>
-  <si>
-    <t>LA6270-8</t>
-  </si>
-  <si>
-    <t>Never</t>
-  </si>
-  <si>
-    <t>95617-7</t>
-  </si>
-  <si>
-    <t>Insult you or talk down to you [HITS]</t>
-  </si>
-  <si>
-    <t>How often does anyone, including family and friends, insult or talk down to you?</t>
-  </si>
-  <si>
-    <t>95616-9</t>
-  </si>
-  <si>
-    <t>Threaten you with physical harm [HITS]</t>
-  </si>
-  <si>
-    <t>How often does anyone, including family and friends, threaten you with harm?</t>
-  </si>
-  <si>
-    <t>95615-1</t>
-  </si>
-  <si>
-    <t>Scream or curse at you [HITS]</t>
-  </si>
-  <si>
-    <t>How often does anyone, including family and friends, scream or curse at you?</t>
-  </si>
-  <si>
-    <t>95614-4</t>
-  </si>
-  <si>
-    <t>Total score [HITS]</t>
-  </si>
-  <si>
-    <t>Total Safety Score</t>
-  </si>
-  <si>
-    <t>97023-6</t>
-  </si>
-  <si>
-    <t>Accountable health communities (AHC) health-related social needs (HRSN) supplemental questions</t>
-  </si>
-  <si>
-    <t>76513-1</t>
-  </si>
-  <si>
-    <t>How hard is it for you to pay for the very basics like food, housing, medical care, and heating</t>
-  </si>
-  <si>
-    <t>How hard is it for you to pay for the very basics like food, housing, medical care, and heating? Would you say it is</t>
-  </si>
-  <si>
-    <t>financial-insecurity</t>
-  </si>
-  <si>
-    <t>Financial Insecurity</t>
-  </si>
-  <si>
-    <t>LA22683-9</t>
-  </si>
-  <si>
-    <t>Somewhat Hard</t>
-  </si>
-  <si>
-    <t>96780-2</t>
-  </si>
-  <si>
-    <t>Wants help finding or keeping work or a job</t>
-  </si>
-  <si>
-    <t>Do you want help finding or keeping work or a job?</t>
-  </si>
-  <si>
-    <t>employment-status</t>
-  </si>
-  <si>
-    <t>Employment Status</t>
-  </si>
-  <si>
-    <t>LA31981-6</t>
-  </si>
-  <si>
-    <t>Yes, help finding work</t>
-  </si>
-  <si>
-    <t>96781-0</t>
-  </si>
-  <si>
-    <t>Able to get help with daily activities when needed</t>
-  </si>
-  <si>
-    <t>If for any reason you need help with day-to-day activities such as bathing, preparing meals, shopping, managing finances, etc., do you get the help you need?</t>
-  </si>
-  <si>
-    <t>social-connection</t>
-  </si>
-  <si>
-    <t>Social Connection</t>
-  </si>
-  <si>
-    <t>LA31976-6</t>
-  </si>
-  <si>
-    <t>I don't need any help</t>
-  </si>
-  <si>
-    <t>93159-2</t>
-  </si>
-  <si>
-    <t>How often do you feel lonely or isolated from those around you during assessment period [CMS Assessment]</t>
-  </si>
-  <si>
-    <t>How often do you feel lonely or isolated from those around you?</t>
-  </si>
-  <si>
-    <t>97027-7</t>
-  </si>
-  <si>
-    <t>Speaks a language other than English at home</t>
-  </si>
-  <si>
-    <t>Do you speak a language other than English at home?</t>
-  </si>
-  <si>
-    <t>Language finding (finding)</t>
-  </si>
-  <si>
-    <t>LA33-6</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>96782-8</t>
-  </si>
-  <si>
-    <t>Wants help with school or training</t>
-  </si>
-  <si>
-    <t>Do you want help with school or training? For example, starting or completing job training or getting a high school diploma, GED or equivalent.</t>
-  </si>
-  <si>
-    <t>Education and/or schooling finding</t>
-  </si>
-  <si>
-    <t>89555-7</t>
-  </si>
-  <si>
-    <t>How many days per week did you engage in moderate to strenuous physical activity in the last 30 days</t>
-  </si>
-  <si>
-    <t>In the last 30 days, other than the activities you did for work, on average, how many days per week did you engage in moderate exercise (like walking fast, running, jogging, dancing, swimming, biking, or other similar activities)</t>
-  </si>
-  <si>
-    <t>Physical activity finding (finding)</t>
-  </si>
-  <si>
-    <t>LA6114-8</t>
-  </si>
-  <si>
-    <t>68516-4</t>
-  </si>
-  <si>
-    <t>On those days that you engage in moderate to strenuous exercise, how many minutes, on average, do you exercise</t>
-  </si>
-  <si>
-    <t>On average, how many minutes did you usually spend exercising at this level on one of those days?</t>
-  </si>
-  <si>
-    <t>LA28858-1</t>
-  </si>
-  <si>
-    <t>77594-0</t>
-  </si>
-  <si>
-    <t>Total physical activity [IPAQ]</t>
-  </si>
-  <si>
-    <t>Calculated weekly physical activity</t>
-  </si>
-  <si>
-    <t>68517-2</t>
-  </si>
-  <si>
-    <t>How many times in the past year have you have X or more drinks in a day</t>
-  </si>
-  <si>
-    <t>How many times in the past 12 months have you had 5 or more drinks in a day (males) or 4 or more drinks in a day (females)?</t>
-  </si>
-  <si>
-    <t>Finding relating to alcohol drinking behavior (finding)</t>
-  </si>
-  <si>
-    <t>LA26460-8</t>
-  </si>
-  <si>
-    <t>Once or twice</t>
-  </si>
-  <si>
-    <t>96842-0</t>
-  </si>
-  <si>
-    <t>How often have you used any tobacco product in past 12 months</t>
-  </si>
-  <si>
-    <t>How often have you used any tobacco product in past 12 months?</t>
-  </si>
-  <si>
-    <t>Finding of tobacco use and exposure (finding)</t>
-  </si>
-  <si>
-    <t>95530-2</t>
-  </si>
-  <si>
-    <t>Prescription drug use for non-medical reasons in the past year</t>
-  </si>
-  <si>
-    <t>How many times in the past year have you used prescription drugs for non-medical reasons?</t>
-  </si>
-  <si>
-    <t>Finding related to substance use (finding)</t>
-  </si>
-  <si>
-    <t>68524-8</t>
-  </si>
-  <si>
-    <t>How many times in the past year have you used an illegal drug or used a prescription medication for non-medical reasons</t>
-  </si>
-  <si>
-    <t>How many times in the past year have you used illegal drugs?</t>
-  </si>
-  <si>
-    <t>Finding relating to drug misuse behavior (finding)</t>
-  </si>
-  <si>
-    <t>44250-9</t>
-  </si>
-  <si>
-    <t>Little interest or pleasure in doing things in last 2 weeks</t>
-  </si>
-  <si>
-    <t>Little interest or pleasure in doing things?</t>
-  </si>
-  <si>
-    <t>Mental state finding (finding)</t>
-  </si>
-  <si>
-    <t>LA6568-5</t>
-  </si>
-  <si>
-    <t>Not at all</t>
-  </si>
-  <si>
-    <t>44255-8</t>
-  </si>
-  <si>
-    <t>Feeling down, depressed, or hopeless?</t>
-  </si>
-  <si>
-    <t>71969-0</t>
-  </si>
-  <si>
-    <t>PROMIS-10 Global Mental Health (GMH) score T-score</t>
-  </si>
-  <si>
-    <t>93038-8</t>
-  </si>
-  <si>
-    <t>Stress level</t>
-  </si>
-  <si>
-    <t>Stress means a situation in which a person feels tense, restless, nervous, or anxious, or is unable to sleep at night because his or her mind is troubled all the time. Do you feel this kind of stress these days?</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>Stress</t>
-  </si>
-  <si>
-    <t>69858-9</t>
-  </si>
-  <si>
-    <t>Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions</t>
-  </si>
-  <si>
-    <t>Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions?</t>
-  </si>
-  <si>
-    <t>Disability</t>
-  </si>
-  <si>
-    <t>asked-declined</t>
-  </si>
-  <si>
-    <t>Asked But Declined</t>
-  </si>
-  <si>
-    <t>69861-3</t>
-  </si>
-  <si>
-    <t>Because of a physical, mental, or emotional condition, do you have difficulty doing errands alone such as visiting a physician's office or shopping</t>
-  </si>
-  <si>
-    <t>LOCATION_NAME</t>
-  </si>
-  <si>
-    <t>LOCATION_STATUS</t>
-  </si>
-  <si>
-    <t>LOCATION_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>LOCATION_TYPE_SYSTEM</t>
-  </si>
-  <si>
-    <t>LOCATION_ADDRESS_TYPE</t>
-  </si>
-  <si>
-    <t>LOCATION_ADDRESS1</t>
-  </si>
-  <si>
-    <t>LOCATION_ADDRESS2</t>
-  </si>
-  <si>
-    <t>LOCATION_CITY</t>
-  </si>
-  <si>
-    <t>LOCATION_DISTRICT</t>
-  </si>
-  <si>
-    <t>LOCATION_STATE</t>
-  </si>
-  <si>
-    <t>LOCATION_ZIP</t>
-  </si>
-  <si>
-    <t>LOCATION_PHYSICAL_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>LOCATION_PHYSICAL_TYPE_SYSTEM</t>
-  </si>
-  <si>
-    <t>LOCATION_TEXT_STATUS</t>
-  </si>
-  <si>
-    <t>LOCATION_LAST_UPDATED</t>
-  </si>
-  <si>
-    <t>downtown location</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>CSC</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v3-RoleCode</t>
-  </si>
-  <si>
-    <t>physical</t>
-  </si>
-  <si>
-    <t>115 Broadway Suite #1601</t>
-  </si>
-  <si>
-    <t>bu</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/location-physical-type</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_ID</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_CLASS_CODE</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_CLASS_CODE_SYSTEM</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_STATUS_CODE</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_TYPE_CODE</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_TYPE_CODE_SYSTEM</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_START_TIME</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_END_TIME</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_LAST_UPDATED</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_PROFILE</t>
-  </si>
-  <si>
-    <t>ENCOUNTER_TEXT_STATUS</t>
-  </si>
-  <si>
-    <t>EncounterExample</t>
-  </si>
-  <si>
-    <t>FLD</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v3-ActCode</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>Direct questioning (procedure)</t>
-  </si>
-  <si>
-    <t>http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-encounter</t>
-  </si>
-  <si>
-    <t>CONSENT_PROFILE</t>
-  </si>
-  <si>
-    <t>CONSENT_LAST_UPDATED</t>
-  </si>
-  <si>
-    <t>CONSENT_TEXT_STATUS</t>
-  </si>
-  <si>
-    <t>CONSENT_STATUS</t>
-  </si>
-  <si>
-    <t>CONSENT_SCOPE_CODE</t>
-  </si>
-  <si>
-    <t>CONSENT_SCOPE_TEXT</t>
-  </si>
-  <si>
-    <t>CONSENT_CATEGORY_IDSCL_CODE</t>
-  </si>
-  <si>
-    <t>CONSENT_CATEGORY_IDSCL_SYSTEM</t>
-  </si>
-  <si>
-    <t>CONSENT_CATEGORY_LOINC_CODE</t>
-  </si>
-  <si>
-    <t>CONSENT_CATEGORY_LOINC_SYSTEM</t>
-  </si>
-  <si>
-    <t>CONSENT_CATEGORY_LOINC_DISPLAY</t>
-  </si>
-  <si>
-    <t>CONSENT_DATE_TIME</t>
-  </si>
-  <si>
-    <t>CONSENT_POLICY_AUTHORITY</t>
-  </si>
-  <si>
-    <t>CONSENT_PROVISION_TYPE</t>
-  </si>
-  <si>
-    <t>http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-Consent</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>IDSCL</t>
-  </si>
-  <si>
-    <t>59284-0</t>
-  </si>
-  <si>
-    <t>Patient Consent</t>
-  </si>
-  <si>
-    <t>urn:uuid:d1eaac1a-22b7-4bb6-9c62-cc95d6fdf1a5</t>
-  </si>
-  <si>
-    <t>permit</t>
-  </si>
-  <si>
-    <t>SCREENING_STATUS_CODE</t>
-  </si>
-  <si>
-    <t>SCREENING_LAST_UPDATED</t>
-  </si>
-  <si>
-    <t>SCREENING_PROFILE</t>
-  </si>
-  <si>
-    <t>SCREENING_LANGUAGE</t>
-  </si>
-  <si>
-    <t>SCREENING_TEXT_STATUS</t>
-  </si>
-  <si>
-    <t>SCREENING_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SDOH_SYSTEM</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SOCIAL_HISTORY_CODE</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SOCIAL_HISTORY_SYSTEM</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SURVEY_CODE</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SURVEY_SYSTEM</t>
-  </si>
-  <si>
-    <t>OBSERVATION_CATEGORY_SNOMED_SYSTEM</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>INTERPRETATION_SYSTEM</t>
-  </si>
-  <si>
-    <t>DATA_ABSENT_REASON_SYSTEM</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-observation-screening-response</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/sdoh-clinicalcare/CodeSystem/SDOHCC-CodeSystemTemporaryCodes</t>
-  </si>
-  <si>
-    <t>social-history</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation</t>
-  </si>
-  <si>
-    <t>https://terminology.hl7.org/6.0.2/CodeSystem-data-absent-reason</t>
-  </si>
-  <si>
-    <t>This sheet explains all the diffeence between trhe business logic and schema described in the original excel docuemt at url and SHIN-NY IG version v1.0.0. Needs to be updated.</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>Original CSV</t>
-  </si>
-  <si>
-    <t>SHIN-NY IG version v1.0.0</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Cardinality</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>MPI_ID</t>
-  </si>
-  <si>
-    <t>Demographic Data</t>
-  </si>
-  <si>
-    <t>Removed</t>
-  </si>
-  <si>
-    <t>CONSENT</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE_SEX_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE_SEX_CODE_SYSTEM</t>
-  </si>
-  <si>
-    <t>PAT_MRN_ID</t>
-  </si>
-  <si>
-    <t>Renamed</t>
-  </si>
-  <si>
-    <t>1..1</t>
-  </si>
-  <si>
-    <t>Added</t>
-  </si>
-  <si>
-    <t>MEDICAID_CIN</t>
-  </si>
-  <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>This identifier system as a whole is not mandatory. If this needs to be given then the fields related to this identifier system will be mandatory.</t>
-  </si>
-  <si>
-    <t>SSN</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE_SEX_CODE</t>
-  </si>
-  <si>
-    <t>PAT_BIRTH_DATE</t>
-  </si>
-  <si>
-    <t>No change</t>
-  </si>
-  <si>
-    <t>PREFERRED_LANGUAGE_CODE</t>
-  </si>
-  <si>
-    <t>This extension system as a whole is not mandatory. If this needs to be given then the fields related to this extension system will be mandatory.</t>
-  </si>
-  <si>
-    <t>RACE_CODE</t>
-  </si>
-  <si>
-    <t>RACE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>RACE_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>ETHNICITY_CODE</t>
-  </si>
-  <si>
-    <t>ETHNICITY_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>ETHNICITY_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>SEXUAL_ORIENTATION_CODE</t>
-  </si>
-  <si>
-    <t>SEXUAL_ORIENTATION_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>No Change</t>
-  </si>
-  <si>
-    <t>VISIT_PART_2_FLAG</t>
-  </si>
-  <si>
-    <t>QE Admin Data</t>
-  </si>
-  <si>
-    <t>VISIT_OMH_FLAG</t>
-  </si>
-  <si>
-    <t>VISIT_OPWDD_FLAG</t>
-  </si>
-  <si>
-    <t>FACILITY_LONG_NAME</t>
-  </si>
-  <si>
-    <t>ORGANIZATION_TYPE</t>
-  </si>
-  <si>
-    <t>0..*</t>
-  </si>
-  <si>
-    <t>FACILITY_SCN_IDENTIFIER_TYPE_CODE</t>
   </si>
   <si>
     <t>Screening file has been removed and the data from screening is covered under the files Screening Observation, Screening Location, Screening Encounter, Screening Consent &amp; Screening Resources</t>
@@ -3996,6 +4017,9 @@
   <threadedComment ref="R1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{47214620-2989-43D4-8755-5B653BA0351D}">
     <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; display. </text>
   </threadedComment>
+  <threadedComment ref="S1" dT="2024-11-27T12:45:53.61" personId="{ADC9734B-05B3-4808-97FB-8C215A4A250A}" id="{43671D0C-A6DE-4288-830A-962F5698A778}">
+    <text xml:space="preserve">This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; text </text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -4213,8 +4237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BF6" sqref="BF6"/>
+    <sheetView topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BF1" sqref="BF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4777,7 +4801,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4955,10 +4979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCE62ED-6F52-49FE-89FA-F3C6891E8BA9}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4980,10 +5004,10 @@
     <col min="15" max="15" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1">
+    <row r="1" spans="1:19" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5038,1097 +5062,1103 @@
       <c r="R1" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="5">
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="5">
         <v>11223344</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="5">
         <v>11223344</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P4" t="s">
         <v>207</v>
       </c>
-      <c r="F4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" t="s">
-        <v>211</v>
-      </c>
-      <c r="M4" t="s">
-        <v>212</v>
-      </c>
-      <c r="N4" t="s">
-        <v>213</v>
-      </c>
-      <c r="O4" t="s">
-        <v>205</v>
-      </c>
-      <c r="P4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="5">
         <v>11223344</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" t="s">
         <v>214</v>
       </c>
-      <c r="F5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" t="s">
-        <v>211</v>
-      </c>
-      <c r="M5" t="s">
-        <v>212</v>
-      </c>
-      <c r="N5" t="s">
-        <v>213</v>
-      </c>
       <c r="O5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="5">
         <v>11223344</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="5">
         <v>11223344</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" t="s">
+        <v>223</v>
+      </c>
+      <c r="N7" t="s">
         <v>224</v>
       </c>
-      <c r="F7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M7" t="s">
-        <v>222</v>
-      </c>
-      <c r="N7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="5">
         <v>11223344</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="5">
         <v>11223344</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" t="s">
+        <v>235</v>
+      </c>
+      <c r="M9" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" t="s">
         <v>237</v>
       </c>
-      <c r="F9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H9" t="s">
-        <v>232</v>
-      </c>
-      <c r="I9" t="s">
-        <v>233</v>
-      </c>
-      <c r="J9" t="s">
-        <v>234</v>
-      </c>
-      <c r="M9" t="s">
-        <v>235</v>
-      </c>
-      <c r="N9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="5">
         <v>11223344</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="5">
         <v>11223344</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5">
         <v>11223344</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N12" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="5">
         <v>11223344</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="5">
         <v>11223344</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5">
         <v>11223344</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="5">
         <v>11223344</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="5">
         <v>11223344</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K17">
         <v>106133000</v>
       </c>
       <c r="L17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="5">
         <v>11223344</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K18">
         <v>365458002</v>
       </c>
       <c r="L18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="5">
         <v>11223344</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K19">
         <v>129861002</v>
       </c>
       <c r="L19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N19" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="5">
         <v>11223344</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K20">
         <v>129861002</v>
       </c>
       <c r="L20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N20" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="5">
         <v>11223344</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="5">
         <v>11223344</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K22">
         <v>228273003</v>
       </c>
       <c r="L22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="5">
         <v>11223344</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K23">
         <v>365980008</v>
       </c>
       <c r="L23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="5">
         <v>11223344</v>
       </c>
       <c r="B24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K24">
         <v>409069009</v>
       </c>
       <c r="L24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="5">
         <v>11223344</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K25">
         <v>228366006</v>
       </c>
       <c r="L25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="5">
         <v>11223344</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K26">
         <v>36456004</v>
       </c>
       <c r="L26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="5">
         <v>11223344</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K27">
         <v>36456004</v>
       </c>
       <c r="L27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="5">
         <v>11223344</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K28">
         <v>36456004</v>
       </c>
       <c r="L28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="5">
         <v>11223344</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N29" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="5">
         <v>11223344</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>336</v>
+      </c>
+      <c r="S30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="5">
         <v>11223344</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F31" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G31" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -6168,49 +6198,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -6218,22 +6248,22 @@
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I2" t="s">
         <v>95</v>
@@ -6248,10 +6278,10 @@
         <v>10006</v>
       </c>
       <c r="M2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O2" t="s">
         <v>126</v>
@@ -6301,43 +6331,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6345,25 +6375,25 @@
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G2">
         <v>405672008</v>
       </c>
       <c r="H2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>107</v>
@@ -6378,7 +6408,7 @@
         <v>130</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>126</v>
@@ -6425,46 +6455,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="43.5">
@@ -6472,7 +6502,7 @@
         <v>11223344</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>130</v>
@@ -6481,37 +6511,37 @@
         <v>126</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>103</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -6559,52 +6589,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -6612,13 +6642,13 @@
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C2" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E2" t="s">
         <v>109</v>
@@ -6633,19 +6663,19 @@
         <v>103</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>107</v>
@@ -6654,10 +6684,10 @@
         <v>103</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -6700,7 +6730,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1" ht="15.75">
       <c r="A1" s="25" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6718,85 +6748,85 @@
     </row>
     <row r="2" spans="1:14" s="19" customFormat="1" ht="15.75">
       <c r="A2" s="19" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="22" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="22" customFormat="1">
       <c r="A4" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>436</v>
-      </c>
       <c r="C4" s="23" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="22" customFormat="1">
       <c r="A5" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>439</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1">
@@ -6804,22 +6834,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1">
@@ -6827,19 +6857,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F8" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="11" customFormat="1">
@@ -6847,19 +6877,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F9" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="11" customFormat="1">
@@ -6867,19 +6897,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F10" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
@@ -6887,25 +6917,25 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F11" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6913,19 +6943,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F12" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H12" s="26"/>
     </row>
@@ -6934,19 +6964,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F13" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H13" s="26"/>
     </row>
@@ -6955,19 +6985,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F14" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H14" s="26"/>
     </row>
@@ -6976,25 +7006,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F15" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -7002,19 +7032,19 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F16" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H16" s="26"/>
     </row>
@@ -7023,19 +7053,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F17" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H17" s="26"/>
     </row>
@@ -7044,19 +7074,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F18" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H18" s="26"/>
     </row>
@@ -7065,22 +7095,22 @@
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -7088,19 +7118,19 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F20" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -7108,19 +7138,19 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F21" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1">
@@ -7128,22 +7158,22 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F22" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -7151,19 +7181,19 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F23" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -7171,19 +7201,19 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F24" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="11" customFormat="1">
@@ -7191,22 +7221,22 @@
         <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F25" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="11" customFormat="1">
@@ -7214,20 +7244,20 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C26"/>
       <c r="D26" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F26" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -7242,20 +7272,20 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F27" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -7270,22 +7300,22 @@
         <v>21</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F28" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -7293,7 +7323,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -7302,13 +7332,13 @@
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F29" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -7316,7 +7346,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -7325,13 +7355,13 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F30" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -7339,7 +7369,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -7348,13 +7378,13 @@
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F31" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -7362,19 +7392,19 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F32" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7382,7 +7412,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -7391,13 +7421,13 @@
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F33" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7405,7 +7435,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -7414,13 +7444,13 @@
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F34" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="11" customFormat="1">
@@ -7428,19 +7458,19 @@
         <v>28</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F35" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1">
@@ -7448,19 +7478,19 @@
         <v>29</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F36" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7468,19 +7498,19 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F37" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7488,19 +7518,19 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F38" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7508,19 +7538,19 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F39" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7528,19 +7558,19 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F40" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7548,19 +7578,19 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F41" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7568,19 +7598,19 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F42" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7588,19 +7618,19 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F43" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7608,19 +7638,19 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D44" t="s">
         <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F44" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7628,19 +7658,19 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F45" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="11" customFormat="1">
@@ -7648,22 +7678,22 @@
         <v>40</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F46" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="11" customFormat="1">
@@ -7671,7 +7701,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>39</v>
@@ -7680,13 +7710,13 @@
         <v>39</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F47" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7694,22 +7724,22 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D48" t="s">
         <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F48" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7717,19 +7747,19 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F49" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H49" s="26"/>
     </row>
@@ -7738,22 +7768,22 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C50" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F50" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H50" s="26"/>
     </row>
@@ -7762,22 +7792,22 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C51" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F51" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H51" s="26"/>
     </row>
@@ -7786,22 +7816,22 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C52" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F52" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H52" s="26"/>
     </row>
@@ -7810,19 +7840,19 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D53" t="s">
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F53" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H53" s="26"/>
     </row>
@@ -7831,19 +7861,19 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D54" t="s">
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F54" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H54" s="26"/>
     </row>
@@ -7852,22 +7882,22 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F55" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7875,19 +7905,19 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D56" t="s">
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F56" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H56" s="26"/>
     </row>
@@ -7896,22 +7926,22 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C57" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D57" t="s">
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F57" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H57" s="26"/>
     </row>
@@ -7920,22 +7950,22 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C58" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F58" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H58" s="26"/>
     </row>
@@ -7944,22 +7974,22 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C59" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D59" t="s">
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F59" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H59" s="26"/>
     </row>
@@ -7968,19 +7998,19 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D60" t="s">
         <v>53</v>
       </c>
       <c r="E60" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F60" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H60" s="26"/>
     </row>
@@ -7989,19 +8019,19 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F61" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H61" s="26"/>
     </row>
@@ -8010,19 +8040,19 @@
         <v>55</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F62" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -8030,19 +8060,19 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D63" t="s">
         <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F63" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -8050,19 +8080,19 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D64" t="s">
         <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F64" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -8070,19 +8100,19 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D65" t="s">
         <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F65" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -8090,19 +8120,19 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E66" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F66" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -8110,19 +8140,19 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D67" t="s">
         <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F67" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -8130,19 +8160,19 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D68" t="s">
         <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F68" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -8150,19 +8180,19 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D69" t="s">
         <v>64</v>
       </c>
       <c r="E69" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F69" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -8170,19 +8200,19 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D70" t="s">
         <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F70" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="11" customFormat="1">
@@ -8190,22 +8220,22 @@
         <v>73</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>73</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F71" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -8213,22 +8243,22 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C72" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F72" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="11" customFormat="1">
@@ -8236,7 +8266,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>75</v>
@@ -8245,13 +8275,13 @@
         <v>75</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F73" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -8259,19 +8289,19 @@
         <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D74" t="s">
         <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F74" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -8279,19 +8309,19 @@
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D75" t="s">
         <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F75" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -8299,19 +8329,19 @@
         <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D76" t="s">
         <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F76" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="11" customFormat="1">
@@ -8319,19 +8349,19 @@
         <v>69</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>69</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F77" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="11" customFormat="1">
@@ -8339,19 +8369,19 @@
         <v>70</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F78" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="11" customFormat="1">
@@ -8359,19 +8389,19 @@
         <v>71</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>71</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F79" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -8379,61 +8409,61 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D80" t="s">
         <v>72</v>
       </c>
       <c r="E80" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F80" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="22" customFormat="1">
       <c r="A81" s="22" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="22" customFormat="1">
       <c r="A82" s="22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="22" customFormat="1">
       <c r="A83" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>466</v>
-      </c>
       <c r="C83" s="22" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="11" customFormat="1">
@@ -8441,22 +8471,22 @@
         <v>0</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F84" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="11" customFormat="1">
@@ -8464,7 +8494,7 @@
         <v>136</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>136</v>
@@ -8473,13 +8503,13 @@
         <v>136</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F85" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="11" customFormat="1">
@@ -8487,19 +8517,19 @@
         <v>147</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>147</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F86" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="11" customFormat="1">
@@ -8507,19 +8537,19 @@
         <v>135</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>135</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F87" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="11" customFormat="1">
@@ -8527,22 +8557,22 @@
         <v>137</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F88" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -8550,22 +8580,22 @@
         <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C89" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D89" t="s">
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F89" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -8573,19 +8603,19 @@
         <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D90" t="s">
         <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F90" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -8593,19 +8623,19 @@
         <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D91" t="s">
         <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F91" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -8613,7 +8643,7 @@
         <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C92" t="s">
         <v>141</v>
@@ -8622,13 +8652,13 @@
         <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F92" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -8636,7 +8666,7 @@
         <v>142</v>
       </c>
       <c r="B93" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C93" t="s">
         <v>142</v>
@@ -8645,13 +8675,13 @@
         <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F93" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -8659,7 +8689,7 @@
         <v>143</v>
       </c>
       <c r="B94" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C94" t="s">
         <v>143</v>
@@ -8668,13 +8698,13 @@
         <v>143</v>
       </c>
       <c r="E94" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F94" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -8682,7 +8712,7 @@
         <v>144</v>
       </c>
       <c r="B95" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C95" t="s">
         <v>144</v>
@@ -8691,13 +8721,13 @@
         <v>144</v>
       </c>
       <c r="E95" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F95" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -8705,19 +8735,19 @@
         <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D96" t="s">
         <v>145</v>
       </c>
       <c r="E96" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F96" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -8725,7 +8755,7 @@
         <v>146</v>
       </c>
       <c r="B97" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C97" t="s">
         <v>146</v>
@@ -8734,13 +8764,13 @@
         <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F97" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -8748,19 +8778,19 @@
         <v>148</v>
       </c>
       <c r="B98" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D98" t="s">
         <v>148</v>
       </c>
       <c r="E98" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F98" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -8768,39 +8798,39 @@
         <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D99" t="s">
         <v>158</v>
       </c>
       <c r="E99" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F99" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B100" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D100" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E100" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F100" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -8808,19 +8838,19 @@
         <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D101" t="s">
         <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F101" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -8828,39 +8858,39 @@
         <v>151</v>
       </c>
       <c r="B102" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D102" t="s">
         <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F102" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>475</v>
       </c>
       <c r="B103" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D103" t="s">
-        <v>152</v>
+        <v>475</v>
       </c>
       <c r="E103" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F103" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -8868,19 +8898,19 @@
         <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D104" t="s">
         <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F104" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -8888,39 +8918,39 @@
         <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D105" t="s">
         <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F105" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>476</v>
       </c>
       <c r="B106" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>476</v>
       </c>
       <c r="E106" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F106" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -8928,19 +8958,19 @@
         <v>156</v>
       </c>
       <c r="B107" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D107" t="s">
         <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F107" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8948,24 +8978,24 @@
         <v>157</v>
       </c>
       <c r="B108" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D108" t="s">
         <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F108" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="11" customFormat="1">
       <c r="A109" s="24" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
@@ -8991,19 +9021,19 @@
         <v>0</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F112" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="11" customFormat="1">
@@ -9011,19 +9041,19 @@
         <v>171</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F113" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="11" customFormat="1">
@@ -9031,19 +9061,19 @@
         <v>172</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>172</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F114" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="11" customFormat="1">
@@ -9051,19 +9081,19 @@
         <v>173</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F115" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="11" customFormat="1">
@@ -9071,19 +9101,19 @@
         <v>174</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>174</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F116" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="11" customFormat="1">
@@ -9091,19 +9121,19 @@
         <v>175</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>175</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F117" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="11" customFormat="1">
@@ -9111,19 +9141,19 @@
         <v>176</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D118" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F118" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -9131,19 +9161,19 @@
         <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D119" t="s">
         <v>177</v>
       </c>
       <c r="E119" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F119" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -9151,19 +9181,19 @@
         <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D120" t="s">
         <v>178</v>
       </c>
       <c r="E120" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F120" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -9171,19 +9201,19 @@
         <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D121" t="s">
         <v>179</v>
       </c>
       <c r="E121" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F121" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -9191,19 +9221,19 @@
         <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D122" t="s">
         <v>180</v>
       </c>
       <c r="E122" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F122" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -9211,19 +9241,19 @@
         <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D123" t="s">
         <v>181</v>
       </c>
       <c r="E123" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F123" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -9231,19 +9261,19 @@
         <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D124" t="s">
         <v>182</v>
       </c>
       <c r="E124" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F124" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -9251,19 +9281,19 @@
         <v>183</v>
       </c>
       <c r="B125" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D125" t="s">
         <v>183</v>
       </c>
       <c r="E125" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F125" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -9271,19 +9301,19 @@
         <v>184</v>
       </c>
       <c r="B126" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D126" t="s">
         <v>184</v>
       </c>
       <c r="E126" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F126" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -9291,19 +9321,19 @@
         <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D127" t="s">
         <v>185</v>
       </c>
       <c r="E127" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F127" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -9311,19 +9341,19 @@
         <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D128" t="s">
         <v>186</v>
       </c>
       <c r="E128" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F128" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -9331,19 +9361,19 @@
         <v>187</v>
       </c>
       <c r="B129" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D129" t="s">
         <v>187</v>
       </c>
       <c r="E129" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F129" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="11" customFormat="1">
@@ -9351,239 +9381,239 @@
         <v>0</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F130" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="11" customFormat="1">
       <c r="A131" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F131" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="11" customFormat="1">
       <c r="A132" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F132" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="11" customFormat="1">
       <c r="A133" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F133" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="11" customFormat="1">
       <c r="A134" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F134" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="11" customFormat="1">
       <c r="A135" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F135" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B136" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D136" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E136" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F136" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B137" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D137" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E137" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F137" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="11" customFormat="1">
       <c r="A138" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F138" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="11" customFormat="1">
       <c r="A139" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F139" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="11" customFormat="1">
       <c r="A140" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F140" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="11" customFormat="1">
       <c r="A141" s="11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F141" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="11" customFormat="1">
@@ -9591,299 +9621,299 @@
         <v>0</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F142" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B143" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D143" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E143" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F143" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B144" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D144" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E144" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F144" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B145" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D145" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E145" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F145" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B146" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D146" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E146" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F146" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B147" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D147" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E147" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F147" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B148" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D148" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E148" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F148" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B149" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D149" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E149" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F149" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B150" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D150" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E150" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F150" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B151" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D151" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E151" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F151" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B152" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D152" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E152" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F152" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B153" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D153" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E153" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F153" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B154" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D154" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E154" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F154" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B155" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D155" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E155" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F155" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B156" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D156" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E156" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F156" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="11" customFormat="1">
@@ -9891,299 +9921,299 @@
         <v>0</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F157" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="11" customFormat="1">
       <c r="A158" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F158" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="11" customFormat="1">
       <c r="A159" s="11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F159" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B160" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D160" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E160" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F160" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="11" customFormat="1">
       <c r="A161" s="11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F161" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="11" customFormat="1">
       <c r="A162" s="11" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F162" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="11" customFormat="1">
       <c r="A163" s="11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F163" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="11" customFormat="1">
       <c r="A164" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F164" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="11" customFormat="1">
       <c r="A165" s="11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F165" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B166" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D166" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E166" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F166" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B167" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D167" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E167" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F167" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B168" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D168" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E168" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F168" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="11" customFormat="1">
       <c r="A169" s="11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F169" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B170" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D170" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E170" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F170" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G170" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B171" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D171" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E171" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F171" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G171" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="11" customFormat="1">
@@ -10191,339 +10221,339 @@
         <v>0</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F172" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="11" customFormat="1">
       <c r="A173" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F173" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="11" customFormat="1">
       <c r="A174" s="11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F174" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="11" customFormat="1">
       <c r="A175" s="11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F175" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B176" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D176" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E176" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F176" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G176" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B177" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D177" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E177" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F177" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G177" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="11" customFormat="1">
       <c r="A178" s="11" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F178" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="11" customFormat="1">
       <c r="A179" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F179" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B180" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D180" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E180" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F180" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="11" customFormat="1">
       <c r="A181" s="11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F181" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="11" customFormat="1">
       <c r="A182" s="11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F182" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="11" customFormat="1">
       <c r="A183" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F183" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="11" customFormat="1">
       <c r="A184" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F184" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B185" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D185" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E185" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F185" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G185" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B186" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D186" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E186" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F186" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G186" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B187" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D187" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E187" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F187" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G187" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B188" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D188" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E188" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F188" s="21" t="b">
         <v>0</v>
       </c>
       <c r="G188" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
+++ b/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11850" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QE_ADMIN" sheetId="1" r:id="rId1"/>
@@ -274,6 +274,7 @@
     <author>tc={22F12D70-ED30-4D03-B2F4-84B37A63A1A4}</author>
     <author>tc={0A79A5B3-11CB-419B-BB29-BFA9802C010E}</author>
     <author>tc={78577335-6905-4E8F-A931-C1269571F29E}</author>
+    <author>Megin</author>
     <author>tc={EFD2B50A-49C8-4B91-BAB9-30A31693FA90}</author>
     <author>tc={AFA8AAC7-86A6-4CD4-85C9-40AAF281CD2A}</author>
     <author>tc={F916729F-0F91-4401-B977-8EFEB772B982}</author>
@@ -347,14 +348,235 @@
             <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
+          <t>Encounter resource --&gt; identifier --&gt; value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Megin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Encounter resource --&gt; identifier --&gt; System</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="5">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Observation resource --&gt; identifier --&gt; value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="6">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is a grouper </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is a grouper </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="8">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; system where the observation is a grouper </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="9">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is not a grouper </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="10">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;code-&gt; display where the observation is not a grouper </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="11">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; system where the observation is not a grouper </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="12">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; code. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="13">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; display. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="14">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; system. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="15">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SDOH </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="16">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is SDOH </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="17">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
           <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value can be found in the FHIR Encounter resource -&gt;id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="4">
+This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; code, where the answer is not provided or unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="18">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; display, where the answer is not provided or unknown. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="19">
       <text>
         <r>
           <rPr>
@@ -365,206 +587,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Observation'-&gt;id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="5">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is a grouper </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="6">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; display where the observation is a grouper </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="7">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; system where the observation is a grouper </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="8">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; code where the observation is not a grouper </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="9">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;code-&gt; display where the observation is not a grouper </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="10">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;code-&gt;coding -&gt; system where the observation is not a grouper </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="11">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; code. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="12">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; display. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="13">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;valueCodeableConcept-&gt; coding-&gt; system. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="14">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; code where the category is SDOH </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="15">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;category-&gt; coding-&gt; display where the category is SDOH </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="16">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; code. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="17">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data will be found in the FHIR Observation resource -&gt;dataAbsentReason-&gt; coding-&gt; display. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="18">
+    resourceType ='Observation'-&gt;interpretation-&gt;coding-&gt;code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="20">
       <text>
         <r>
           <rPr>
@@ -575,26 +602,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Observation'-&gt;interpretation-&gt;coding-&gt;code</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="19">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
     resourceType = 'Observation'-&gt;effectivePeriod-&gt;start</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="20">
+    <comment ref="V1" authorId="21">
       <text>
         <r>
           <rPr>
@@ -620,6 +632,7 @@
     <author>tc={0AFA8776-B142-42AC-9DB0-98479D900D63}</author>
     <author>tc={39379F02-A524-4041-A2DB-D11C736330AD}</author>
     <author>tc={2A7E6B38-2A96-4D36-8CC3-CA977D6603BB}</author>
+    <author>Megin</author>
     <author>tc={2F09B289-4FBB-44EE-946B-CB1FEDAFDFF8}</author>
     <author>tc={EBF56376-0295-4A0D-B3C6-2B6ED6742D2B}</author>
     <author>tc={663FB7E0-20AC-4678-97B5-19C51484E1E5}</author>
@@ -705,14 +718,60 @@
             <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
+          <t>Encounter resource --&gt; identifier --&gt; value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Megin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Encounter resource --&gt; identifier --&gt; System</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="5">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Observation resource --&gt; identifier --&gt; value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="6">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="4">
+    This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7">
       <text>
         <r>
           <rPr>
@@ -723,11 +782,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Observation'-&gt;id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="5">
+    This value can be found in the FHIR Encounter resource -&gt;class-&gt; display</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="8">
       <text>
         <r>
           <rPr>
@@ -738,11 +797,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;class-&gt; code</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="6">
+    This value can be found in the FHIR Encounter resource -&gt;class-&gt; system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="9">
       <text>
         <r>
           <rPr>
@@ -753,11 +812,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;class-&gt; display</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="7">
+    This value can be found in the FHIR Encounter resource -&gt;status</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="10">
       <text>
         <r>
           <rPr>
@@ -768,11 +827,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;class-&gt; system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="8">
+    This value can be found in the FHIR Encounter resource -&gt;status(display)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="11">
       <text>
         <r>
           <rPr>
@@ -783,11 +842,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;status</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="9">
+    This value can be found in the FHIR Encounter resource -&gt;status(system)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="12">
       <text>
         <r>
           <rPr>
@@ -798,11 +857,23 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;status(display)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="10">
+    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="13">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Encounter resource -&gt;type-&gt; display</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="14">
       <text>
         <r>
           <rPr>
@@ -813,11 +884,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;status(system)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="11">
+    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="15">
       <text>
         <r>
           <rPr>
@@ -828,11 +899,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; code</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="12">
+    resourceType ='Encounter'-&gt;period-&gt;start</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="16">
       <text>
         <r>
           <rPr>
@@ -843,11 +914,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;type-&gt; text</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="13">
+    resourceType ='Encounter'-&gt;period-&gt;end</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="17">
       <text>
         <r>
           <rPr>
@@ -858,11 +929,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This value can be found in the FHIR Encounter resource -&gt;type-&gt; coding-&gt; system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="14">
+    resourceType ='Encounter'-&gt;location-&gt;location-&gt;reference</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="18">
       <text>
         <r>
           <rPr>
@@ -873,11 +944,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Encounter'-&gt;period-&gt;start</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="15">
+    resourceType ='Procedure'-&gt;status</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="19">
       <text>
         <r>
           <rPr>
@@ -888,11 +959,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Encounter'-&gt;period-&gt;end</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="16">
+    resourceType ='Procedure'-&gt;code-&gt;coding-&gt;code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="20">
       <text>
         <r>
           <rPr>
@@ -903,11 +974,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Encounter'-&gt;location-&gt;location-&gt;reference</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="17">
+    resourceType ='Procedure'-&gt;code-&gt;coding-&gt;display</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="21">
       <text>
         <r>
           <rPr>
@@ -918,11 +989,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Procedure'-&gt;status</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="18">
+    resourceType ='Procedure'-&gt;code-&gt;coding-&gt;system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="22">
       <text>
         <r>
           <rPr>
@@ -933,11 +1004,23 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Procedure'-&gt;code-&gt;coding-&gt;code</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="19">
+    resourceType ='Procedure'-&gt;modifierExtension-&gt;value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="23">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Consent resource --&gt; status</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="24">
       <text>
         <r>
           <rPr>
@@ -948,11 +1031,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Procedure'-&gt;code-&gt;coding-&gt;display</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="20">
+    This data will be found in the FHIR Consent resource -&gt;dateTime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="25">
       <text>
         <r>
           <rPr>
@@ -963,11 +1046,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Procedure'-&gt;code-&gt;coding-&gt;system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="21">
+    This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="26">
       <text>
         <r>
           <rPr>
@@ -978,11 +1061,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    resourceType ='Procedure'-&gt;modifierExtension-&gt;value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W1" authorId="22">
+    This data will be found in the  FHIR Observation resource -&gt;status</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="27">
       <text>
         <r>
           <rPr>
@@ -993,11 +1076,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This data will be found in the FHIR Consent resource -&gt;dateTime</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X1" authorId="23">
+    This data will be found in the  FHIR Observation resource -&gt;status</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="28">
       <text>
         <r>
           <rPr>
@@ -1008,11 +1091,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This data will be found in the FHIR Consent resource -&gt;dateTime</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="24">
+    This data will be found in the  FHIR Observation resource -&gt;status</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="29">
       <text>
         <r>
           <rPr>
@@ -1023,11 +1106,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This data will be found in the  FHIR Observation resource -&gt;meta -&gt; lastUpdated</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="25">
+    resourceType ='Observation'-&gt;language-&gt;code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="30">
       <text>
         <r>
           <rPr>
@@ -1038,11 +1121,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This data will be found in the  FHIR Observation resource -&gt;status</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="26">
+    resourceType ='Observation'-&gt;language-&gt;display</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="31">
       <text>
         <r>
           <rPr>
@@ -1053,11 +1136,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This data will be found in the  FHIR Observation resource -&gt;status</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="27">
+    resourceType ='Observation'-&gt;language-&gt;system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="32">
       <text>
         <r>
           <rPr>
@@ -1068,71 +1151,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This data will be found in the  FHIR Observation resource -&gt;status</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC1" authorId="28">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    resourceType ='Observation'-&gt;language-&gt;code</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD1" authorId="29">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    resourceType ='Observation'-&gt;language-&gt;display</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE1" authorId="30">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    resourceType ='Observation'-&gt;language-&gt;system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="31">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
     resourceType ='Organization'-&gt;identifier-&gt;value</t>
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="32">
+    <comment ref="AH1" authorId="33">
       <text>
         <r>
           <rPr>
@@ -1160,6 +1183,7 @@
     <author>tc={D3320738-1291-41BA-A77E-F6B8D972ABDE}</author>
     <author>tc={0994815D-1527-4231-A35E-E971941D90E1}</author>
     <author>tc={419598B0-CA7D-4B18-8C09-7D2E06FEC29E}</author>
+    <author>Megin</author>
     <author>tc={2A2D6EB3-4045-43EA-93F9-2055C424C044}</author>
     <author>tc={A329E0BF-BBA6-46FD-A3A2-8ACE44D5D32F}</author>
     <author>tc={D3559286-D3D6-4AEB-890D-EF0646E43DAA}</author>
@@ -1285,7 +1309,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="6">
+    <comment ref="G1" authorId="6">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Megin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+name --&gt; extension --&gt; "url": "http://shinny.org/us/ny/hrsn/StructureDefinition/middle-name" --&gt; valueString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="7">
+    <comment ref="I1" authorId="8">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="8">
+    <comment ref="J1" authorId="9">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="9">
+    <comment ref="K1" authorId="10">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="10">
+    <comment ref="L1" authorId="11">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="11">
+    <comment ref="M1" authorId="12">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="12">
+    <comment ref="N1" authorId="13">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="13">
+    <comment ref="Q1" authorId="14">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="14">
+    <comment ref="R1" authorId="15">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="15">
+    <comment ref="S1" authorId="16">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="16">
+    <comment ref="T1" authorId="17">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="17">
+    <comment ref="U1" authorId="18">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="18">
+    <comment ref="V1" authorId="19">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="19">
+    <comment ref="W1" authorId="20">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="20">
+    <comment ref="X1" authorId="21">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="21">
+    <comment ref="Y1" authorId="22">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="22">
+    <comment ref="Z1" authorId="23">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="23">
+    <comment ref="AA1" authorId="24">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="24">
+    <comment ref="AB1" authorId="25">
       <text>
         <r>
           <rPr>
@@ -1570,7 +1616,43 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="25">
+    <comment ref="AC1" authorId="26">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>extension --&gt; "url": "http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-personal-pronouns" --&gt; valueCodeableConcept --&gt; coding --&gt;code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="27">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>extension --&gt; "url": "http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-personal-pronouns" --&gt; valueCodeableConcept --&gt; coding --&gt;display</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="28">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>extension --&gt; "url": "http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-personal-pronouns" --&gt; valueCodeableConcept --&gt; coding --&gt;sytem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="29">
       <text>
         <r>
           <rPr>
@@ -1581,11 +1663,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This code will be found in the FHIR Patient resource -&gt;contact -&gt; relationship -&gt; coding -&gt; code</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD1" authorId="26">
+    This code will be found in the FHIR Patient resource -&gt;extension -&gt; valueCodeableConcept -&gt;coding -&gt; code where Patient resource -&gt;extension -&gt; url is http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-gender-identity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="30">
       <text>
         <r>
           <rPr>
@@ -1596,11 +1678,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This code will be found in the FHIR Patient resource -&gt;contact -&gt; relationship -&gt; coding -&gt; display</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE1" authorId="27">
+    This code will be found in the FHIR Patient resource -&gt;extension -&gt; valueCodeableConcept -&gt;coding -&gt; display where Patient resource -&gt;extension -&gt; url is http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-gender-identity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="31">
       <text>
         <r>
           <rPr>
@@ -1611,11 +1693,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This code will be found in the FHIR Patient resource -&gt;contact -&gt; relationship -&gt; coding -&gt; system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="28">
+    This code will be found in the FHIR Patient resource -&gt;extension -&gt; valueCodeableConcept -&gt;coding -&gt; system where Patient resource -&gt;extension -&gt; url is http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-gender-identity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="32">
       <text>
         <r>
           <rPr>
@@ -1626,11 +1708,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This code will be found in the FHIR Patient resource -&gt;extension -&gt; valueCodeableConcept -&gt;coding -&gt; code where Patient resource -&gt;extension -&gt; url is http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-gender-identity</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="29">
+    This code will be found in the FHIR Patient resource -&gt;communication-&gt; language -&gt;coding -&gt; code where Patient resource  -&gt;communication-&gt; preferred is true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="33">
       <text>
         <r>
           <rPr>
@@ -1641,11 +1723,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This code will be found in the FHIR Patient resource -&gt;extension -&gt; valueCodeableConcept -&gt;coding -&gt; display where Patient resource -&gt;extension -&gt; url is http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-gender-identity</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH1" authorId="30">
+    This code will be found in the FHIR Patient resource -&gt;communication-&gt; language -&gt;coding -&gt; display where Patient resource  -&gt;communication-&gt; preferred is true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="34">
       <text>
         <r>
           <rPr>
@@ -1656,11 +1738,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This code will be found in the FHIR Patient resource -&gt;extension -&gt; valueCodeableConcept -&gt;coding -&gt; system where Patient resource -&gt;extension -&gt; url is http://shinny.org/us/ny/hrsn/StructureDefinition/shinny-gender-identity</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI1" authorId="31">
+    This code will be found in the FHIR Patient resource -&gt;communication-&gt; language -&gt;coding -&gt; system where Patient resource  -&gt;communication-&gt; preferred is true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="35">
       <text>
         <r>
           <rPr>
@@ -1671,11 +1753,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This code will be found in the FHIR Patient resource -&gt;communication-&gt; language -&gt;coding -&gt; code where Patient resource  -&gt;communication-&gt; preferred is true</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ1" authorId="32">
+    This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM1" authorId="36">
       <text>
         <r>
           <rPr>
@@ -1686,11 +1768,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This code will be found in the FHIR Patient resource -&gt;communication-&gt; language -&gt;coding -&gt; display where Patient resource  -&gt;communication-&gt; preferred is true</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK1" authorId="33">
+    This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; display</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="37">
       <text>
         <r>
           <rPr>
@@ -1701,56 +1783,11 @@
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This code will be found in the FHIR Patient resource -&gt;communication-&gt; language -&gt;coding -&gt; system where Patient resource  -&gt;communication-&gt; preferred is true</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL1" authorId="34">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; code</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM1" authorId="35">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; display</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN1" authorId="36">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
     This value will be found in the FHIR Observation for sexual orientation resource -&gt; valueCodeableConcept-&gt;coding -&gt; system</t>
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="37">
+    <comment ref="AO1" authorId="38">
       <text>
         <r>
           <rPr>
@@ -1770,7 +1807,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="363">
   <si>
     <t>PATIENT_MR_ID_VALUE</t>
   </si>
@@ -1853,6 +1890,9 @@
     <t>ENCOUNTER_ID</t>
   </si>
   <si>
+    <t>ENCOUNTER_ID_SYSTEM</t>
+  </si>
+  <si>
     <t>SCREENING_IDENTIFIER</t>
   </si>
   <si>
@@ -1905,6 +1945,9 @@
   </si>
   <si>
     <t>EncounterExample</t>
+  </si>
+  <si>
+    <t>https://shinny.org/us/ny/hrsn/index.html</t>
   </si>
   <si>
     <t>AHCScreeningGroup96777-8</t>
@@ -2866,7 +2909,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2917,6 +2960,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3092,8 +3142,19 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3115,6 +3176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3426,14 +3493,11 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3442,119 +3506,122 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3602,6 +3669,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3612,7 +3681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3621,9 +3690,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -3971,7 +4041,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="22.1416666666667" customWidth="1"/>
     <col min="2" max="2" width="11.2833333333333" customWidth="1"/>
@@ -4087,38 +4157,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.1416666666667" customWidth="1"/>
     <col min="2" max="2" width="11.2833333333333" customWidth="1"/>
     <col min="3" max="3" width="14.8583333333333" customWidth="1"/>
     <col min="4" max="4" width="17.2833333333333" customWidth="1"/>
-    <col min="5" max="5" width="26.8583333333333" customWidth="1"/>
-    <col min="6" max="6" width="16.8583333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.5666666666667" customWidth="1"/>
-    <col min="8" max="8" width="31.425" customWidth="1"/>
-    <col min="9" max="9" width="16.1416666666667" customWidth="1"/>
-    <col min="10" max="10" width="36.5666666666667" customWidth="1"/>
-    <col min="11" max="11" width="30.7083333333333" customWidth="1"/>
-    <col min="12" max="12" width="14.5666666666667" customWidth="1"/>
-    <col min="13" max="13" width="27.2833333333333" customWidth="1"/>
-    <col min="14" max="14" width="29.1416666666667" customWidth="1"/>
-    <col min="15" max="15" width="36.1416666666667" customWidth="1"/>
-    <col min="16" max="16" width="35.425" customWidth="1"/>
-    <col min="17" max="17" width="27.8583333333333" customWidth="1"/>
-    <col min="18" max="18" width="30.1416666666667" customWidth="1"/>
-    <col min="19" max="19" width="27.1416666666667" customWidth="1"/>
-    <col min="20" max="20" width="30.1416666666667" customWidth="1"/>
-    <col min="21" max="21" width="25.8583333333333" customWidth="1"/>
+    <col min="5" max="6" width="26.8583333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.8583333333333" customWidth="1"/>
+    <col min="8" max="8" width="36.5666666666667" customWidth="1"/>
+    <col min="9" max="9" width="31.425" customWidth="1"/>
+    <col min="10" max="10" width="16.1416666666667" customWidth="1"/>
+    <col min="11" max="11" width="36.5666666666667" customWidth="1"/>
+    <col min="12" max="12" width="30.7083333333333" customWidth="1"/>
+    <col min="13" max="13" width="14.5666666666667" customWidth="1"/>
+    <col min="14" max="14" width="27.2833333333333" customWidth="1"/>
+    <col min="15" max="15" width="29.1416666666667" customWidth="1"/>
+    <col min="16" max="16" width="36.1416666666667" customWidth="1"/>
+    <col min="17" max="17" width="35.425" customWidth="1"/>
+    <col min="18" max="18" width="27.8583333333333" customWidth="1"/>
+    <col min="19" max="19" width="30.1416666666667" customWidth="1"/>
+    <col min="20" max="20" width="27.1416666666667" customWidth="1"/>
+    <col min="21" max="21" width="30.1416666666667" customWidth="1"/>
+    <col min="22" max="22" width="25.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:21">
+    <row r="1" ht="15" spans="1:22">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4137,19 +4207,19 @@
       <c r="F1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L1" s="8" t="s">
@@ -4182,8 +4252,11 @@
       <c r="U1" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" ht="45" spans="1:21">
+      <c r="V1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:22">
       <c r="A2" s="8">
         <v>11223344</v>
       </c>
@@ -4194,57 +4267,60 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="E2" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="F2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H2" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>48</v>
+      <c r="J2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S2" s="8"/>
       <c r="T2" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:22">
       <c r="A3" s="8">
         <v>11223344</v>
       </c>
@@ -4255,57 +4331,60 @@
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" ht="45" spans="1:21">
+    </row>
+    <row r="4" ht="45" spans="1:22">
       <c r="A4" s="8">
         <v>11223344</v>
       </c>
@@ -4316,57 +4395,60 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="R4" s="8"/>
-      <c r="S4" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S4" s="8"/>
       <c r="T4" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" ht="45" spans="1:22">
       <c r="A5" s="8">
         <v>11223344</v>
       </c>
@@ -4377,57 +4459,60 @@
         <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S5" s="8"/>
       <c r="T5" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" ht="60" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" ht="60" spans="1:22">
       <c r="A6" s="8">
         <v>11223344</v>
       </c>
@@ -4438,57 +4523,60 @@
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="R6" s="8"/>
-      <c r="S6" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S6" s="8"/>
       <c r="T6" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:22">
       <c r="A7" s="8">
         <v>11223344</v>
       </c>
@@ -4499,57 +4587,60 @@
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>82</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="R7" s="8"/>
-      <c r="S7" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S7" s="8"/>
       <c r="T7" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:22">
       <c r="A8" s="8">
         <v>11223344</v>
       </c>
@@ -4560,57 +4651,60 @@
         <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H8" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="R8" s="8"/>
-      <c r="S8" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S8" s="8"/>
       <c r="T8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" ht="45" spans="1:22">
       <c r="A9" s="8">
         <v>11223344</v>
       </c>
@@ -4621,57 +4715,60 @@
         <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="Q9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S9" s="8"/>
       <c r="T9" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:22">
       <c r="A10" s="8">
         <v>11223344</v>
       </c>
@@ -4682,57 +4779,60 @@
         <v>15</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>97</v>
+        <v>45</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H10" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="R10" s="8"/>
-      <c r="S10" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S10" s="8"/>
       <c r="T10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="1:22">
       <c r="A11" s="8">
         <v>11223344</v>
       </c>
@@ -4743,57 +4843,60 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H11" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q11" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="R11" s="8"/>
-      <c r="S11" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S11" s="8"/>
       <c r="T11" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="45" spans="1:22">
       <c r="A12" s="8">
         <v>11223344</v>
       </c>
@@ -4804,53 +4907,56 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>103</v>
+        <v>45</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="H12" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
+        <v>50</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8">
         <v>4</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="O12" s="8"/>
       <c r="P12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="R12" s="8"/>
-      <c r="S12" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S12" s="8"/>
       <c r="T12" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:22">
       <c r="A13" s="8">
         <v>11223344</v>
       </c>
@@ -4861,57 +4967,60 @@
         <v>15</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>106</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
+      <c r="G13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q13" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="R13" s="8"/>
-      <c r="S13" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S13" s="8"/>
       <c r="T13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:22">
       <c r="A14" s="8">
         <v>11223344</v>
       </c>
@@ -4922,57 +5031,60 @@
         <v>15</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>115</v>
+        <v>45</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>48</v>
+        <v>117</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q14" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="R14" s="8"/>
-      <c r="S14" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S14" s="8"/>
       <c r="T14" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" ht="60" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" ht="60" spans="1:22">
       <c r="A15" s="8">
         <v>11223344</v>
       </c>
@@ -4983,57 +5095,60 @@
         <v>15</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>122</v>
+        <v>45</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>48</v>
+        <v>124</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" s="8"/>
+        <v>129</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="R15" s="8"/>
-      <c r="S15" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S15" s="8"/>
       <c r="T15" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:22">
       <c r="A16" s="8">
         <v>11223344</v>
       </c>
@@ -5044,57 +5159,60 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="Q16" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S16" s="8"/>
       <c r="T16" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="45" spans="1:22">
       <c r="A17" s="8">
         <v>11223344</v>
       </c>
@@ -5105,57 +5223,60 @@
         <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>132</v>
+        <v>45</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q17" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R17" s="8"/>
-      <c r="S17" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S17" s="8"/>
       <c r="T17" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" ht="60" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" ht="60" spans="1:22">
       <c r="A18" s="8">
         <v>11223344</v>
       </c>
@@ -5166,57 +5287,60 @@
         <v>15</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>139</v>
+        <v>45</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>48</v>
+        <v>141</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="R18" s="8"/>
-      <c r="S18" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S18" s="8"/>
       <c r="T18" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" ht="90" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="90" spans="1:22">
       <c r="A19" s="8">
         <v>11223344</v>
       </c>
@@ -5227,57 +5351,60 @@
         <v>15</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>142</v>
+        <v>45</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>48</v>
+        <v>144</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="8">
+        <v>50</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="8">
         <v>3</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="O19" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R19" s="8"/>
-      <c r="S19" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S19" s="8"/>
       <c r="T19" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="45" spans="1:22">
       <c r="A20" s="8">
         <v>11223344</v>
       </c>
@@ -5288,57 +5415,60 @@
         <v>15</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>146</v>
+        <v>45</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>48</v>
+        <v>148</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="M20" s="8">
+        <v>50</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" s="8">
         <v>40</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="O20" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R20" s="8"/>
-      <c r="S20" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S20" s="8"/>
       <c r="T20" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="45" spans="1:22">
       <c r="A21" s="8">
         <v>11223344</v>
       </c>
@@ -5349,53 +5479,56 @@
         <v>15</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>48</v>
+        <v>152</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8">
+        <v>50</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8">
         <v>120</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="O21" s="8"/>
       <c r="P21" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R21" s="8"/>
-      <c r="S21" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S21" s="8"/>
       <c r="T21" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="45" spans="1:22">
       <c r="A22" s="8">
         <v>11223344</v>
       </c>
@@ -5406,57 +5539,60 @@
         <v>15</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>153</v>
+        <v>45</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>48</v>
+        <v>155</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R22" s="8"/>
-      <c r="S22" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S22" s="8"/>
       <c r="T22" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" ht="45" spans="1:22">
       <c r="A23" s="8">
         <v>11223344</v>
       </c>
@@ -5467,57 +5603,60 @@
         <v>15</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="O23" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R23" s="8"/>
-      <c r="S23" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S23" s="8"/>
       <c r="T23" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" ht="45" spans="1:22">
       <c r="A24" s="8">
         <v>11223344</v>
       </c>
@@ -5528,57 +5667,60 @@
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>161</v>
+        <v>45</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>48</v>
+        <v>163</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R24" s="8"/>
-      <c r="S24" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S24" s="8"/>
       <c r="T24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" ht="45" spans="1:22">
       <c r="A25" s="8">
         <v>11223344</v>
       </c>
@@ -5589,57 +5731,60 @@
         <v>15</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>164</v>
+        <v>45</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>48</v>
+        <v>166</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q25" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R25" s="8"/>
-      <c r="S25" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S25" s="8"/>
       <c r="T25" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" ht="45" spans="1:22">
       <c r="A26" s="8">
         <v>11223344</v>
       </c>
@@ -5650,57 +5795,60 @@
         <v>15</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>167</v>
+        <v>45</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>48</v>
+        <v>169</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q26" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R26" s="8"/>
-      <c r="S26" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S26" s="8"/>
       <c r="T26" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="1:22">
       <c r="A27" s="8">
         <v>11223344</v>
       </c>
@@ -5711,57 +5859,60 @@
         <v>15</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="O27" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q27" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R27" s="8"/>
-      <c r="S27" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S27" s="8"/>
       <c r="T27" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" ht="45" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="45" spans="1:22">
       <c r="A28" s="8">
         <v>11223344</v>
       </c>
@@ -5772,53 +5923,56 @@
         <v>15</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>175</v>
+        <v>45</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>48</v>
+        <v>177</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8">
+        <v>50</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8">
         <v>1</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="O28" s="8"/>
       <c r="P28" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q28" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R28" s="8"/>
-      <c r="S28" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S28" s="8"/>
       <c r="T28" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" ht="75" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" ht="75" spans="1:22">
       <c r="A29" s="8">
         <v>11223344</v>
       </c>
@@ -5829,57 +5983,60 @@
         <v>15</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>178</v>
+        <v>45</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>48</v>
+        <v>180</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q29" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="R29" s="8"/>
-      <c r="S29" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S29" s="8"/>
       <c r="T29" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" ht="60" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="60" spans="1:22">
       <c r="A30" s="8">
         <v>11223344</v>
       </c>
@@ -5890,61 +6047,64 @@
         <v>15</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>181</v>
+        <v>45</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>48</v>
+        <v>183</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" ht="60" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="60" spans="1:22">
       <c r="A31" s="8">
         <v>11223344</v>
       </c>
@@ -5955,57 +6115,92 @@
         <v>15</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>187</v>
+        <v>45</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>48</v>
+        <v>189</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q31" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="R31" s="8"/>
-      <c r="S31" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="S31" s="8"/>
       <c r="T31" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E3" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E6" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E9" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E12" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E13" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E14" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E15" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E16" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E17" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E18" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E19" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E20" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E21" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E22" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E23" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E24" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E25" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E26" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E27" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E28" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E29" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E30" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+    <hyperlink ref="E31" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -6015,44 +6210,44 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="22.1416666666667" customWidth="1"/>
     <col min="2" max="2" width="11.2833333333333" customWidth="1"/>
     <col min="3" max="3" width="14.8583333333333" customWidth="1"/>
     <col min="4" max="4" width="17.2833333333333" customWidth="1"/>
-    <col min="5" max="5" width="25.7083333333333" customWidth="1"/>
-    <col min="6" max="6" width="24.1416666666667" customWidth="1"/>
-    <col min="7" max="8" width="36.5666666666667" customWidth="1"/>
-    <col min="9" max="9" width="25.5666666666667" customWidth="1"/>
-    <col min="10" max="10" width="36.5666666666667" customWidth="1"/>
-    <col min="11" max="11" width="33.5666666666667" customWidth="1"/>
-    <col min="12" max="12" width="23.1416666666667" customWidth="1"/>
-    <col min="13" max="13" width="35.8583333333333" customWidth="1"/>
-    <col min="14" max="14" width="31.1416666666667" customWidth="1"/>
-    <col min="15" max="15" width="28.5666666666667" customWidth="1"/>
-    <col min="16" max="16" width="26.8583333333333" customWidth="1"/>
-    <col min="17" max="22" width="28.1416666666667" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="20.5666666666667" customWidth="1"/>
-    <col min="25" max="25" width="25.7083333333333" customWidth="1"/>
-    <col min="26" max="26" width="24.5666666666667" customWidth="1"/>
-    <col min="27" max="27" width="36.5666666666667" customWidth="1"/>
-    <col min="28" max="28" width="33.8583333333333" customWidth="1"/>
-    <col min="29" max="29" width="27.8583333333333" customWidth="1"/>
-    <col min="30" max="30" width="34.5666666666667" customWidth="1"/>
-    <col min="31" max="31" width="35.8583333333333" customWidth="1"/>
-    <col min="32" max="32" width="21" customWidth="1"/>
-    <col min="33" max="33" width="35" customWidth="1"/>
+    <col min="5" max="6" width="25.7083333333333" customWidth="1"/>
+    <col min="7" max="7" width="24.1416666666667" customWidth="1"/>
+    <col min="8" max="9" width="36.5666666666667" customWidth="1"/>
+    <col min="10" max="10" width="25.5666666666667" customWidth="1"/>
+    <col min="11" max="11" width="36.5666666666667" customWidth="1"/>
+    <col min="12" max="12" width="33.5666666666667" customWidth="1"/>
+    <col min="13" max="13" width="23.1416666666667" customWidth="1"/>
+    <col min="14" max="14" width="35.8583333333333" customWidth="1"/>
+    <col min="15" max="15" width="31.1416666666667" customWidth="1"/>
+    <col min="16" max="16" width="28.5666666666667" customWidth="1"/>
+    <col min="17" max="17" width="26.8583333333333" customWidth="1"/>
+    <col min="18" max="23" width="28.1416666666667" customWidth="1"/>
+    <col min="24" max="24" width="17" customWidth="1"/>
+    <col min="25" max="25" width="20.5666666666667" customWidth="1"/>
+    <col min="26" max="26" width="25.7083333333333" customWidth="1"/>
+    <col min="27" max="27" width="24.5666666666667" customWidth="1"/>
+    <col min="28" max="28" width="36.5666666666667" customWidth="1"/>
+    <col min="29" max="29" width="33.8583333333333" customWidth="1"/>
+    <col min="30" max="30" width="27.8583333333333" customWidth="1"/>
+    <col min="31" max="31" width="34.5666666666667" customWidth="1"/>
+    <col min="32" max="32" width="35.8583333333333" customWidth="1"/>
+    <col min="33" max="33" width="21" customWidth="1"/>
+    <col min="34" max="34" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:33">
+    <row r="1" ht="15" spans="1:34">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6069,91 +6264,94 @@
         <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>191</v>
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>195</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="L1" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="S1" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="T1" s="7" t="s">
         <v>203</v>
       </c>
+      <c r="T1" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="U1" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="V1" s="8" t="s">
         <v>205</v>
       </c>
+      <c r="V1" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="W1" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>211</v>
       </c>
+      <c r="AB1" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="AC1" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:33">
+        <v>217</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:34">
       <c r="A2" s="8">
         <v>11223344</v>
       </c>
@@ -6164,95 +6362,101 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="E2" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="F2" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>218</v>
+        <v>47</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="L2" s="8">
+      <c r="K2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M2" s="8">
         <v>405672008</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>223</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="Q2" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>226</v>
-      </c>
       <c r="S2" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="T2" s="7" t="s">
         <v>228</v>
       </c>
+      <c r="T2" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="U2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8" t="s">
         <v>230</v>
       </c>
+      <c r="V2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="W2" s="8"/>
       <c r="X2" s="8" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>233</v>
       </c>
+      <c r="AB2" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="AC2" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF2" s="8">
+        <v>237</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG2" s="8">
         <v>1234567890</v>
       </c>
-      <c r="AG2" s="8" t="s">
-        <v>237</v>
+      <c r="AH2" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId3" display="https://shinny.org/us/ny/hrsn/index.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -6264,11 +6468,11 @@
   <sheetPr/>
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="36.5666666666667" customWidth="1"/>
     <col min="2" max="2" width="23.7083333333333" customWidth="1"/>
@@ -6316,121 +6520,121 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN1" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" ht="30" spans="1:41">
@@ -6441,47 +6645,47 @@
         <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>283</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="N2" s="30">
+        <v>288</v>
+      </c>
+      <c r="N2" s="32">
         <v>29783</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>23</v>
@@ -6490,74 +6694,74 @@
         <v>10032</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="U2" s="8">
         <v>1234567890</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AA2" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="AC2" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF2" s="8">
         <v>407376001</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AI2" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM2" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AJ2" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="AN2" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="26"/>
+      <c r="A3" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6575,7 +6779,7 @@
       <selection activeCell="C32" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="33.875" customWidth="1"/>
@@ -6588,19 +6792,19 @@
   <sheetData>
     <row r="1" s="20" customFormat="1" ht="15.75" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
@@ -6614,13 +6818,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -6634,13 +6838,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D3" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -6654,13 +6858,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D4" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -6674,13 +6878,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -6694,16 +6898,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" ht="15" spans="1:8">
@@ -6712,13 +6916,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -6730,17 +6934,17 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D8" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" ht="15" spans="1:8">
       <c r="A9" s="8" t="s">
@@ -6750,13 +6954,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -6768,13 +6972,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -6788,13 +6992,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -6808,13 +7012,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -6822,19 +7026,19 @@
     </row>
     <row r="13" ht="15" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -6848,13 +7052,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -6868,13 +7072,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D15" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -6882,11 +7086,11 @@
     </row>
     <row r="16" ht="15" spans="1:8">
       <c r="A16" s="18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
@@ -6896,11 +7100,11 @@
     </row>
     <row r="17" ht="15" spans="1:8">
       <c r="A17" s="18" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="18"/>
@@ -6910,11 +7114,11 @@
     </row>
     <row r="18" ht="15" spans="1:8">
       <c r="A18" s="18" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="18"/>
@@ -6924,11 +7128,11 @@
     </row>
     <row r="19" ht="15" spans="1:8">
       <c r="A19" s="18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="17"/>
@@ -6951,13 +7155,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="65.875" customWidth="1"/>
     <col min="2" max="2" width="36.125" customWidth="1"/>
@@ -6971,22 +7175,22 @@
   <sheetData>
     <row r="1" s="20" customFormat="1" ht="15.75" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="25"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" customFormat="1" ht="15" spans="1:6">
       <c r="A2" s="8" t="s">
@@ -6996,49 +7200,49 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:6">
-      <c r="A3" s="31" t="s">
-        <v>322</v>
+      <c r="A3" s="34" t="s">
+        <v>324</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D3" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="1" ht="15" spans="1:6">
-      <c r="A4" s="31" t="s">
-        <v>322</v>
+      <c r="A4" s="34" t="s">
+        <v>324</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D4" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -7050,49 +7254,49 @@
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D5" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" customFormat="1" ht="15" spans="1:6">
-      <c r="A6" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D6" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="1" ht="15" spans="1:6">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="9" t="b">
+      <c r="C7" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>308</v>
+      <c r="E7" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -7104,134 +7308,133 @@
         <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="1" ht="15" spans="1:6">
-      <c r="A9" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="13" t="b">
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>308</v>
+      <c r="E9" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="1" ht="15" spans="1:6">
-      <c r="A10" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" customFormat="1" ht="15" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" customFormat="1" ht="15" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" customFormat="1" ht="15" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" customFormat="1" ht="15" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" s="9" t="b">
+      <c r="D13" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" customFormat="1" ht="15" spans="1:6">
-      <c r="A12" s="15" t="s">
+      <c r="E13" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="1" ht="15" spans="1:6">
+      <c r="A14" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="C14" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" customFormat="1" ht="15" spans="1:6">
+      <c r="A15" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D12" s="16" t="b">
+      <c r="D15" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" customFormat="1" ht="15" spans="1:6">
-      <c r="A13" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" customFormat="1" ht="15" spans="1:6">
-      <c r="A14" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" customFormat="1" ht="15" spans="1:7">
-      <c r="A15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>310</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" customFormat="1" ht="15" spans="1:6">
+    </row>
+    <row r="16" customFormat="1" ht="15" spans="1:7">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
@@ -7239,95 +7442,100 @@
         <v>35</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" customFormat="1" ht="15" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="D17" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="1" ht="15" spans="1:6">
+      <c r="A18" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" customFormat="1" ht="15" spans="1:6">
-      <c r="A17" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="13" t="b">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" ht="15" spans="1:8">
+      <c r="A19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" ht="15" spans="1:8">
-      <c r="A18" s="8" t="s">
+      <c r="E19" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" customFormat="1" ht="15" spans="1:6">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C20" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" customFormat="1" ht="15" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" customFormat="1" ht="15" spans="1:6">
-      <c r="A20" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>322</v>
+        <v>328</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>324</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
@@ -7335,34 +7543,30 @@
     </row>
     <row r="22" customFormat="1" ht="15" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>322</v>
+        <v>329</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>324</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="18"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="1" ht="15" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>310</v>
-      </c>
+      <c r="A23" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" customFormat="1" ht="15" spans="1:6">
@@ -7373,79 +7577,97 @@
         <v>40</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" customFormat="1" ht="15" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" customFormat="1" ht="15" spans="1:6">
-      <c r="A25" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="1" ht="15" spans="1:6">
-      <c r="A26" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D26" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>308</v>
-      </c>
+      <c r="A26" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="1" ht="15" spans="1:6">
-      <c r="A27" s="12"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D27" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="1" ht="15" spans="1:6">
       <c r="A28" s="12"/>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+      <c r="D28" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>310</v>
       </c>
       <c r="F28" s="8"/>
+    </row>
+    <row r="29" customFormat="1" ht="15" spans="1:6">
+      <c r="A29" s="12"/>
+      <c r="B29" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7456,13 +7678,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="41.625" customWidth="1"/>
     <col min="2" max="2" width="47.25" customWidth="1"/>
@@ -7476,19 +7698,19 @@
   <sheetData>
     <row r="1" s="20" customFormat="1" ht="15.75" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
@@ -7501,13 +7723,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -7518,13 +7740,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D3" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -7535,13 +7757,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D4" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -7554,66 +7776,67 @@
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D5" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:7">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" customFormat="1" ht="15" spans="1:6">
+      <c r="A6" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D6" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="1" ht="15" spans="1:7">
-      <c r="A7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="9" t="b">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>308</v>
+      <c r="E7" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" customFormat="1" ht="15" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" s="13" t="b">
+      <c r="B8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>308</v>
+      <c r="E8" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -7621,52 +7844,52 @@
     <row r="9" customFormat="1" ht="15" spans="1:7">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D9" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" customFormat="1" ht="15" spans="1:7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="9" t="b">
+      <c r="C10" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>308</v>
+      <c r="E10" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="1" ht="15" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="13" t="b">
+      <c r="B11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>308</v>
+      <c r="E11" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -7674,53 +7897,51 @@
     <row r="12" customFormat="1" ht="15" spans="1:7">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D12" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="9" t="b">
+      <c r="C13" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>308</v>
+      <c r="E13" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="1" ht="15" spans="1:7">
       <c r="A14" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>310</v>
       </c>
       <c r="F14" s="8"/>
@@ -7728,36 +7949,38 @@
     </row>
     <row r="15" customFormat="1" ht="15" spans="1:7">
       <c r="A15" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="1" ht="15" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>308</v>
+      <c r="E16" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -7765,13 +7988,13 @@
     <row r="17" customFormat="1" ht="15" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+      <c r="D17" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>310</v>
@@ -7782,30 +8005,30 @@
     <row r="18" customFormat="1" ht="15" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D18" s="13" t="b">
-        <v>1</v>
-      </c>
       <c r="E18" s="12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" customFormat="1" ht="15" spans="1:7">
       <c r="A19" s="12"/>
-      <c r="B19" s="21" t="s">
-        <v>201</v>
+      <c r="B19" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+      <c r="D19" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>310</v>
@@ -7815,130 +8038,134 @@
     </row>
     <row r="20" customFormat="1" ht="15" spans="1:7">
       <c r="A20" s="12"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:7">
       <c r="A21" s="12"/>
-      <c r="B21" s="21" t="s">
-        <v>202</v>
+      <c r="B21" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21" s="22"/>
+        <v>312</v>
+      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" customFormat="1" ht="15" spans="1:7">
       <c r="A22" s="12"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E22" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>312</v>
+      </c>
+      <c r="F22" s="24"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" customFormat="1" ht="15" spans="1:7">
       <c r="A23" s="12"/>
-      <c r="B23" s="21" t="s">
-        <v>205</v>
+      <c r="B23" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" customFormat="1" ht="15" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>308</v>
+      <c r="A24" s="12"/>
+      <c r="B24" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" customFormat="1" ht="15" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D25" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" customFormat="1" ht="15" spans="1:7">
-      <c r="A26" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" customFormat="1" ht="15" spans="1:7">
       <c r="A27" s="18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="18"/>
@@ -7947,11 +8174,11 @@
     </row>
     <row r="28" customFormat="1" ht="15" spans="1:7">
       <c r="A28" s="18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="18"/>
@@ -7959,74 +8186,70 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="1" ht="15" spans="1:7">
-      <c r="A29" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>310</v>
-      </c>
+      <c r="A29" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" ht="15" spans="1:8">
+    <row r="30" customFormat="1" ht="15" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D30" s="9" t="b">
+        <v>309</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" ht="15" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" customFormat="1" ht="15" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>310</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" customFormat="1" ht="15" spans="1:7">
       <c r="A32" s="12"/>
       <c r="B32" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E32" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -8037,13 +8260,13 @@
         <v>213</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E33" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -8051,16 +8274,16 @@
     <row r="34" customFormat="1" ht="15" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E34" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -8071,13 +8294,13 @@
         <v>214</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E35" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -8085,16 +8308,16 @@
     <row r="36" customFormat="1" ht="15" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D36" s="13" t="b">
-        <v>1</v>
-      </c>
       <c r="E36" s="12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -8102,41 +8325,58 @@
     <row r="37" customFormat="1" ht="15" spans="1:7">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D37" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
     <row r="38" customFormat="1" ht="15" spans="1:7">
-      <c r="A38" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="18"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" customFormat="1" ht="15" spans="1:7">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="1" ht="15" spans="1:7">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8149,11 +8389,11 @@
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="36.5666666666667" customWidth="1"/>
@@ -8163,19 +8403,19 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
@@ -8188,13 +8428,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -8205,144 +8445,144 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D3" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" ht="15" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D4" s="16" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" ht="15" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" ht="15" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D6" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" ht="15" spans="1:7">
       <c r="A7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" ht="15" spans="1:7">
       <c r="A8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" ht="15" spans="1:7">
       <c r="A9" s="14" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D9" s="16" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" ht="15" spans="1:7">
+    <row r="10" ht="28.5" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D10" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -8350,35 +8590,35 @@
     <row r="11" ht="15" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D11" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" ht="15" spans="1:7">
       <c r="A12" s="14" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -8386,16 +8626,16 @@
     <row r="13" ht="15" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -8403,54 +8643,54 @@
     <row r="14" ht="15" spans="1:7">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" ht="15" spans="1:7">
       <c r="A15" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D15" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" ht="15" spans="1:7">
       <c r="A16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D16" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -8458,111 +8698,111 @@
     <row r="17" ht="15" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" ht="15" spans="1:7">
       <c r="A18" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D18" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" ht="15" spans="1:7">
       <c r="A19" s="14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D19" s="16" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" ht="15" spans="1:7">
       <c r="A20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D20" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" ht="15" spans="1:7">
       <c r="A21" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D21" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" ht="15" spans="1:7">
       <c r="A22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -8570,329 +8810,329 @@
     <row r="23" ht="15" spans="1:7">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" ht="15" spans="1:7">
       <c r="A24" s="14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" ht="15" spans="1:7">
       <c r="A25" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" ht="15" spans="1:7">
       <c r="A26" s="14" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" ht="15" spans="1:7">
       <c r="A27" s="14" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" ht="15" spans="1:7">
+    <row r="28" ht="28.5" spans="1:7">
       <c r="A28" s="14" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" ht="15" spans="1:7">
       <c r="A29" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" ht="15" spans="1:7">
+    <row r="30" ht="28.5" spans="1:7">
       <c r="A30" s="14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" ht="15" spans="1:7">
       <c r="A31" s="14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" ht="15" spans="1:7">
+    <row r="32" ht="28.5" spans="1:7">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>309</v>
-      </c>
       <c r="E32" s="12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" ht="15" spans="1:7">
       <c r="A33" s="14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" ht="15" spans="1:7">
+    <row r="34" ht="28.5" spans="1:7">
       <c r="A34" s="14" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" ht="15" spans="1:7">
+    <row r="35" ht="28.5" spans="1:7">
       <c r="A35" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" ht="15" spans="1:7">
       <c r="A36" s="14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" ht="27" spans="1:7">
+    <row r="37" ht="28.5" spans="1:7">
       <c r="A37" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" ht="27" spans="1:7">
+    <row r="38" ht="28.5" spans="1:7">
       <c r="A38" s="14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" ht="15" spans="1:7">
       <c r="A39" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" ht="15" spans="1:7">
       <c r="A40" s="17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="18"/>
@@ -8901,11 +9141,11 @@
     </row>
     <row r="41" ht="15" spans="1:7">
       <c r="A41" s="17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="18"/>
@@ -8914,11 +9154,11 @@
     </row>
     <row r="42" ht="15" spans="1:7">
       <c r="A42" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="18"/>
@@ -8927,11 +9167,11 @@
     </row>
     <row r="43" ht="15" spans="1:7">
       <c r="A43" s="17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="18"/>
@@ -8940,11 +9180,11 @@
     </row>
     <row r="44" ht="15" spans="1:7">
       <c r="A44" s="17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="18"/>
@@ -8953,68 +9193,68 @@
     </row>
     <row r="45" ht="15" spans="1:7">
       <c r="A45" s="14" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" ht="15" spans="1:7">
+    <row r="46" ht="28.5" spans="1:7">
       <c r="A46" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" ht="15" spans="1:7">
+    <row r="47" ht="28.5" spans="1:7">
       <c r="A47" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" ht="15" spans="1:7">
       <c r="A48" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="18"/>

--- a/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
+++ b/support/specifications/flat-file/nyher-fhir-ig-example/Consolidated NYHER FHIR IG Examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9120" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="QE_ADMIN" sheetId="1" r:id="rId1"/>
@@ -1167,6 +1167,50 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     resourceType ='Organization'-&gt;identifier-&gt;system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="4">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Megin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+resourceType ='Consent'-&gt;meta-&gt;lastUpdated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="4">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Megin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+resourceType ='Encounter'-&gt;meta-&gt;lastUpdated</t>
         </r>
       </text>
     </comment>
@@ -1802,12 +1846,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="AP1" authorId="6">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Megin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+This time will be found in the FHIR Observation(SexualOrientation) resource -&gt;meta -&gt; lastUpdated
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="363">
   <si>
     <t>PATIENT_MR_ID_VALUE</t>
   </si>
@@ -2466,6 +2533,12 @@
     <t>SCREENING_ENTITY_ID_CODE_SYSTEM</t>
   </si>
   <si>
+    <t>CONSENT_LAST_UPDATED</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_LAST_UPDATED</t>
+  </si>
+  <si>
     <t>FLD</t>
   </si>
   <si>
@@ -2646,6 +2719,9 @@
     <t>PATIENT_LAST_UPDATED</t>
   </si>
   <si>
+    <t>SEXUAL_ORIENTATION_LAST_UPDATED</t>
+  </si>
+  <si>
     <t>AA12345C</t>
   </si>
   <si>
@@ -2805,18 +2881,12 @@
     <t>DATA_ABSENT_REASON_TEXT</t>
   </si>
   <si>
-    <t>CONSENT_LAST_UPDATED</t>
-  </si>
-  <si>
     <t>CONSENT_POLICY_AUTHORITY</t>
   </si>
   <si>
     <t>CONSENT_PROVISION_TYPE</t>
   </si>
   <si>
-    <t>ENCOUNTER_LAST_UPDATED</t>
-  </si>
-  <si>
     <t>PATIENT_MA_ID_VALUE</t>
   </si>
   <si>
@@ -2893,9 +2963,6 @@
   </si>
   <si>
     <t>SEXUAL_ORIENTATION_VALUE_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>SEXUAL_ORIENTATION_LAST_UPDATED</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +2976,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2991,6 +3058,12 @@
       <sz val="8.2"/>
       <color rgb="FF2A6496"/>
       <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3493,14 +3566,11 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3509,119 +3579,122 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3693,7 +3766,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -4041,25 +4115,25 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.1416666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.2833333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.8583333333333" customWidth="1"/>
-    <col min="5" max="5" width="28.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="36.5666666666667" customWidth="1"/>
-    <col min="7" max="7" width="28.1416666666667" customWidth="1"/>
-    <col min="8" max="8" width="18.5666666666667" customWidth="1"/>
-    <col min="9" max="9" width="34.8583333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.1416666666667" customWidth="1"/>
-    <col min="11" max="11" width="14.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="11.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="14.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="25.8611111111111" customWidth="1"/>
+    <col min="5" max="5" width="28.1388888888889" customWidth="1"/>
+    <col min="6" max="6" width="36.5648148148148" customWidth="1"/>
+    <col min="7" max="7" width="28.1388888888889" customWidth="1"/>
+    <col min="8" max="8" width="18.5648148148148" customWidth="1"/>
+    <col min="9" max="9" width="34.8611111111111" customWidth="1"/>
+    <col min="10" max="10" width="13.1388888888889" customWidth="1"/>
+    <col min="11" max="11" width="14.7037037037037" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:14">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4103,7 +4177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:14">
+    <row r="2" ht="28.8" spans="1:14">
       <c r="A2" s="8">
         <v>11223344</v>
       </c>
@@ -4159,36 +4233,36 @@
   <sheetPr/>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.1416666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.2833333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.2833333333333" customWidth="1"/>
-    <col min="5" max="6" width="26.8583333333333" customWidth="1"/>
-    <col min="7" max="7" width="16.8583333333333" customWidth="1"/>
-    <col min="8" max="8" width="36.5666666666667" customWidth="1"/>
-    <col min="9" max="9" width="31.425" customWidth="1"/>
-    <col min="10" max="10" width="16.1416666666667" customWidth="1"/>
-    <col min="11" max="11" width="36.5666666666667" customWidth="1"/>
-    <col min="12" max="12" width="30.7083333333333" customWidth="1"/>
-    <col min="13" max="13" width="14.5666666666667" customWidth="1"/>
-    <col min="14" max="14" width="27.2833333333333" customWidth="1"/>
-    <col min="15" max="15" width="29.1416666666667" customWidth="1"/>
-    <col min="16" max="16" width="36.1416666666667" customWidth="1"/>
-    <col min="17" max="17" width="35.425" customWidth="1"/>
-    <col min="18" max="18" width="27.8583333333333" customWidth="1"/>
-    <col min="19" max="19" width="30.1416666666667" customWidth="1"/>
-    <col min="20" max="20" width="27.1416666666667" customWidth="1"/>
-    <col min="21" max="21" width="30.1416666666667" customWidth="1"/>
-    <col min="22" max="22" width="25.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="11.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="14.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.287037037037" customWidth="1"/>
+    <col min="5" max="6" width="26.8611111111111" customWidth="1"/>
+    <col min="7" max="7" width="16.8611111111111" customWidth="1"/>
+    <col min="8" max="8" width="36.5648148148148" customWidth="1"/>
+    <col min="9" max="9" width="31.4259259259259" customWidth="1"/>
+    <col min="10" max="10" width="16.1388888888889" customWidth="1"/>
+    <col min="11" max="11" width="36.5648148148148" customWidth="1"/>
+    <col min="12" max="12" width="30.712962962963" customWidth="1"/>
+    <col min="13" max="13" width="14.5648148148148" customWidth="1"/>
+    <col min="14" max="14" width="27.287037037037" customWidth="1"/>
+    <col min="15" max="15" width="29.1388888888889" customWidth="1"/>
+    <col min="16" max="16" width="36.1388888888889" customWidth="1"/>
+    <col min="17" max="17" width="35.4259259259259" customWidth="1"/>
+    <col min="18" max="18" width="27.8611111111111" customWidth="1"/>
+    <col min="19" max="19" width="30.1388888888889" customWidth="1"/>
+    <col min="20" max="20" width="27.1388888888889" customWidth="1"/>
+    <col min="21" max="21" width="30.1388888888889" customWidth="1"/>
+    <col min="22" max="22" width="25.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:22">
+    <row r="1" spans="1:22">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4256,7 +4330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" ht="45" spans="1:22">
+    <row r="2" ht="43.2" spans="1:22">
       <c r="A2" s="8">
         <v>11223344</v>
       </c>
@@ -4269,7 +4343,7 @@
       <c r="D2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -4320,7 +4394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="1:22">
+    <row r="3" ht="43.2" spans="1:22">
       <c r="A3" s="8">
         <v>11223344</v>
       </c>
@@ -4333,7 +4407,7 @@
       <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -4384,7 +4458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" ht="45" spans="1:22">
+    <row r="4" ht="43.2" spans="1:22">
       <c r="A4" s="8">
         <v>11223344</v>
       </c>
@@ -4397,7 +4471,7 @@
       <c r="D4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -4448,7 +4522,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" ht="45" spans="1:22">
+    <row r="5" ht="43.2" spans="1:22">
       <c r="A5" s="8">
         <v>11223344</v>
       </c>
@@ -4461,7 +4535,7 @@
       <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -4512,7 +4586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" ht="60" spans="1:22">
+    <row r="6" ht="57.6" spans="1:22">
       <c r="A6" s="8">
         <v>11223344</v>
       </c>
@@ -4525,7 +4599,7 @@
       <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -4576,7 +4650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" ht="45" spans="1:22">
+    <row r="7" ht="43.2" spans="1:22">
       <c r="A7" s="8">
         <v>11223344</v>
       </c>
@@ -4589,7 +4663,7 @@
       <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -4640,7 +4714,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" ht="45" spans="1:22">
+    <row r="8" ht="43.2" spans="1:22">
       <c r="A8" s="8">
         <v>11223344</v>
       </c>
@@ -4653,7 +4727,7 @@
       <c r="D8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -4704,7 +4778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" ht="45" spans="1:22">
+    <row r="9" ht="43.2" spans="1:22">
       <c r="A9" s="8">
         <v>11223344</v>
       </c>
@@ -4717,7 +4791,7 @@
       <c r="D9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -4768,7 +4842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" ht="45" spans="1:22">
+    <row r="10" ht="43.2" spans="1:22">
       <c r="A10" s="8">
         <v>11223344</v>
       </c>
@@ -4781,7 +4855,7 @@
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -4832,7 +4906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" ht="45" spans="1:22">
+    <row r="11" ht="43.2" spans="1:22">
       <c r="A11" s="8">
         <v>11223344</v>
       </c>
@@ -4845,7 +4919,7 @@
       <c r="D11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -4896,7 +4970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" ht="45" spans="1:22">
+    <row r="12" ht="43.2" spans="1:22">
       <c r="A12" s="8">
         <v>11223344</v>
       </c>
@@ -4909,7 +4983,7 @@
       <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -4956,7 +5030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" ht="45" spans="1:22">
+    <row r="13" ht="43.2" spans="1:22">
       <c r="A13" s="8">
         <v>11223344</v>
       </c>
@@ -4969,7 +5043,7 @@
       <c r="D13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -5020,7 +5094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" ht="45" spans="1:22">
+    <row r="14" ht="43.2" spans="1:22">
       <c r="A14" s="8">
         <v>11223344</v>
       </c>
@@ -5033,7 +5107,7 @@
       <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -5084,7 +5158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" ht="60" spans="1:22">
+    <row r="15" ht="57.6" spans="1:22">
       <c r="A15" s="8">
         <v>11223344</v>
       </c>
@@ -5097,7 +5171,7 @@
       <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -5148,7 +5222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" ht="45" spans="1:22">
+    <row r="16" ht="43.2" spans="1:22">
       <c r="A16" s="8">
         <v>11223344</v>
       </c>
@@ -5161,7 +5235,7 @@
       <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -5212,7 +5286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" ht="45" spans="1:22">
+    <row r="17" ht="43.2" spans="1:22">
       <c r="A17" s="8">
         <v>11223344</v>
       </c>
@@ -5225,7 +5299,7 @@
       <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -5276,7 +5350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="60" spans="1:22">
+    <row r="18" ht="57.6" spans="1:22">
       <c r="A18" s="8">
         <v>11223344</v>
       </c>
@@ -5289,7 +5363,7 @@
       <c r="D18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -5340,7 +5414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" ht="90" spans="1:22">
+    <row r="19" ht="86.4" spans="1:22">
       <c r="A19" s="8">
         <v>11223344</v>
       </c>
@@ -5353,7 +5427,7 @@
       <c r="D19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -5404,7 +5478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" ht="45" spans="1:22">
+    <row r="20" ht="43.2" spans="1:22">
       <c r="A20" s="8">
         <v>11223344</v>
       </c>
@@ -5417,7 +5491,7 @@
       <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -5468,7 +5542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" ht="45" spans="1:22">
+    <row r="21" ht="43.2" spans="1:22">
       <c r="A21" s="8">
         <v>11223344</v>
       </c>
@@ -5481,7 +5555,7 @@
       <c r="D21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -5528,7 +5602,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" ht="45" spans="1:22">
+    <row r="22" ht="43.2" spans="1:22">
       <c r="A22" s="8">
         <v>11223344</v>
       </c>
@@ -5541,7 +5615,7 @@
       <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -5592,7 +5666,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" ht="45" spans="1:22">
+    <row r="23" ht="43.2" spans="1:22">
       <c r="A23" s="8">
         <v>11223344</v>
       </c>
@@ -5605,7 +5679,7 @@
       <c r="D23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -5656,7 +5730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" ht="45" spans="1:22">
+    <row r="24" ht="43.2" spans="1:22">
       <c r="A24" s="8">
         <v>11223344</v>
       </c>
@@ -5669,7 +5743,7 @@
       <c r="D24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -5720,7 +5794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" ht="45" spans="1:22">
+    <row r="25" ht="43.2" spans="1:22">
       <c r="A25" s="8">
         <v>11223344</v>
       </c>
@@ -5733,7 +5807,7 @@
       <c r="D25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -5784,7 +5858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" ht="45" spans="1:22">
+    <row r="26" ht="43.2" spans="1:22">
       <c r="A26" s="8">
         <v>11223344</v>
       </c>
@@ -5797,7 +5871,7 @@
       <c r="D26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -5848,7 +5922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" ht="45" spans="1:22">
+    <row r="27" ht="43.2" spans="1:22">
       <c r="A27" s="8">
         <v>11223344</v>
       </c>
@@ -5861,7 +5935,7 @@
       <c r="D27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -5912,7 +5986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" ht="45" spans="1:22">
+    <row r="28" ht="43.2" spans="1:22">
       <c r="A28" s="8">
         <v>11223344</v>
       </c>
@@ -5925,7 +5999,7 @@
       <c r="D28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -5972,7 +6046,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" ht="75" spans="1:22">
+    <row r="29" ht="72" spans="1:22">
       <c r="A29" s="8">
         <v>11223344</v>
       </c>
@@ -5985,7 +6059,7 @@
       <c r="D29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -6036,7 +6110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="60" spans="1:22">
+    <row r="30" ht="57.6" spans="1:22">
       <c r="A30" s="8">
         <v>11223344</v>
       </c>
@@ -6049,7 +6123,7 @@
       <c r="D30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -6104,7 +6178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="60" spans="1:22">
+    <row r="31" ht="57.6" spans="1:22">
       <c r="A31" s="8">
         <v>11223344</v>
       </c>
@@ -6117,7 +6191,7 @@
       <c r="D31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -6210,44 +6284,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.1416666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.2833333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.2833333333333" customWidth="1"/>
-    <col min="5" max="6" width="25.7083333333333" customWidth="1"/>
-    <col min="7" max="7" width="24.1416666666667" customWidth="1"/>
-    <col min="8" max="9" width="36.5666666666667" customWidth="1"/>
-    <col min="10" max="10" width="25.5666666666667" customWidth="1"/>
-    <col min="11" max="11" width="36.5666666666667" customWidth="1"/>
-    <col min="12" max="12" width="33.5666666666667" customWidth="1"/>
-    <col min="13" max="13" width="23.1416666666667" customWidth="1"/>
-    <col min="14" max="14" width="35.8583333333333" customWidth="1"/>
-    <col min="15" max="15" width="31.1416666666667" customWidth="1"/>
-    <col min="16" max="16" width="28.5666666666667" customWidth="1"/>
-    <col min="17" max="17" width="26.8583333333333" customWidth="1"/>
-    <col min="18" max="23" width="28.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="22.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="11.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="14.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.287037037037" customWidth="1"/>
+    <col min="5" max="6" width="25.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="24.1388888888889" customWidth="1"/>
+    <col min="8" max="9" width="36.5648148148148" customWidth="1"/>
+    <col min="10" max="10" width="25.5648148148148" customWidth="1"/>
+    <col min="11" max="11" width="36.5648148148148" customWidth="1"/>
+    <col min="12" max="12" width="33.5648148148148" customWidth="1"/>
+    <col min="13" max="13" width="23.1388888888889" customWidth="1"/>
+    <col min="14" max="14" width="35.8611111111111" customWidth="1"/>
+    <col min="15" max="15" width="31.1388888888889" customWidth="1"/>
+    <col min="16" max="16" width="28.5648148148148" customWidth="1"/>
+    <col min="17" max="17" width="26.8611111111111" customWidth="1"/>
+    <col min="18" max="23" width="28.1388888888889" customWidth="1"/>
     <col min="24" max="24" width="17" customWidth="1"/>
-    <col min="25" max="25" width="20.5666666666667" customWidth="1"/>
-    <col min="26" max="26" width="25.7083333333333" customWidth="1"/>
-    <col min="27" max="27" width="24.5666666666667" customWidth="1"/>
-    <col min="28" max="28" width="36.5666666666667" customWidth="1"/>
-    <col min="29" max="29" width="33.8583333333333" customWidth="1"/>
-    <col min="30" max="30" width="27.8583333333333" customWidth="1"/>
-    <col min="31" max="31" width="34.5666666666667" customWidth="1"/>
-    <col min="32" max="32" width="35.8583333333333" customWidth="1"/>
+    <col min="25" max="25" width="20.5648148148148" customWidth="1"/>
+    <col min="26" max="26" width="25.712962962963" customWidth="1"/>
+    <col min="27" max="27" width="24.5648148148148" customWidth="1"/>
+    <col min="28" max="28" width="36.5648148148148" customWidth="1"/>
+    <col min="29" max="29" width="33.8611111111111" customWidth="1"/>
+    <col min="30" max="30" width="27.8611111111111" customWidth="1"/>
+    <col min="31" max="31" width="34.5648148148148" customWidth="1"/>
+    <col min="32" max="32" width="35.8611111111111" customWidth="1"/>
     <col min="33" max="33" width="21" customWidth="1"/>
     <col min="34" max="34" width="35" customWidth="1"/>
+    <col min="35" max="35" width="23.4444444444444" customWidth="1"/>
+    <col min="36" max="36" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:34">
+    <row r="1" ht="28.8" spans="1:36">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6350,8 +6426,14 @@
       <c r="AH1" s="8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" ht="30" spans="1:34">
+      <c r="AI1" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:36">
       <c r="A2" s="8">
         <v>11223344</v>
       </c>
@@ -6364,63 +6446,63 @@
       <c r="D2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M2" s="8">
         <v>405672008</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W2" s="8"/>
       <c r="X2" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>25</v>
@@ -6429,28 +6511,34 @@
         <v>25</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG2" s="8">
         <v>1234567890</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="AI2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6466,53 +6554,54 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="36.5666666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.7083333333333" customWidth="1"/>
-    <col min="3" max="3" width="22.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="36.5648148148148" customWidth="1"/>
+    <col min="2" max="2" width="23.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="22.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.425" customWidth="1"/>
-    <col min="8" max="8" width="26.1416666666667" customWidth="1"/>
-    <col min="9" max="10" width="36.5666666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.7083333333333" customWidth="1"/>
-    <col min="12" max="12" width="32.425" customWidth="1"/>
-    <col min="13" max="13" width="36.5666666666667" customWidth="1"/>
-    <col min="14" max="14" width="20.2833333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="26.1388888888889" customWidth="1"/>
+    <col min="9" max="10" width="36.5648148148148" customWidth="1"/>
+    <col min="11" max="11" width="19.712962962963" customWidth="1"/>
+    <col min="12" max="12" width="32.4259259259259" customWidth="1"/>
+    <col min="13" max="13" width="36.5648148148148" customWidth="1"/>
+    <col min="14" max="14" width="20.287037037037" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="9.28333333333333" customWidth="1"/>
-    <col min="20" max="20" width="12.5666666666667" customWidth="1"/>
-    <col min="21" max="21" width="16.1416666666667" customWidth="1"/>
-    <col min="22" max="22" width="12.7083333333333" customWidth="1"/>
-    <col min="23" max="23" width="11.425" customWidth="1"/>
-    <col min="24" max="24" width="24.1416666666667" customWidth="1"/>
-    <col min="25" max="25" width="29.425" customWidth="1"/>
+    <col min="17" max="17" width="9.28703703703704" customWidth="1"/>
+    <col min="20" max="20" width="12.5648148148148" customWidth="1"/>
+    <col min="21" max="21" width="16.1388888888889" customWidth="1"/>
+    <col min="22" max="22" width="12.7037037037037" customWidth="1"/>
+    <col min="23" max="23" width="11.4259259259259" customWidth="1"/>
+    <col min="24" max="24" width="24.1388888888889" customWidth="1"/>
+    <col min="25" max="25" width="29.4259259259259" customWidth="1"/>
     <col min="26" max="26" width="16" customWidth="1"/>
-    <col min="27" max="27" width="28.7083333333333" customWidth="1"/>
-    <col min="28" max="28" width="30.5666666666667" customWidth="1"/>
-    <col min="29" max="29" width="27.425" customWidth="1"/>
-    <col min="30" max="30" width="34.1416666666667" customWidth="1"/>
-    <col min="31" max="31" width="29.425" customWidth="1"/>
-    <col min="32" max="32" width="23.1416666666667" customWidth="1"/>
+    <col min="27" max="27" width="28.712962962963" customWidth="1"/>
+    <col min="28" max="28" width="30.5648148148148" customWidth="1"/>
+    <col min="29" max="29" width="27.4259259259259" customWidth="1"/>
+    <col min="30" max="30" width="34.1388888888889" customWidth="1"/>
+    <col min="31" max="31" width="29.4259259259259" customWidth="1"/>
+    <col min="32" max="32" width="23.1388888888889" customWidth="1"/>
     <col min="33" max="33" width="36" customWidth="1"/>
-    <col min="34" max="34" width="36.5666666666667" customWidth="1"/>
-    <col min="35" max="35" width="27.8583333333333" customWidth="1"/>
-    <col min="36" max="37" width="36.5666666666667" customWidth="1"/>
-    <col min="38" max="38" width="26.8583333333333" customWidth="1"/>
-    <col min="39" max="40" width="36.5666666666667" customWidth="1"/>
-    <col min="41" max="41" width="23.2833333333333" customWidth="1"/>
+    <col min="34" max="34" width="36.5648148148148" customWidth="1"/>
+    <col min="35" max="35" width="27.8611111111111" customWidth="1"/>
+    <col min="36" max="37" width="36.5648148148148" customWidth="1"/>
+    <col min="38" max="38" width="26.8611111111111" customWidth="1"/>
+    <col min="39" max="40" width="36.5648148148148" customWidth="1"/>
+    <col min="41" max="41" width="23.287037037037" customWidth="1"/>
+    <col min="42" max="42" width="23.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:41">
+    <row r="1" ht="28.8" spans="1:42">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6520,124 +6609,127 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AN1" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:41">
+        <v>280</v>
+      </c>
+      <c r="AP1" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:42">
       <c r="A2" s="8">
         <v>11223344</v>
       </c>
@@ -6645,47 +6737,47 @@
         <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N2" s="32">
         <v>29783</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>23</v>
@@ -6694,37 +6786,37 @@
         <v>10032</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="U2" s="8">
         <v>1234567890</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AE2" s="8" t="s">
         <v>50</v>
@@ -6733,31 +6825,34 @@
         <v>407376001</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AI2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM2" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AJ2" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="AN2" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6779,38 +6874,38 @@
       <selection activeCell="C32" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="5" width="36.625" customWidth="1"/>
-    <col min="6" max="6" width="36.875" customWidth="1"/>
-    <col min="7" max="7" width="36.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="32.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="33.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="31.6296296296296" customWidth="1"/>
+    <col min="4" max="5" width="36.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="36.8796296296296" customWidth="1"/>
+    <col min="7" max="7" width="36.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="17.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="15.75" spans="1:8">
+    <row r="1" s="20" customFormat="1" ht="15.6" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="15" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -6818,19 +6913,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" ht="15" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -6838,19 +6933,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D3" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" ht="15" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -6858,19 +6953,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D4" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" ht="15" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -6878,19 +6973,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" ht="15" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -6898,55 +6993,55 @@
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="30"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" ht="15" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" ht="15" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D8" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" ht="15" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -6954,37 +7049,37 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" ht="15" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" ht="15" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -6992,19 +7087,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" ht="15" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -7012,39 +7107,39 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" ht="15" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" ht="15" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
@@ -7052,19 +7147,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" ht="15" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -7072,25 +7167,25 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D15" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" ht="15" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="18" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
@@ -7098,13 +7193,13 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" ht="15" spans="1:8">
+    <row r="17" spans="1:8">
       <c r="A17" s="18" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="18"/>
@@ -7112,13 +7207,13 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" ht="15" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18" s="18" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="18"/>
@@ -7126,13 +7221,13 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" ht="15" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="18" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="17"/>
@@ -7161,38 +7256,38 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="65.875" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="36.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="65.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="36.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="26.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="36.6296296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="37.875" customWidth="1"/>
+    <col min="6" max="6" width="37.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="56.25" customWidth="1"/>
-    <col min="8" max="8" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="42.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="15.75" spans="1:7">
+    <row r="1" s="20" customFormat="1" ht="15.6" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:6">
+    <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -7200,53 +7295,53 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:6">
-      <c r="A3" s="34" t="s">
-        <v>324</v>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D3" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:6">
-      <c r="A4" s="34" t="s">
-        <v>324</v>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D4" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:6">
+    <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -7254,53 +7349,53 @@
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D5" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:6">
+    <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="21" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D6" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:6">
-      <c r="A7" s="34" t="s">
-        <v>324</v>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D7" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" customFormat="1" ht="15" spans="1:6">
+    <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -7308,17 +7403,17 @@
         <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:6">
+    <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -7326,47 +7421,47 @@
         <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D9" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:6">
-      <c r="A10" s="34" t="s">
-        <v>324</v>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D10" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:6">
+    <row r="11" customFormat="1" spans="1:6">
       <c r="A11" s="18" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="1:6">
+    <row r="12" customFormat="1" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
@@ -7374,67 +7469,67 @@
         <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D12" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" customFormat="1" ht="15" spans="1:6">
+    <row r="13" customFormat="1" spans="1:6">
       <c r="A13" s="15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D13" s="16" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" customFormat="1" ht="15" spans="1:6">
+    <row r="14" customFormat="1" spans="1:6">
       <c r="A14" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>324</v>
-      </c>
       <c r="C14" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" customFormat="1" ht="15" spans="1:6">
-      <c r="A15" s="34" t="s">
-        <v>324</v>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D15" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" customFormat="1" ht="15" spans="1:7">
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
@@ -7442,18 +7537,18 @@
         <v>35</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" customFormat="1" ht="15" spans="1:6">
+    <row r="17" customFormat="1" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
@@ -7461,35 +7556,35 @@
         <v>36</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" customFormat="1" ht="15" spans="1:6">
-      <c r="A18" s="34" t="s">
-        <v>324</v>
+    <row r="18" customFormat="1" spans="1:6">
+      <c r="A18" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D18" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" ht="15" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
@@ -7497,19 +7592,19 @@
         <v>39</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D19" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:6">
+    <row r="20" customFormat="1" spans="1:6">
       <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
@@ -7517,59 +7612,59 @@
         <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D20" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" customFormat="1" ht="15" spans="1:6">
+    <row r="21" customFormat="1" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>324</v>
+        <v>331</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:6">
+    <row r="22" customFormat="1" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>324</v>
+        <v>332</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="18"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" customFormat="1" ht="15" spans="1:6">
+    <row r="23" customFormat="1" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>324</v>
+        <v>333</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="18"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" customFormat="1" ht="15" spans="1:6">
+    <row r="24" customFormat="1" spans="1:6">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -7577,17 +7672,17 @@
         <v>40</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" customFormat="1" ht="15" spans="1:6">
+    <row r="25" customFormat="1" spans="1:6">
       <c r="A25" s="8" t="s">
         <v>41</v>
       </c>
@@ -7595,77 +7690,77 @@
         <v>41</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" customFormat="1" ht="15" spans="1:6">
+    <row r="26" customFormat="1" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>324</v>
+        <v>334</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="18"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" customFormat="1" ht="15" spans="1:6">
-      <c r="A27" s="34" t="s">
-        <v>324</v>
+    <row r="27" customFormat="1" spans="1:6">
+      <c r="A27" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D27" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" customFormat="1" ht="15" spans="1:6">
+    <row r="28" customFormat="1" spans="1:6">
       <c r="A28" s="12"/>
       <c r="B28" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D28" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" customFormat="1" ht="15" spans="1:6">
+    <row r="29" customFormat="1" spans="1:6">
       <c r="A29" s="12"/>
       <c r="B29" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7678,17 +7773,17 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="41.6296296296296" customWidth="1"/>
     <col min="2" max="2" width="47.25" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.8796296296296" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="37.25" customWidth="1"/>
@@ -7696,26 +7791,26 @@
     <col min="8" max="8" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="15.75" spans="1:7">
+    <row r="1" s="20" customFormat="1" ht="15.6" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:7">
+    <row r="2" customFormat="1" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -7723,52 +7818,52 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:7">
+    <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D3" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" customFormat="1" ht="15" spans="1:7">
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D4" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" customFormat="1" ht="15" spans="1:7">
+    <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -7776,53 +7871,53 @@
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D5" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="1:6">
+    <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="21" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D6" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" customFormat="1" ht="15" spans="1:7">
+    <row r="7" customFormat="1" spans="1:7">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D7" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" customFormat="1" ht="15" spans="1:7">
+    <row r="8" customFormat="1" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>192</v>
       </c>
@@ -7830,52 +7925,52 @@
         <v>192</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" customFormat="1" ht="15" spans="1:7">
+    <row r="9" customFormat="1" spans="1:7">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D9" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" customFormat="1" ht="15" spans="1:7">
+    <row r="10" customFormat="1" spans="1:7">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D10" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" customFormat="1" ht="15" spans="1:7">
+    <row r="11" customFormat="1" spans="1:7">
       <c r="A11" s="8" t="s">
         <v>195</v>
       </c>
@@ -7883,52 +7978,52 @@
         <v>195</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D11" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="1:7">
+    <row r="12" customFormat="1" spans="1:7">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
         <v>197</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D12" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" customFormat="1" ht="15" spans="1:7">
+    <row r="13" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>196</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D13" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" customFormat="1" ht="15" spans="1:7">
+    <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="8" t="s">
         <v>198</v>
       </c>
@@ -7936,18 +8031,18 @@
         <v>198</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D14" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" customFormat="1" ht="15" spans="1:7">
+    <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="8" t="s">
         <v>199</v>
       </c>
@@ -7955,18 +8050,18 @@
         <v>199</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" customFormat="1" ht="15" spans="1:7">
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="8" t="s">
         <v>200</v>
       </c>
@@ -7974,154 +8069,154 @@
         <v>200</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" customFormat="1" ht="15" spans="1:7">
+    <row r="17" customFormat="1" spans="1:7">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
         <v>201</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D17" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" customFormat="1" ht="15" spans="1:7">
+    <row r="18" customFormat="1" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
         <v>202</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" customFormat="1" ht="15" spans="1:7">
+    <row r="19" customFormat="1" spans="1:7">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D19" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" customFormat="1" ht="15" spans="1:7">
+    <row r="20" customFormat="1" spans="1:7">
       <c r="A20" s="12"/>
       <c r="B20" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" customFormat="1" ht="15" spans="1:7">
+    <row r="21" customFormat="1" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="23" t="s">
         <v>205</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" customFormat="1" ht="15" spans="1:7">
+    <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="12"/>
       <c r="B22" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" customFormat="1" ht="15" spans="1:7">
+    <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="12"/>
       <c r="B23" s="23" t="s">
         <v>206</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" customFormat="1" ht="15" spans="1:7">
+    <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="12"/>
       <c r="B24" s="23" t="s">
         <v>207</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" customFormat="1" ht="15" spans="1:7">
+    <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="8" t="s">
         <v>208</v>
       </c>
@@ -8129,18 +8224,18 @@
         <v>208</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D25" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" customFormat="1" ht="15" spans="1:7">
+    <row r="26" customFormat="1" spans="1:7">
       <c r="A26" s="8" t="s">
         <v>209</v>
       </c>
@@ -8148,57 +8243,57 @@
         <v>209</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D26" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" customFormat="1" ht="15" spans="1:7">
+    <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="18" t="s">
-        <v>332</v>
+        <v>219</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="18"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" customFormat="1" ht="15" spans="1:7">
+    <row r="28" customFormat="1" spans="1:7">
       <c r="A28" s="18" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="18"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" customFormat="1" ht="15" spans="1:7">
+    <row r="29" customFormat="1" spans="1:7">
       <c r="A29" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" customFormat="1" ht="15" spans="1:7">
+    <row r="30" customFormat="1" spans="1:7">
       <c r="A30" s="8" t="s">
         <v>210</v>
       </c>
@@ -8206,18 +8301,18 @@
         <v>210</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" ht="15" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
         <v>211</v>
       </c>
@@ -8225,158 +8320,183 @@
         <v>211</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D31" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" customFormat="1" ht="15" spans="1:7">
+    <row r="32" customFormat="1" spans="1:7">
       <c r="A32" s="12"/>
       <c r="B32" s="12" t="s">
         <v>212</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" customFormat="1" ht="15" spans="1:7">
+    <row r="33" customFormat="1" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
         <v>213</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" customFormat="1" ht="15" spans="1:7">
+    <row r="34" customFormat="1" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
         <v>215</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" customFormat="1" ht="15" spans="1:7">
+    <row r="35" customFormat="1" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
         <v>214</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" customFormat="1" ht="15" spans="1:7">
+    <row r="36" customFormat="1" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
         <v>216</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" customFormat="1" ht="15" spans="1:7">
+    <row r="37" customFormat="1" spans="1:7">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
         <v>217</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D37" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" customFormat="1" ht="15" spans="1:7">
+    <row r="38" customFormat="1" spans="1:7">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
         <v>218</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D38" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" customFormat="1" ht="15" spans="1:7">
+    <row r="39" customFormat="1" spans="1:7">
       <c r="A39" s="18" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="18"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" customFormat="1" ht="15" spans="1:7">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="8"/>
+    <row r="40" customFormat="1" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:7">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8387,40 +8507,40 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A49" sqref="$A49:$XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="36.5666666666667" customWidth="1"/>
+    <col min="2" max="2" width="36.5648148148148" customWidth="1"/>
     <col min="4" max="4" width="30" style="1"/>
-    <col min="6" max="6" width="39.1416666666667" customWidth="1"/>
+    <col min="6" max="6" width="39.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" ht="15" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -8428,838 +8548,855 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" ht="15" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D3" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" ht="15" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D4" s="16" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" ht="15" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" ht="15" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D6" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" ht="15" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" ht="15" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" ht="15" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D9" s="16" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" ht="28.5" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D10" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" ht="15" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D11" s="13" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" ht="15" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" ht="15" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" ht="15" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" ht="15" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D15" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" ht="15" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D16" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" ht="15" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" ht="15" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D18" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" ht="15" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D19" s="16" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" ht="15" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D20" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" ht="15" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D21" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" ht="15" spans="1:7">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" ht="15" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" ht="15" spans="1:7">
+    <row r="24" spans="1:7">
       <c r="A24" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" ht="15" spans="1:7">
+    <row r="25" spans="1:7">
       <c r="A25" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" ht="15" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" ht="15" spans="1:7">
+    <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C27" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" ht="28.5" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" ht="15" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C29" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" ht="28.5" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" ht="15" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C31" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" ht="28.5" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" ht="15" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" ht="28.5" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C34" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" ht="28.5" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" ht="15" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" ht="28.5" spans="1:7">
+    <row r="37" ht="28.8" spans="1:7">
       <c r="A37" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" ht="28.5" spans="1:7">
+    <row r="38" ht="28.8" spans="1:7">
       <c r="A38" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" ht="15" spans="1:7">
+    <row r="39" spans="1:7">
       <c r="A39" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" ht="15" spans="1:7">
+    <row r="40" spans="1:7">
       <c r="A40" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="18"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" ht="15" spans="1:7">
+    <row r="41" spans="1:7">
       <c r="A41" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="18"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" ht="15" spans="1:7">
+    <row r="42" spans="1:7">
       <c r="A42" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="18"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" ht="15" spans="1:7">
+    <row r="43" spans="1:7">
       <c r="A43" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="18"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" ht="15" spans="1:7">
+    <row r="44" spans="1:7">
       <c r="A44" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="18"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" ht="15" spans="1:7">
+    <row r="45" spans="1:7">
       <c r="A45" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C45" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" ht="28.5" spans="1:7">
+    <row r="46" spans="1:7">
       <c r="A46" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C46" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" ht="28.5" spans="1:7">
+    <row r="47" spans="1:7">
       <c r="A47" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C47" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" ht="15" spans="1:7">
+    <row r="48" spans="1:7">
       <c r="A48" s="17" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="18"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
